--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>INFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11607600</v>
+        <v>12002600</v>
       </c>
       <c r="E8" s="3">
-        <v>9901300</v>
+        <v>10929600</v>
       </c>
       <c r="F8" s="3">
-        <v>9615200</v>
+        <v>9323000</v>
       </c>
       <c r="G8" s="3">
-        <v>8766700</v>
+        <v>9053600</v>
       </c>
       <c r="H8" s="3">
-        <v>122300</v>
+        <v>8254700</v>
       </c>
       <c r="I8" s="3">
-        <v>115800</v>
+        <v>115200</v>
       </c>
       <c r="J8" s="3">
+        <v>109100</v>
+      </c>
+      <c r="K8" s="3">
         <v>103900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>101100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7562900</v>
+        <v>8028800</v>
       </c>
       <c r="E9" s="3">
-        <v>6336300</v>
+        <v>7121200</v>
       </c>
       <c r="F9" s="3">
-        <v>6072700</v>
+        <v>5966200</v>
       </c>
       <c r="G9" s="3">
-        <v>5468400</v>
+        <v>5718000</v>
       </c>
       <c r="H9" s="3">
-        <v>74900</v>
+        <v>5149100</v>
       </c>
       <c r="I9" s="3">
-        <v>73900</v>
+        <v>70500</v>
       </c>
       <c r="J9" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K9" s="3">
         <v>65700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>60100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4044600</v>
+        <v>3973800</v>
       </c>
       <c r="E10" s="3">
-        <v>3565000</v>
+        <v>3808400</v>
       </c>
       <c r="F10" s="3">
-        <v>3542400</v>
+        <v>3356800</v>
       </c>
       <c r="G10" s="3">
-        <v>3298300</v>
+        <v>3335500</v>
       </c>
       <c r="H10" s="3">
-        <v>47400</v>
+        <v>3105600</v>
       </c>
       <c r="I10" s="3">
-        <v>42000</v>
+        <v>44700</v>
       </c>
       <c r="J10" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K10" s="3">
         <v>38200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>136000</v>
+        <v>22700</v>
       </c>
       <c r="E14" s="3">
-        <v>26500</v>
+        <v>128100</v>
       </c>
       <c r="F14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>18500</v>
+      </c>
+      <c r="H14" s="3">
         <v>19700</v>
       </c>
-      <c r="G14" s="3">
-        <v>20900</v>
-      </c>
-      <c r="H14" s="3">
-        <v>600</v>
-      </c>
       <c r="I14" s="3">
+        <v>500</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9058000</v>
+        <v>9441300</v>
       </c>
       <c r="E17" s="3">
-        <v>7510300</v>
+        <v>8529000</v>
       </c>
       <c r="F17" s="3">
-        <v>7242300</v>
+        <v>7071600</v>
       </c>
       <c r="G17" s="3">
-        <v>6573700</v>
+        <v>6819300</v>
       </c>
       <c r="H17" s="3">
-        <v>90600</v>
+        <v>6189700</v>
       </c>
       <c r="I17" s="3">
-        <v>88000</v>
+        <v>85300</v>
       </c>
       <c r="J17" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K17" s="3">
         <v>77100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>72000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2549500</v>
+        <v>2561200</v>
       </c>
       <c r="E18" s="3">
-        <v>2391000</v>
+        <v>2400600</v>
       </c>
       <c r="F18" s="3">
-        <v>2372900</v>
+        <v>2251400</v>
       </c>
       <c r="G18" s="3">
-        <v>2193000</v>
+        <v>2234300</v>
       </c>
       <c r="H18" s="3">
-        <v>31700</v>
+        <v>2065000</v>
       </c>
       <c r="I18" s="3">
-        <v>27800</v>
+        <v>29900</v>
       </c>
       <c r="J18" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K18" s="3">
         <v>26800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>404600</v>
+        <v>370600</v>
       </c>
       <c r="E20" s="3">
-        <v>454900</v>
+        <v>381000</v>
       </c>
       <c r="F20" s="3">
-        <v>428200</v>
+        <v>428300</v>
       </c>
       <c r="G20" s="3">
-        <v>438300</v>
+        <v>403200</v>
       </c>
       <c r="H20" s="3">
-        <v>7900</v>
+        <v>412700</v>
       </c>
       <c r="I20" s="3">
-        <v>6200</v>
+        <v>7400</v>
       </c>
       <c r="J20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K20" s="3">
         <v>6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3236700</v>
+        <v>3313100</v>
       </c>
       <c r="E21" s="3">
-        <v>3107700</v>
+        <v>3046700</v>
       </c>
       <c r="F21" s="3">
-        <v>3040400</v>
+        <v>2925200</v>
       </c>
       <c r="G21" s="3">
-        <v>2836400</v>
+        <v>2862000</v>
       </c>
       <c r="H21" s="3">
-        <v>189800</v>
+        <v>2670000</v>
       </c>
       <c r="I21" s="3">
-        <v>227000</v>
+        <v>178100</v>
       </c>
       <c r="J21" s="3">
+        <v>213100</v>
+      </c>
+      <c r="K21" s="3">
         <v>35800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>37700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>22500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2954200</v>
+        <v>2909300</v>
       </c>
       <c r="E23" s="3">
-        <v>2845900</v>
+        <v>2781600</v>
       </c>
       <c r="F23" s="3">
-        <v>2801100</v>
+        <v>2679700</v>
       </c>
       <c r="G23" s="3">
-        <v>2631400</v>
+        <v>2637500</v>
       </c>
       <c r="H23" s="3">
-        <v>39600</v>
+        <v>2477700</v>
       </c>
       <c r="I23" s="3">
-        <v>34000</v>
+        <v>37300</v>
       </c>
       <c r="J23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K23" s="3">
         <v>32900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>790600</v>
+        <v>709600</v>
       </c>
       <c r="E24" s="3">
-        <v>595400</v>
+        <v>744400</v>
       </c>
       <c r="F24" s="3">
-        <v>786000</v>
+        <v>560700</v>
       </c>
       <c r="G24" s="3">
-        <v>737200</v>
+        <v>740100</v>
       </c>
       <c r="H24" s="3">
-        <v>11300</v>
+        <v>694200</v>
       </c>
       <c r="I24" s="3">
-        <v>9400</v>
+        <v>10600</v>
       </c>
       <c r="J24" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K24" s="3">
         <v>8700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2163600</v>
+        <v>2199700</v>
       </c>
       <c r="E26" s="3">
-        <v>2250500</v>
+        <v>2037200</v>
       </c>
       <c r="F26" s="3">
-        <v>2015200</v>
+        <v>2119000</v>
       </c>
       <c r="G26" s="3">
-        <v>1894100</v>
+        <v>1897500</v>
       </c>
       <c r="H26" s="3">
-        <v>28300</v>
+        <v>1783500</v>
       </c>
       <c r="I26" s="3">
-        <v>24600</v>
+        <v>26600</v>
       </c>
       <c r="J26" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K26" s="3">
         <v>24200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24800</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2162700</v>
+        <v>2193700</v>
       </c>
       <c r="E27" s="3">
-        <v>2250500</v>
+        <v>2036400</v>
       </c>
       <c r="F27" s="3">
-        <v>2015200</v>
+        <v>2119000</v>
       </c>
       <c r="G27" s="3">
-        <v>1894100</v>
+        <v>1897500</v>
       </c>
       <c r="H27" s="3">
-        <v>28300</v>
+        <v>1783500</v>
       </c>
       <c r="I27" s="3">
-        <v>24600</v>
+        <v>26600</v>
       </c>
       <c r="J27" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K27" s="3">
         <v>24200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-404600</v>
+        <v>-370600</v>
       </c>
       <c r="E32" s="3">
-        <v>-454900</v>
+        <v>-381000</v>
       </c>
       <c r="F32" s="3">
-        <v>-428200</v>
+        <v>-428300</v>
       </c>
       <c r="G32" s="3">
-        <v>-438300</v>
+        <v>-403200</v>
       </c>
       <c r="H32" s="3">
-        <v>-7900</v>
+        <v>-412700</v>
       </c>
       <c r="I32" s="3">
-        <v>-6200</v>
+        <v>-7400</v>
       </c>
       <c r="J32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2162700</v>
+        <v>2193700</v>
       </c>
       <c r="E33" s="3">
-        <v>2250500</v>
+        <v>2036400</v>
       </c>
       <c r="F33" s="3">
-        <v>2015200</v>
+        <v>2119000</v>
       </c>
       <c r="G33" s="3">
-        <v>1894100</v>
+        <v>1897500</v>
       </c>
       <c r="H33" s="3">
-        <v>28300</v>
+        <v>1783500</v>
       </c>
       <c r="I33" s="3">
-        <v>24600</v>
+        <v>26600</v>
       </c>
       <c r="J33" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K33" s="3">
         <v>24200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2162700</v>
+        <v>2193700</v>
       </c>
       <c r="E35" s="3">
-        <v>2250500</v>
+        <v>2036400</v>
       </c>
       <c r="F35" s="3">
-        <v>2015200</v>
+        <v>2119000</v>
       </c>
       <c r="G35" s="3">
-        <v>1894100</v>
+        <v>1897500</v>
       </c>
       <c r="H35" s="3">
-        <v>28300</v>
+        <v>1783500</v>
       </c>
       <c r="I35" s="3">
-        <v>24600</v>
+        <v>26600</v>
       </c>
       <c r="J35" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K35" s="3">
         <v>24200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1943000</v>
+        <v>1573300</v>
       </c>
       <c r="E41" s="3">
-        <v>1774000</v>
+        <v>1830900</v>
       </c>
       <c r="F41" s="3">
-        <v>2010100</v>
+        <v>1671600</v>
       </c>
       <c r="G41" s="3">
-        <v>3780700</v>
+        <v>1894100</v>
       </c>
       <c r="H41" s="3">
-        <v>58000</v>
+        <v>3562600</v>
       </c>
       <c r="I41" s="3">
-        <v>51600</v>
+        <v>54700</v>
       </c>
       <c r="J41" s="3">
+        <v>48600</v>
+      </c>
+      <c r="K41" s="3">
         <v>47600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>53400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1684500</v>
+        <v>1457400</v>
       </c>
       <c r="E42" s="3">
-        <v>1833200</v>
+        <v>1587300</v>
       </c>
       <c r="F42" s="3">
-        <v>2485900</v>
+        <v>1727400</v>
       </c>
       <c r="G42" s="3">
-        <v>751400</v>
+        <v>2342500</v>
       </c>
       <c r="H42" s="3">
-        <v>11300</v>
+        <v>708100</v>
       </c>
       <c r="I42" s="3">
-        <v>15600</v>
+        <v>10700</v>
       </c>
       <c r="J42" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K42" s="3">
         <v>12500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3266000</v>
+        <v>3693700</v>
       </c>
       <c r="E43" s="3">
-        <v>2729400</v>
+        <v>3077600</v>
       </c>
       <c r="F43" s="3">
-        <v>2626000</v>
+        <v>2571900</v>
       </c>
       <c r="G43" s="3">
-        <v>2410000</v>
+        <v>2474500</v>
       </c>
       <c r="H43" s="3">
-        <v>32600</v>
+        <v>2270900</v>
       </c>
       <c r="I43" s="3">
-        <v>29200</v>
+        <v>30800</v>
       </c>
       <c r="J43" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K43" s="3">
         <v>25200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15300</v>
+        <v>19200</v>
       </c>
       <c r="E44" s="3">
-        <v>16700</v>
+        <v>14400</v>
       </c>
       <c r="F44" s="3">
-        <v>18400</v>
+        <v>15700</v>
       </c>
       <c r="G44" s="3">
-        <v>15400</v>
+        <v>17300</v>
       </c>
       <c r="H44" s="3">
-        <v>2500</v>
+        <v>14600</v>
       </c>
       <c r="I44" s="3">
         <v>2300</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+      <c r="J44" s="3">
+        <v>2200</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>515300</v>
+        <v>476800</v>
       </c>
       <c r="E45" s="3">
-        <v>669100</v>
+        <v>485500</v>
       </c>
       <c r="F45" s="3">
-        <v>399700</v>
+        <v>630500</v>
       </c>
       <c r="G45" s="3">
-        <v>300500</v>
+        <v>376700</v>
       </c>
       <c r="H45" s="3">
-        <v>1500</v>
+        <v>283100</v>
       </c>
       <c r="I45" s="3">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="J45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4500</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7424100</v>
+        <v>7220400</v>
       </c>
       <c r="E46" s="3">
-        <v>7022400</v>
+        <v>6995800</v>
       </c>
       <c r="F46" s="3">
-        <v>7540200</v>
+        <v>6617200</v>
       </c>
       <c r="G46" s="3">
-        <v>7258000</v>
+        <v>7105200</v>
       </c>
       <c r="H46" s="3">
-        <v>106000</v>
+        <v>6839200</v>
       </c>
       <c r="I46" s="3">
-        <v>100800</v>
+        <v>99900</v>
       </c>
       <c r="J46" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K46" s="3">
         <v>91300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>86000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1678300</v>
+        <v>1371800</v>
       </c>
       <c r="E47" s="3">
-        <v>1865900</v>
+        <v>1581500</v>
       </c>
       <c r="F47" s="3">
-        <v>1712600</v>
+        <v>1758300</v>
       </c>
       <c r="G47" s="3">
-        <v>1006500</v>
+        <v>1613800</v>
       </c>
       <c r="H47" s="3">
-        <v>12500</v>
+        <v>948500</v>
       </c>
       <c r="I47" s="3">
-        <v>6600</v>
+        <v>11800</v>
       </c>
       <c r="J47" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1875200</v>
+        <v>2363800</v>
       </c>
       <c r="E48" s="3">
-        <v>1704900</v>
+        <v>1767000</v>
       </c>
       <c r="F48" s="3">
-        <v>1644900</v>
+        <v>1606500</v>
       </c>
       <c r="G48" s="3">
-        <v>1478400</v>
+        <v>1550000</v>
       </c>
       <c r="H48" s="3">
-        <v>20500</v>
+        <v>1393100</v>
       </c>
       <c r="I48" s="3">
-        <v>18500</v>
+        <v>19300</v>
       </c>
       <c r="J48" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K48" s="3">
         <v>16700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>594000</v>
+        <v>950700</v>
       </c>
       <c r="E49" s="3">
-        <v>345100</v>
+        <v>559800</v>
       </c>
       <c r="F49" s="3">
-        <v>621700</v>
+        <v>325200</v>
       </c>
       <c r="G49" s="3">
-        <v>666800</v>
+        <v>585800</v>
       </c>
       <c r="H49" s="3">
-        <v>8400</v>
+        <v>628300</v>
       </c>
       <c r="I49" s="3">
-        <v>5900</v>
+        <v>7900</v>
       </c>
       <c r="J49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K49" s="3">
         <v>6100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>325600</v>
+        <v>366500</v>
       </c>
       <c r="E52" s="3">
-        <v>278300</v>
+        <v>306800</v>
       </c>
       <c r="F52" s="3">
-        <v>183600</v>
+        <v>262200</v>
       </c>
       <c r="G52" s="3">
-        <v>174900</v>
+        <v>173000</v>
       </c>
       <c r="H52" s="3">
-        <v>1700</v>
+        <v>164800</v>
       </c>
       <c r="I52" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="J52" s="3">
         <v>1900</v>
       </c>
       <c r="K52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L52" s="3">
         <v>1400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11897200</v>
+        <v>12273200</v>
       </c>
       <c r="E54" s="3">
-        <v>11216600</v>
+        <v>11210800</v>
       </c>
       <c r="F54" s="3">
-        <v>11703000</v>
+        <v>10569400</v>
       </c>
       <c r="G54" s="3">
-        <v>10584600</v>
+        <v>11027900</v>
       </c>
       <c r="H54" s="3">
-        <v>149000</v>
+        <v>9974000</v>
       </c>
       <c r="I54" s="3">
-        <v>133700</v>
+        <v>140400</v>
       </c>
       <c r="J54" s="3">
+        <v>126000</v>
+      </c>
+      <c r="K54" s="3">
         <v>119900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>109000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,133 +2137,146 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>232400</v>
+        <v>377300</v>
       </c>
       <c r="E57" s="3">
-        <v>97400</v>
+        <v>219000</v>
       </c>
       <c r="F57" s="3">
-        <v>51500</v>
+        <v>91800</v>
       </c>
       <c r="G57" s="3">
-        <v>54200</v>
+        <v>48600</v>
       </c>
       <c r="H57" s="3">
+        <v>51100</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>81900</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2384400</v>
+        <v>2300000</v>
       </c>
       <c r="E59" s="3">
-        <v>1882900</v>
+        <v>2246900</v>
       </c>
       <c r="F59" s="3">
-        <v>1915900</v>
+        <v>1774300</v>
       </c>
       <c r="G59" s="3">
-        <v>1804600</v>
+        <v>1805400</v>
       </c>
       <c r="H59" s="3">
-        <v>25200</v>
+        <v>1700500</v>
       </c>
       <c r="I59" s="3">
-        <v>21000</v>
+        <v>23800</v>
       </c>
       <c r="J59" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K59" s="3">
         <v>15800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13500</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2616800</v>
+        <v>2759200</v>
       </c>
       <c r="E60" s="3">
-        <v>1980300</v>
+        <v>2465800</v>
       </c>
       <c r="F60" s="3">
-        <v>1967400</v>
+        <v>1866100</v>
       </c>
       <c r="G60" s="3">
-        <v>1858800</v>
+        <v>1853900</v>
       </c>
       <c r="H60" s="3">
-        <v>25600</v>
+        <v>1751500</v>
       </c>
       <c r="I60" s="3">
-        <v>21400</v>
+        <v>24100</v>
       </c>
       <c r="J60" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K60" s="3">
         <v>16300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>531100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2157,39 +2299,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>153600</v>
+        <v>271700</v>
       </c>
       <c r="E62" s="3">
-        <v>120900</v>
+        <v>144700</v>
       </c>
       <c r="F62" s="3">
-        <v>50500</v>
+        <v>113900</v>
       </c>
       <c r="G62" s="3">
-        <v>52100</v>
+        <v>47600</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>49100</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2778500</v>
+        <v>3614200</v>
       </c>
       <c r="E66" s="3">
-        <v>2101400</v>
+        <v>2618200</v>
       </c>
       <c r="F66" s="3">
-        <v>2018000</v>
+        <v>1980100</v>
       </c>
       <c r="G66" s="3">
-        <v>1910800</v>
+        <v>1901500</v>
       </c>
       <c r="H66" s="3">
-        <v>26000</v>
+        <v>1800600</v>
       </c>
       <c r="I66" s="3">
-        <v>22300</v>
+        <v>24500</v>
       </c>
       <c r="J66" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K66" s="3">
         <v>17000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8631700</v>
+        <v>8161200</v>
       </c>
       <c r="E72" s="3">
-        <v>8828400</v>
+        <v>8133700</v>
       </c>
       <c r="F72" s="3">
-        <v>9133900</v>
+        <v>8319000</v>
       </c>
       <c r="G72" s="3">
-        <v>8094800</v>
+        <v>8606900</v>
       </c>
       <c r="H72" s="3">
-        <v>141700</v>
+        <v>7627800</v>
       </c>
       <c r="I72" s="3">
-        <v>124800</v>
+        <v>133500</v>
       </c>
       <c r="J72" s="3">
+        <v>117600</v>
+      </c>
+      <c r="K72" s="3">
         <v>107600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>94100</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9118700</v>
+        <v>8659000</v>
       </c>
       <c r="E76" s="3">
-        <v>9115200</v>
+        <v>8592600</v>
       </c>
       <c r="F76" s="3">
-        <v>9685100</v>
+        <v>8589300</v>
       </c>
       <c r="G76" s="3">
-        <v>8673800</v>
+        <v>9126300</v>
       </c>
       <c r="H76" s="3">
-        <v>123000</v>
+        <v>8173400</v>
       </c>
       <c r="I76" s="3">
-        <v>111400</v>
+        <v>115900</v>
       </c>
       <c r="J76" s="3">
+        <v>105000</v>
+      </c>
+      <c r="K76" s="3">
         <v>102900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>95100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2162700</v>
+        <v>2193700</v>
       </c>
       <c r="E81" s="3">
-        <v>2250500</v>
+        <v>2036400</v>
       </c>
       <c r="F81" s="3">
-        <v>2015200</v>
+        <v>2119000</v>
       </c>
       <c r="G81" s="3">
-        <v>1894100</v>
+        <v>1897500</v>
       </c>
       <c r="H81" s="3">
-        <v>28300</v>
+        <v>1783500</v>
       </c>
       <c r="I81" s="3">
-        <v>24600</v>
+        <v>26600</v>
       </c>
       <c r="J81" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K81" s="3">
         <v>24200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>282300</v>
+        <v>382500</v>
       </c>
       <c r="E83" s="3">
-        <v>261600</v>
+        <v>265900</v>
       </c>
       <c r="F83" s="3">
-        <v>239100</v>
+        <v>246300</v>
       </c>
       <c r="G83" s="3">
-        <v>204800</v>
+        <v>225100</v>
       </c>
       <c r="H83" s="3">
-        <v>150100</v>
+        <v>192900</v>
       </c>
       <c r="I83" s="3">
-        <v>192900</v>
+        <v>141300</v>
       </c>
       <c r="J83" s="3">
+        <v>181600</v>
+      </c>
+      <c r="K83" s="3">
         <v>2900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2224500</v>
+        <v>2453200</v>
       </c>
       <c r="E89" s="3">
-        <v>2044100</v>
+        <v>2094600</v>
       </c>
       <c r="F89" s="3">
-        <v>1974400</v>
+        <v>1924700</v>
       </c>
       <c r="G89" s="3">
-        <v>1718900</v>
+        <v>1859100</v>
       </c>
       <c r="H89" s="3">
-        <v>1509600</v>
+        <v>1618500</v>
       </c>
       <c r="I89" s="3">
-        <v>1711100</v>
+        <v>1421400</v>
       </c>
       <c r="J89" s="3">
+        <v>1611100</v>
+      </c>
+      <c r="K89" s="3">
         <v>24400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-343300</v>
+        <v>-437200</v>
       </c>
       <c r="E91" s="3">
-        <v>-280500</v>
+        <v>-323200</v>
       </c>
       <c r="F91" s="3">
-        <v>-387500</v>
+        <v>-264100</v>
       </c>
       <c r="G91" s="3">
-        <v>-382300</v>
+        <v>-364900</v>
       </c>
       <c r="H91" s="3">
-        <v>-315500</v>
+        <v>-360000</v>
       </c>
       <c r="I91" s="3">
-        <v>-385400</v>
+        <v>-297100</v>
       </c>
       <c r="J91" s="3">
+        <v>-362900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-221600</v>
+        <v>-237000</v>
       </c>
       <c r="E94" s="3">
-        <v>436800</v>
+        <v>-208600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2397200</v>
+        <v>411300</v>
       </c>
       <c r="G94" s="3">
-        <v>-437500</v>
+        <v>-2257200</v>
       </c>
       <c r="H94" s="3">
-        <v>-179600</v>
+        <v>-411900</v>
       </c>
       <c r="I94" s="3">
-        <v>-702400</v>
+        <v>-169100</v>
       </c>
       <c r="J94" s="3">
+        <v>-661400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1924200</v>
+        <v>-1257900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1047900</v>
+        <v>-1811800</v>
       </c>
       <c r="F96" s="3">
-        <v>-974200</v>
+        <v>-986700</v>
       </c>
       <c r="G96" s="3">
-        <v>-956500</v>
+        <v>-917300</v>
       </c>
       <c r="H96" s="3">
-        <v>-692900</v>
+        <v>-900700</v>
       </c>
       <c r="I96" s="3">
-        <v>-377100</v>
+        <v>-652400</v>
       </c>
       <c r="J96" s="3">
+        <v>-355100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7200</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2037500</v>
+        <v>-2325500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2878900</v>
+        <v>-1918500</v>
       </c>
       <c r="F100" s="3">
-        <v>-974200</v>
+        <v>-2710800</v>
       </c>
       <c r="G100" s="3">
-        <v>-956500</v>
+        <v>-917300</v>
       </c>
       <c r="H100" s="3">
-        <v>-692900</v>
+        <v>-900700</v>
       </c>
       <c r="I100" s="3">
-        <v>-441300</v>
+        <v>-652400</v>
       </c>
       <c r="J100" s="3">
+        <v>-415500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-8200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8000</v>
+        <v>-12200</v>
       </c>
       <c r="E101" s="3">
-        <v>11400</v>
+        <v>-7500</v>
       </c>
       <c r="F101" s="3">
-        <v>-17100</v>
+        <v>10700</v>
       </c>
       <c r="G101" s="3">
-        <v>2200</v>
+        <v>-16100</v>
       </c>
       <c r="H101" s="3">
-        <v>-17000</v>
+        <v>2100</v>
       </c>
       <c r="I101" s="3">
-        <v>10800</v>
+        <v>-16000</v>
       </c>
       <c r="J101" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6400</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-42500</v>
+        <v>-121500</v>
       </c>
       <c r="E102" s="3">
-        <v>-386700</v>
+        <v>-40100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1414100</v>
+        <v>-364100</v>
       </c>
       <c r="G102" s="3">
-        <v>327100</v>
+        <v>-1331500</v>
       </c>
       <c r="H102" s="3">
-        <v>620100</v>
+        <v>308000</v>
       </c>
       <c r="I102" s="3">
-        <v>578200</v>
+        <v>583900</v>
       </c>
       <c r="J102" s="3">
+        <v>544400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12002600</v>
+        <v>12229500</v>
       </c>
       <c r="E8" s="3">
-        <v>10929600</v>
+        <v>11136300</v>
       </c>
       <c r="F8" s="3">
-        <v>9323000</v>
+        <v>9499300</v>
       </c>
       <c r="G8" s="3">
-        <v>9053600</v>
+        <v>9224800</v>
       </c>
       <c r="H8" s="3">
-        <v>8254700</v>
+        <v>8410800</v>
       </c>
       <c r="I8" s="3">
-        <v>115200</v>
+        <v>117300</v>
       </c>
       <c r="J8" s="3">
-        <v>109100</v>
+        <v>111100</v>
       </c>
       <c r="K8" s="3">
         <v>103900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8028800</v>
+        <v>8180600</v>
       </c>
       <c r="E9" s="3">
-        <v>7121200</v>
+        <v>7255900</v>
       </c>
       <c r="F9" s="3">
-        <v>5966200</v>
+        <v>6079000</v>
       </c>
       <c r="G9" s="3">
-        <v>5718000</v>
+        <v>5826200</v>
       </c>
       <c r="H9" s="3">
-        <v>5149100</v>
+        <v>5246400</v>
       </c>
       <c r="I9" s="3">
-        <v>70500</v>
+        <v>71800</v>
       </c>
       <c r="J9" s="3">
-        <v>69600</v>
+        <v>70900</v>
       </c>
       <c r="K9" s="3">
         <v>65700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3973800</v>
+        <v>4048900</v>
       </c>
       <c r="E10" s="3">
-        <v>3808400</v>
+        <v>3880400</v>
       </c>
       <c r="F10" s="3">
-        <v>3356800</v>
+        <v>3420300</v>
       </c>
       <c r="G10" s="3">
-        <v>3335500</v>
+        <v>3398600</v>
       </c>
       <c r="H10" s="3">
-        <v>3105600</v>
+        <v>3164400</v>
       </c>
       <c r="I10" s="3">
-        <v>44700</v>
+        <v>45500</v>
       </c>
       <c r="J10" s="3">
-        <v>39500</v>
+        <v>40200</v>
       </c>
       <c r="K10" s="3">
         <v>38200</v>
@@ -897,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>22700</v>
+        <v>23200</v>
       </c>
       <c r="E14" s="3">
-        <v>128100</v>
+        <v>130500</v>
       </c>
       <c r="F14" s="3">
-        <v>25000</v>
+        <v>25500</v>
       </c>
       <c r="G14" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="H14" s="3">
-        <v>19700</v>
+        <v>20100</v>
       </c>
       <c r="I14" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J14" s="3">
         <v>400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9441300</v>
+        <v>9619900</v>
       </c>
       <c r="E17" s="3">
-        <v>8529000</v>
+        <v>8690300</v>
       </c>
       <c r="F17" s="3">
-        <v>7071600</v>
+        <v>7205400</v>
       </c>
       <c r="G17" s="3">
-        <v>6819300</v>
+        <v>6948200</v>
       </c>
       <c r="H17" s="3">
-        <v>6189700</v>
+        <v>6306800</v>
       </c>
       <c r="I17" s="3">
-        <v>85300</v>
+        <v>86900</v>
       </c>
       <c r="J17" s="3">
-        <v>82900</v>
+        <v>84500</v>
       </c>
       <c r="K17" s="3">
         <v>77100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2561200</v>
+        <v>2609700</v>
       </c>
       <c r="E18" s="3">
-        <v>2400600</v>
+        <v>2446000</v>
       </c>
       <c r="F18" s="3">
-        <v>2251400</v>
+        <v>2293900</v>
       </c>
       <c r="G18" s="3">
-        <v>2234300</v>
+        <v>2276600</v>
       </c>
       <c r="H18" s="3">
-        <v>2065000</v>
+        <v>2104000</v>
       </c>
       <c r="I18" s="3">
-        <v>29900</v>
+        <v>30400</v>
       </c>
       <c r="J18" s="3">
-        <v>26200</v>
+        <v>26700</v>
       </c>
       <c r="K18" s="3">
         <v>26800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>370600</v>
+        <v>377600</v>
       </c>
       <c r="E20" s="3">
-        <v>381000</v>
+        <v>388200</v>
       </c>
       <c r="F20" s="3">
-        <v>428300</v>
+        <v>436400</v>
       </c>
       <c r="G20" s="3">
-        <v>403200</v>
+        <v>410800</v>
       </c>
       <c r="H20" s="3">
-        <v>412700</v>
+        <v>420500</v>
       </c>
       <c r="I20" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="J20" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K20" s="3">
         <v>6100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3313100</v>
+        <v>3377200</v>
       </c>
       <c r="E21" s="3">
-        <v>3046700</v>
+        <v>3105300</v>
       </c>
       <c r="F21" s="3">
-        <v>2925200</v>
+        <v>2981500</v>
       </c>
       <c r="G21" s="3">
-        <v>2862000</v>
+        <v>2917000</v>
       </c>
       <c r="H21" s="3">
-        <v>2670000</v>
+        <v>2721200</v>
       </c>
       <c r="I21" s="3">
-        <v>178100</v>
+        <v>182100</v>
       </c>
       <c r="J21" s="3">
-        <v>213100</v>
+        <v>217800</v>
       </c>
       <c r="K21" s="3">
         <v>35800</v>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22500</v>
+        <v>22900</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2909300</v>
+        <v>2964300</v>
       </c>
       <c r="E23" s="3">
-        <v>2781600</v>
+        <v>2834200</v>
       </c>
       <c r="F23" s="3">
-        <v>2679700</v>
+        <v>2730400</v>
       </c>
       <c r="G23" s="3">
-        <v>2637500</v>
+        <v>2687400</v>
       </c>
       <c r="H23" s="3">
-        <v>2477700</v>
+        <v>2524500</v>
       </c>
       <c r="I23" s="3">
-        <v>37300</v>
+        <v>38000</v>
       </c>
       <c r="J23" s="3">
-        <v>32000</v>
+        <v>32600</v>
       </c>
       <c r="K23" s="3">
         <v>32900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>709600</v>
+        <v>723100</v>
       </c>
       <c r="E24" s="3">
-        <v>744400</v>
+        <v>758500</v>
       </c>
       <c r="F24" s="3">
-        <v>560700</v>
+        <v>571300</v>
       </c>
       <c r="G24" s="3">
-        <v>740100</v>
+        <v>754100</v>
       </c>
       <c r="H24" s="3">
-        <v>694200</v>
+        <v>707300</v>
       </c>
       <c r="I24" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="J24" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="K24" s="3">
         <v>8700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2199700</v>
+        <v>2241300</v>
       </c>
       <c r="E26" s="3">
-        <v>2037200</v>
+        <v>2075700</v>
       </c>
       <c r="F26" s="3">
-        <v>2119000</v>
+        <v>2159100</v>
       </c>
       <c r="G26" s="3">
-        <v>1897500</v>
+        <v>1933300</v>
       </c>
       <c r="H26" s="3">
-        <v>1783500</v>
+        <v>1817200</v>
       </c>
       <c r="I26" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="J26" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="K26" s="3">
         <v>24200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2193700</v>
+        <v>2235200</v>
       </c>
       <c r="E27" s="3">
-        <v>2036400</v>
+        <v>2074900</v>
       </c>
       <c r="F27" s="3">
-        <v>2119000</v>
+        <v>2159100</v>
       </c>
       <c r="G27" s="3">
-        <v>1897500</v>
+        <v>1933300</v>
       </c>
       <c r="H27" s="3">
-        <v>1783500</v>
+        <v>1817200</v>
       </c>
       <c r="I27" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="J27" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="K27" s="3">
         <v>24200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-370600</v>
+        <v>-377600</v>
       </c>
       <c r="E32" s="3">
-        <v>-381000</v>
+        <v>-388200</v>
       </c>
       <c r="F32" s="3">
-        <v>-428300</v>
+        <v>-436400</v>
       </c>
       <c r="G32" s="3">
-        <v>-403200</v>
+        <v>-410800</v>
       </c>
       <c r="H32" s="3">
-        <v>-412700</v>
+        <v>-420500</v>
       </c>
       <c r="I32" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="J32" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="K32" s="3">
         <v>-6100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2193700</v>
+        <v>2235200</v>
       </c>
       <c r="E33" s="3">
-        <v>2036400</v>
+        <v>2074900</v>
       </c>
       <c r="F33" s="3">
-        <v>2119000</v>
+        <v>2159100</v>
       </c>
       <c r="G33" s="3">
-        <v>1897500</v>
+        <v>1933300</v>
       </c>
       <c r="H33" s="3">
-        <v>1783500</v>
+        <v>1817200</v>
       </c>
       <c r="I33" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="J33" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="K33" s="3">
         <v>24200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2193700</v>
+        <v>2235200</v>
       </c>
       <c r="E35" s="3">
-        <v>2036400</v>
+        <v>2074900</v>
       </c>
       <c r="F35" s="3">
-        <v>2119000</v>
+        <v>2159100</v>
       </c>
       <c r="G35" s="3">
-        <v>1897500</v>
+        <v>1933300</v>
       </c>
       <c r="H35" s="3">
-        <v>1783500</v>
+        <v>1817200</v>
       </c>
       <c r="I35" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="J35" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="K35" s="3">
         <v>24200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1573300</v>
+        <v>1601900</v>
       </c>
       <c r="E41" s="3">
-        <v>1830900</v>
+        <v>1864100</v>
       </c>
       <c r="F41" s="3">
-        <v>1671600</v>
+        <v>1701900</v>
       </c>
       <c r="G41" s="3">
-        <v>1894100</v>
+        <v>1928500</v>
       </c>
       <c r="H41" s="3">
-        <v>3562600</v>
+        <v>3627200</v>
       </c>
       <c r="I41" s="3">
-        <v>54700</v>
+        <v>55700</v>
       </c>
       <c r="J41" s="3">
-        <v>48600</v>
+        <v>49500</v>
       </c>
       <c r="K41" s="3">
         <v>47600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1457400</v>
+        <v>1483900</v>
       </c>
       <c r="E42" s="3">
-        <v>1587300</v>
+        <v>1616100</v>
       </c>
       <c r="F42" s="3">
-        <v>1727400</v>
+        <v>1758800</v>
       </c>
       <c r="G42" s="3">
-        <v>2342500</v>
+        <v>2385000</v>
       </c>
       <c r="H42" s="3">
-        <v>708100</v>
+        <v>720900</v>
       </c>
       <c r="I42" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="J42" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="K42" s="3">
         <v>12500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3693700</v>
+        <v>3760700</v>
       </c>
       <c r="E43" s="3">
-        <v>3077600</v>
+        <v>3133400</v>
       </c>
       <c r="F43" s="3">
-        <v>2571900</v>
+        <v>2618600</v>
       </c>
       <c r="G43" s="3">
-        <v>2474500</v>
+        <v>2519400</v>
       </c>
       <c r="H43" s="3">
-        <v>2270900</v>
+        <v>2312100</v>
       </c>
       <c r="I43" s="3">
-        <v>30800</v>
+        <v>31300</v>
       </c>
       <c r="J43" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="K43" s="3">
         <v>25200</v>
@@ -1751,22 +1751,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19200</v>
+        <v>19500</v>
       </c>
       <c r="E44" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="F44" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="G44" s="3">
-        <v>17300</v>
+        <v>17600</v>
       </c>
       <c r="H44" s="3">
-        <v>14600</v>
+        <v>14800</v>
       </c>
       <c r="I44" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J44" s="3">
         <v>2200</v>
@@ -1784,22 +1784,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>476800</v>
+        <v>485500</v>
       </c>
       <c r="E45" s="3">
-        <v>485500</v>
+        <v>494300</v>
       </c>
       <c r="F45" s="3">
-        <v>630500</v>
+        <v>642000</v>
       </c>
       <c r="G45" s="3">
-        <v>376700</v>
+        <v>383500</v>
       </c>
       <c r="H45" s="3">
-        <v>283100</v>
+        <v>288300</v>
       </c>
       <c r="I45" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J45" s="3">
         <v>2000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7220400</v>
+        <v>7351400</v>
       </c>
       <c r="E46" s="3">
-        <v>6995800</v>
+        <v>7122700</v>
       </c>
       <c r="F46" s="3">
-        <v>6617200</v>
+        <v>6737300</v>
       </c>
       <c r="G46" s="3">
-        <v>7105200</v>
+        <v>7234100</v>
       </c>
       <c r="H46" s="3">
-        <v>6839200</v>
+        <v>6963300</v>
       </c>
       <c r="I46" s="3">
-        <v>99900</v>
+        <v>101700</v>
       </c>
       <c r="J46" s="3">
-        <v>95000</v>
+        <v>96700</v>
       </c>
       <c r="K46" s="3">
         <v>91300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1371800</v>
+        <v>1396700</v>
       </c>
       <c r="E47" s="3">
-        <v>1581500</v>
+        <v>1610200</v>
       </c>
       <c r="F47" s="3">
-        <v>1758300</v>
+        <v>1790200</v>
       </c>
       <c r="G47" s="3">
-        <v>1613800</v>
+        <v>1643100</v>
       </c>
       <c r="H47" s="3">
-        <v>948500</v>
+        <v>965700</v>
       </c>
       <c r="I47" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="J47" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="K47" s="3">
         <v>3800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2363800</v>
+        <v>2406700</v>
       </c>
       <c r="E48" s="3">
-        <v>1767000</v>
+        <v>1799100</v>
       </c>
       <c r="F48" s="3">
-        <v>1606500</v>
+        <v>1635700</v>
       </c>
       <c r="G48" s="3">
-        <v>1550000</v>
+        <v>1578100</v>
       </c>
       <c r="H48" s="3">
-        <v>1393100</v>
+        <v>1418400</v>
       </c>
       <c r="I48" s="3">
-        <v>19300</v>
+        <v>19700</v>
       </c>
       <c r="J48" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="K48" s="3">
         <v>16700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>950700</v>
+        <v>968000</v>
       </c>
       <c r="E49" s="3">
-        <v>559800</v>
+        <v>569900</v>
       </c>
       <c r="F49" s="3">
-        <v>325200</v>
+        <v>331100</v>
       </c>
       <c r="G49" s="3">
-        <v>585800</v>
+        <v>596500</v>
       </c>
       <c r="H49" s="3">
-        <v>628300</v>
+        <v>639700</v>
       </c>
       <c r="I49" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="J49" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K49" s="3">
         <v>6100</v>
@@ -2015,19 +2015,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>366500</v>
+        <v>373100</v>
       </c>
       <c r="E52" s="3">
-        <v>306800</v>
+        <v>312400</v>
       </c>
       <c r="F52" s="3">
-        <v>262200</v>
+        <v>267000</v>
       </c>
       <c r="G52" s="3">
-        <v>173000</v>
+        <v>176200</v>
       </c>
       <c r="H52" s="3">
-        <v>164800</v>
+        <v>167800</v>
       </c>
       <c r="I52" s="3">
         <v>1600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12273200</v>
+        <v>12495800</v>
       </c>
       <c r="E54" s="3">
-        <v>11210800</v>
+        <v>11414200</v>
       </c>
       <c r="F54" s="3">
-        <v>10569400</v>
+        <v>10761200</v>
       </c>
       <c r="G54" s="3">
-        <v>11027900</v>
+        <v>11227900</v>
       </c>
       <c r="H54" s="3">
-        <v>9974000</v>
+        <v>10154900</v>
       </c>
       <c r="I54" s="3">
-        <v>140400</v>
+        <v>143000</v>
       </c>
       <c r="J54" s="3">
-        <v>126000</v>
+        <v>128300</v>
       </c>
       <c r="K54" s="3">
         <v>119900</v>
@@ -2144,19 +2144,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>377300</v>
+        <v>384200</v>
       </c>
       <c r="E57" s="3">
-        <v>219000</v>
+        <v>222900</v>
       </c>
       <c r="F57" s="3">
-        <v>91800</v>
+        <v>93500</v>
       </c>
       <c r="G57" s="3">
-        <v>48600</v>
+        <v>49400</v>
       </c>
       <c r="H57" s="3">
-        <v>51100</v>
+        <v>52000</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -2177,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>81900</v>
+        <v>83400</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2300000</v>
+        <v>2341800</v>
       </c>
       <c r="E59" s="3">
-        <v>2246900</v>
+        <v>2287600</v>
       </c>
       <c r="F59" s="3">
-        <v>1774300</v>
+        <v>1806500</v>
       </c>
       <c r="G59" s="3">
-        <v>1805400</v>
+        <v>1838100</v>
       </c>
       <c r="H59" s="3">
-        <v>1700500</v>
+        <v>1731300</v>
       </c>
       <c r="I59" s="3">
-        <v>23800</v>
+        <v>24200</v>
       </c>
       <c r="J59" s="3">
-        <v>19800</v>
+        <v>20100</v>
       </c>
       <c r="K59" s="3">
         <v>15800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2759200</v>
+        <v>2809300</v>
       </c>
       <c r="E60" s="3">
-        <v>2465800</v>
+        <v>2510500</v>
       </c>
       <c r="F60" s="3">
-        <v>1866100</v>
+        <v>1899900</v>
       </c>
       <c r="G60" s="3">
-        <v>1853900</v>
+        <v>1887600</v>
       </c>
       <c r="H60" s="3">
-        <v>1751500</v>
+        <v>1783300</v>
       </c>
       <c r="I60" s="3">
-        <v>24100</v>
+        <v>24500</v>
       </c>
       <c r="J60" s="3">
-        <v>20200</v>
+        <v>20500</v>
       </c>
       <c r="K60" s="3">
         <v>16300</v>
@@ -2276,7 +2276,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>531100</v>
+        <v>540700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2309,19 +2309,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>271700</v>
+        <v>276700</v>
       </c>
       <c r="E62" s="3">
-        <v>144700</v>
+        <v>147400</v>
       </c>
       <c r="F62" s="3">
-        <v>113900</v>
+        <v>116000</v>
       </c>
       <c r="G62" s="3">
-        <v>47600</v>
+        <v>48500</v>
       </c>
       <c r="H62" s="3">
-        <v>49100</v>
+        <v>50000</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3614200</v>
+        <v>3679700</v>
       </c>
       <c r="E66" s="3">
-        <v>2618200</v>
+        <v>2665700</v>
       </c>
       <c r="F66" s="3">
-        <v>1980100</v>
+        <v>2016100</v>
       </c>
       <c r="G66" s="3">
-        <v>1901500</v>
+        <v>1936000</v>
       </c>
       <c r="H66" s="3">
-        <v>1800600</v>
+        <v>1833300</v>
       </c>
       <c r="I66" s="3">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="J66" s="3">
-        <v>21000</v>
+        <v>21400</v>
       </c>
       <c r="K66" s="3">
         <v>17000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8161200</v>
+        <v>8309200</v>
       </c>
       <c r="E72" s="3">
-        <v>8133700</v>
+        <v>8281200</v>
       </c>
       <c r="F72" s="3">
-        <v>8319000</v>
+        <v>8469900</v>
       </c>
       <c r="G72" s="3">
-        <v>8606900</v>
+        <v>8763000</v>
       </c>
       <c r="H72" s="3">
-        <v>7627800</v>
+        <v>7766100</v>
       </c>
       <c r="I72" s="3">
-        <v>133500</v>
+        <v>135900</v>
       </c>
       <c r="J72" s="3">
-        <v>117600</v>
+        <v>119800</v>
       </c>
       <c r="K72" s="3">
         <v>107600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8659000</v>
+        <v>8816100</v>
       </c>
       <c r="E76" s="3">
-        <v>8592600</v>
+        <v>8748500</v>
       </c>
       <c r="F76" s="3">
-        <v>8589300</v>
+        <v>8745100</v>
       </c>
       <c r="G76" s="3">
-        <v>9126300</v>
+        <v>9291900</v>
       </c>
       <c r="H76" s="3">
-        <v>8173400</v>
+        <v>8321600</v>
       </c>
       <c r="I76" s="3">
-        <v>115900</v>
+        <v>118000</v>
       </c>
       <c r="J76" s="3">
-        <v>105000</v>
+        <v>106900</v>
       </c>
       <c r="K76" s="3">
         <v>102900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2193700</v>
+        <v>2235200</v>
       </c>
       <c r="E81" s="3">
-        <v>2036400</v>
+        <v>2074900</v>
       </c>
       <c r="F81" s="3">
-        <v>2119000</v>
+        <v>2159100</v>
       </c>
       <c r="G81" s="3">
-        <v>1897500</v>
+        <v>1933300</v>
       </c>
       <c r="H81" s="3">
-        <v>1783500</v>
+        <v>1817200</v>
       </c>
       <c r="I81" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="J81" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="K81" s="3">
         <v>24200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>382500</v>
+        <v>389700</v>
       </c>
       <c r="E83" s="3">
-        <v>265900</v>
+        <v>270900</v>
       </c>
       <c r="F83" s="3">
-        <v>246300</v>
+        <v>250900</v>
       </c>
       <c r="G83" s="3">
-        <v>225100</v>
+        <v>229400</v>
       </c>
       <c r="H83" s="3">
-        <v>192900</v>
+        <v>196500</v>
       </c>
       <c r="I83" s="3">
-        <v>141300</v>
+        <v>144000</v>
       </c>
       <c r="J83" s="3">
-        <v>181600</v>
+        <v>185100</v>
       </c>
       <c r="K83" s="3">
         <v>2900</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2453200</v>
+        <v>2499600</v>
       </c>
       <c r="E89" s="3">
-        <v>2094600</v>
+        <v>2134200</v>
       </c>
       <c r="F89" s="3">
-        <v>1924700</v>
+        <v>1961100</v>
       </c>
       <c r="G89" s="3">
-        <v>1859100</v>
+        <v>1894300</v>
       </c>
       <c r="H89" s="3">
-        <v>1618500</v>
+        <v>1649100</v>
       </c>
       <c r="I89" s="3">
-        <v>1421400</v>
+        <v>1448300</v>
       </c>
       <c r="J89" s="3">
-        <v>1611100</v>
+        <v>1641600</v>
       </c>
       <c r="K89" s="3">
         <v>24400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-437200</v>
+        <v>-445500</v>
       </c>
       <c r="E91" s="3">
-        <v>-323200</v>
+        <v>-329300</v>
       </c>
       <c r="F91" s="3">
-        <v>-264100</v>
+        <v>-269100</v>
       </c>
       <c r="G91" s="3">
-        <v>-364900</v>
+        <v>-371800</v>
       </c>
       <c r="H91" s="3">
-        <v>-360000</v>
+        <v>-366800</v>
       </c>
       <c r="I91" s="3">
-        <v>-297100</v>
+        <v>-302700</v>
       </c>
       <c r="J91" s="3">
-        <v>-362900</v>
+        <v>-369800</v>
       </c>
       <c r="K91" s="3">
         <v>-5400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-237000</v>
+        <v>-241500</v>
       </c>
       <c r="E94" s="3">
-        <v>-208600</v>
+        <v>-212600</v>
       </c>
       <c r="F94" s="3">
-        <v>411300</v>
+        <v>419100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2257200</v>
+        <v>-2299900</v>
       </c>
       <c r="H94" s="3">
-        <v>-411900</v>
+        <v>-419700</v>
       </c>
       <c r="I94" s="3">
-        <v>-169100</v>
+        <v>-172300</v>
       </c>
       <c r="J94" s="3">
-        <v>-661400</v>
+        <v>-673900</v>
       </c>
       <c r="K94" s="3">
         <v>-13000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1257900</v>
+        <v>-1281700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1811800</v>
+        <v>-1846100</v>
       </c>
       <c r="F96" s="3">
-        <v>-986700</v>
+        <v>-1005400</v>
       </c>
       <c r="G96" s="3">
-        <v>-917300</v>
+        <v>-934700</v>
       </c>
       <c r="H96" s="3">
-        <v>-900700</v>
+        <v>-917700</v>
       </c>
       <c r="I96" s="3">
-        <v>-652400</v>
+        <v>-664700</v>
       </c>
       <c r="J96" s="3">
-        <v>-355100</v>
+        <v>-361800</v>
       </c>
       <c r="K96" s="3">
         <v>-6900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2325500</v>
+        <v>-2369500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1918500</v>
+        <v>-1954800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2710800</v>
+        <v>-2762000</v>
       </c>
       <c r="G100" s="3">
-        <v>-917300</v>
+        <v>-934700</v>
       </c>
       <c r="H100" s="3">
-        <v>-900700</v>
+        <v>-917700</v>
       </c>
       <c r="I100" s="3">
-        <v>-652400</v>
+        <v>-664700</v>
       </c>
       <c r="J100" s="3">
-        <v>-415500</v>
+        <v>-423400</v>
       </c>
       <c r="K100" s="3">
         <v>-8200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12200</v>
+        <v>-12400</v>
       </c>
       <c r="E101" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="F101" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="G101" s="3">
-        <v>-16100</v>
+        <v>-16400</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I101" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="J101" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="K101" s="3">
         <v>-3600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-121500</v>
+        <v>-123800</v>
       </c>
       <c r="E102" s="3">
-        <v>-40100</v>
+        <v>-40800</v>
       </c>
       <c r="F102" s="3">
-        <v>-364100</v>
+        <v>-371000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1331500</v>
+        <v>-1356700</v>
       </c>
       <c r="H102" s="3">
-        <v>308000</v>
+        <v>313900</v>
       </c>
       <c r="I102" s="3">
-        <v>583900</v>
+        <v>595000</v>
       </c>
       <c r="J102" s="3">
-        <v>544400</v>
+        <v>554700</v>
       </c>
       <c r="K102" s="3">
         <v>-400</v>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12229500</v>
+        <v>12284000</v>
       </c>
       <c r="E8" s="3">
-        <v>11136300</v>
+        <v>11185900</v>
       </c>
       <c r="F8" s="3">
-        <v>9499300</v>
+        <v>9541600</v>
       </c>
       <c r="G8" s="3">
-        <v>9224800</v>
+        <v>9265900</v>
       </c>
       <c r="H8" s="3">
-        <v>8410800</v>
+        <v>8448300</v>
       </c>
       <c r="I8" s="3">
-        <v>117300</v>
+        <v>117900</v>
       </c>
       <c r="J8" s="3">
-        <v>111100</v>
+        <v>111600</v>
       </c>
       <c r="K8" s="3">
         <v>103900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8180600</v>
+        <v>8217000</v>
       </c>
       <c r="E9" s="3">
-        <v>7255900</v>
+        <v>7288200</v>
       </c>
       <c r="F9" s="3">
-        <v>6079000</v>
+        <v>6106100</v>
       </c>
       <c r="G9" s="3">
-        <v>5826200</v>
+        <v>5852100</v>
       </c>
       <c r="H9" s="3">
-        <v>5246400</v>
+        <v>5269800</v>
       </c>
       <c r="I9" s="3">
-        <v>71800</v>
+        <v>72200</v>
       </c>
       <c r="J9" s="3">
-        <v>70900</v>
+        <v>71200</v>
       </c>
       <c r="K9" s="3">
         <v>65700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4048900</v>
+        <v>4067000</v>
       </c>
       <c r="E10" s="3">
-        <v>3880400</v>
+        <v>3897700</v>
       </c>
       <c r="F10" s="3">
-        <v>3420300</v>
+        <v>3435500</v>
       </c>
       <c r="G10" s="3">
-        <v>3398600</v>
+        <v>3413800</v>
       </c>
       <c r="H10" s="3">
-        <v>3164400</v>
+        <v>3178500</v>
       </c>
       <c r="I10" s="3">
-        <v>45500</v>
+        <v>45700</v>
       </c>
       <c r="J10" s="3">
-        <v>40200</v>
+        <v>40400</v>
       </c>
       <c r="K10" s="3">
         <v>38200</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="E14" s="3">
-        <v>130500</v>
+        <v>131100</v>
       </c>
       <c r="F14" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="G14" s="3">
         <v>18900</v>
       </c>
       <c r="H14" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="I14" s="3">
         <v>600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9619900</v>
+        <v>9662700</v>
       </c>
       <c r="E17" s="3">
-        <v>8690300</v>
+        <v>8729000</v>
       </c>
       <c r="F17" s="3">
-        <v>7205400</v>
+        <v>7237500</v>
       </c>
       <c r="G17" s="3">
-        <v>6948200</v>
+        <v>6979200</v>
       </c>
       <c r="H17" s="3">
-        <v>6306800</v>
+        <v>6334900</v>
       </c>
       <c r="I17" s="3">
-        <v>86900</v>
+        <v>87300</v>
       </c>
       <c r="J17" s="3">
-        <v>84500</v>
+        <v>84800</v>
       </c>
       <c r="K17" s="3">
         <v>77100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2609700</v>
+        <v>2621300</v>
       </c>
       <c r="E18" s="3">
-        <v>2446000</v>
+        <v>2456900</v>
       </c>
       <c r="F18" s="3">
-        <v>2293900</v>
+        <v>2304200</v>
       </c>
       <c r="G18" s="3">
-        <v>2276600</v>
+        <v>2286700</v>
       </c>
       <c r="H18" s="3">
-        <v>2104000</v>
+        <v>2113400</v>
       </c>
       <c r="I18" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="J18" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="K18" s="3">
         <v>26800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>377600</v>
+        <v>379200</v>
       </c>
       <c r="E20" s="3">
-        <v>388200</v>
+        <v>389900</v>
       </c>
       <c r="F20" s="3">
-        <v>436400</v>
+        <v>438400</v>
       </c>
       <c r="G20" s="3">
-        <v>410800</v>
+        <v>412700</v>
       </c>
       <c r="H20" s="3">
-        <v>420500</v>
+        <v>422400</v>
       </c>
       <c r="I20" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="J20" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K20" s="3">
         <v>6100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3377200</v>
+        <v>3392300</v>
       </c>
       <c r="E21" s="3">
-        <v>3105300</v>
+        <v>3119100</v>
       </c>
       <c r="F21" s="3">
-        <v>2981500</v>
+        <v>2994800</v>
       </c>
       <c r="G21" s="3">
-        <v>2917000</v>
+        <v>2930000</v>
       </c>
       <c r="H21" s="3">
-        <v>2721200</v>
+        <v>2733300</v>
       </c>
       <c r="I21" s="3">
-        <v>182100</v>
+        <v>182900</v>
       </c>
       <c r="J21" s="3">
-        <v>217800</v>
+        <v>218800</v>
       </c>
       <c r="K21" s="3">
         <v>35800</v>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2964300</v>
+        <v>2977500</v>
       </c>
       <c r="E23" s="3">
-        <v>2834200</v>
+        <v>2846800</v>
       </c>
       <c r="F23" s="3">
-        <v>2730400</v>
+        <v>2742500</v>
       </c>
       <c r="G23" s="3">
-        <v>2687400</v>
+        <v>2699400</v>
       </c>
       <c r="H23" s="3">
-        <v>2524500</v>
+        <v>2535800</v>
       </c>
       <c r="I23" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="J23" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="K23" s="3">
         <v>32900</v>
@@ -1188,22 +1188,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>723100</v>
+        <v>726300</v>
       </c>
       <c r="E24" s="3">
-        <v>758500</v>
+        <v>761900</v>
       </c>
       <c r="F24" s="3">
-        <v>571300</v>
+        <v>573800</v>
       </c>
       <c r="G24" s="3">
-        <v>754100</v>
+        <v>757400</v>
       </c>
       <c r="H24" s="3">
-        <v>707300</v>
+        <v>710500</v>
       </c>
       <c r="I24" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="J24" s="3">
         <v>9000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2241300</v>
+        <v>2251300</v>
       </c>
       <c r="E26" s="3">
-        <v>2075700</v>
+        <v>2085000</v>
       </c>
       <c r="F26" s="3">
-        <v>2159100</v>
+        <v>2168700</v>
       </c>
       <c r="G26" s="3">
-        <v>1933300</v>
+        <v>1942000</v>
       </c>
       <c r="H26" s="3">
-        <v>1817200</v>
+        <v>1825300</v>
       </c>
       <c r="I26" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="J26" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="K26" s="3">
         <v>24200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2235200</v>
+        <v>2245200</v>
       </c>
       <c r="E27" s="3">
-        <v>2074900</v>
+        <v>2084200</v>
       </c>
       <c r="F27" s="3">
-        <v>2159100</v>
+        <v>2168700</v>
       </c>
       <c r="G27" s="3">
-        <v>1933300</v>
+        <v>1942000</v>
       </c>
       <c r="H27" s="3">
-        <v>1817200</v>
+        <v>1825300</v>
       </c>
       <c r="I27" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="J27" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="K27" s="3">
         <v>24200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-377600</v>
+        <v>-379200</v>
       </c>
       <c r="E32" s="3">
-        <v>-388200</v>
+        <v>-389900</v>
       </c>
       <c r="F32" s="3">
-        <v>-436400</v>
+        <v>-438400</v>
       </c>
       <c r="G32" s="3">
-        <v>-410800</v>
+        <v>-412700</v>
       </c>
       <c r="H32" s="3">
-        <v>-420500</v>
+        <v>-422400</v>
       </c>
       <c r="I32" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="J32" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="K32" s="3">
         <v>-6100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2235200</v>
+        <v>2245200</v>
       </c>
       <c r="E33" s="3">
-        <v>2074900</v>
+        <v>2084200</v>
       </c>
       <c r="F33" s="3">
-        <v>2159100</v>
+        <v>2168700</v>
       </c>
       <c r="G33" s="3">
-        <v>1933300</v>
+        <v>1942000</v>
       </c>
       <c r="H33" s="3">
-        <v>1817200</v>
+        <v>1825300</v>
       </c>
       <c r="I33" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="J33" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="K33" s="3">
         <v>24200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2235200</v>
+        <v>2245200</v>
       </c>
       <c r="E35" s="3">
-        <v>2074900</v>
+        <v>2084200</v>
       </c>
       <c r="F35" s="3">
-        <v>2159100</v>
+        <v>2168700</v>
       </c>
       <c r="G35" s="3">
-        <v>1933300</v>
+        <v>1942000</v>
       </c>
       <c r="H35" s="3">
-        <v>1817200</v>
+        <v>1825300</v>
       </c>
       <c r="I35" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="J35" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="K35" s="3">
         <v>24200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1601900</v>
+        <v>1609000</v>
       </c>
       <c r="E41" s="3">
-        <v>1864100</v>
+        <v>1872400</v>
       </c>
       <c r="F41" s="3">
-        <v>1701900</v>
+        <v>1709500</v>
       </c>
       <c r="G41" s="3">
-        <v>1928500</v>
+        <v>1937100</v>
       </c>
       <c r="H41" s="3">
-        <v>3627200</v>
+        <v>3643400</v>
       </c>
       <c r="I41" s="3">
-        <v>55700</v>
+        <v>55900</v>
       </c>
       <c r="J41" s="3">
-        <v>49500</v>
+        <v>49700</v>
       </c>
       <c r="K41" s="3">
         <v>47600</v>
@@ -1685,19 +1685,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1483900</v>
+        <v>1490500</v>
       </c>
       <c r="E42" s="3">
-        <v>1616100</v>
+        <v>1623300</v>
       </c>
       <c r="F42" s="3">
-        <v>1758800</v>
+        <v>1766600</v>
       </c>
       <c r="G42" s="3">
-        <v>2385000</v>
+        <v>2395600</v>
       </c>
       <c r="H42" s="3">
-        <v>720900</v>
+        <v>724100</v>
       </c>
       <c r="I42" s="3">
         <v>10900</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3760700</v>
+        <v>3777400</v>
       </c>
       <c r="E43" s="3">
-        <v>3133400</v>
+        <v>3147300</v>
       </c>
       <c r="F43" s="3">
-        <v>2618600</v>
+        <v>2630200</v>
       </c>
       <c r="G43" s="3">
-        <v>2519400</v>
+        <v>2530700</v>
       </c>
       <c r="H43" s="3">
-        <v>2312100</v>
+        <v>2322400</v>
       </c>
       <c r="I43" s="3">
-        <v>31300</v>
+        <v>31500</v>
       </c>
       <c r="J43" s="3">
-        <v>28000</v>
+        <v>28100</v>
       </c>
       <c r="K43" s="3">
         <v>25200</v>
@@ -1751,19 +1751,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="E44" s="3">
         <v>14700</v>
       </c>
       <c r="F44" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="G44" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="H44" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="I44" s="3">
         <v>2400</v>
@@ -1784,19 +1784,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>485500</v>
+        <v>487600</v>
       </c>
       <c r="E45" s="3">
-        <v>494300</v>
+        <v>496600</v>
       </c>
       <c r="F45" s="3">
-        <v>642000</v>
+        <v>644800</v>
       </c>
       <c r="G45" s="3">
-        <v>383500</v>
+        <v>385200</v>
       </c>
       <c r="H45" s="3">
-        <v>288300</v>
+        <v>289500</v>
       </c>
       <c r="I45" s="3">
         <v>1500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7351400</v>
+        <v>7384100</v>
       </c>
       <c r="E46" s="3">
-        <v>7122700</v>
+        <v>7154400</v>
       </c>
       <c r="F46" s="3">
-        <v>6737300</v>
+        <v>6767300</v>
       </c>
       <c r="G46" s="3">
-        <v>7234100</v>
+        <v>7266300</v>
       </c>
       <c r="H46" s="3">
-        <v>6963300</v>
+        <v>6994300</v>
       </c>
       <c r="I46" s="3">
-        <v>101700</v>
+        <v>102200</v>
       </c>
       <c r="J46" s="3">
-        <v>96700</v>
+        <v>97100</v>
       </c>
       <c r="K46" s="3">
         <v>91300</v>
@@ -1850,19 +1850,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1396700</v>
+        <v>1402900</v>
       </c>
       <c r="E47" s="3">
-        <v>1610200</v>
+        <v>1617400</v>
       </c>
       <c r="F47" s="3">
-        <v>1790200</v>
+        <v>1798100</v>
       </c>
       <c r="G47" s="3">
-        <v>1643100</v>
+        <v>1650400</v>
       </c>
       <c r="H47" s="3">
-        <v>965700</v>
+        <v>970000</v>
       </c>
       <c r="I47" s="3">
         <v>12000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2406700</v>
+        <v>2417400</v>
       </c>
       <c r="E48" s="3">
-        <v>1799100</v>
+        <v>1807100</v>
       </c>
       <c r="F48" s="3">
-        <v>1635700</v>
+        <v>1642900</v>
       </c>
       <c r="G48" s="3">
-        <v>1578100</v>
+        <v>1585200</v>
       </c>
       <c r="H48" s="3">
-        <v>1418400</v>
+        <v>1424700</v>
       </c>
       <c r="I48" s="3">
-        <v>19700</v>
+        <v>19800</v>
       </c>
       <c r="J48" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="K48" s="3">
         <v>16700</v>
@@ -1916,22 +1916,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>968000</v>
+        <v>972300</v>
       </c>
       <c r="E49" s="3">
-        <v>569900</v>
+        <v>572500</v>
       </c>
       <c r="F49" s="3">
-        <v>331100</v>
+        <v>332600</v>
       </c>
       <c r="G49" s="3">
-        <v>596500</v>
+        <v>599100</v>
       </c>
       <c r="H49" s="3">
-        <v>639700</v>
+        <v>642500</v>
       </c>
       <c r="I49" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="J49" s="3">
         <v>5600</v>
@@ -2015,19 +2015,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>373100</v>
+        <v>374800</v>
       </c>
       <c r="E52" s="3">
-        <v>312400</v>
+        <v>313800</v>
       </c>
       <c r="F52" s="3">
-        <v>267000</v>
+        <v>268200</v>
       </c>
       <c r="G52" s="3">
-        <v>176200</v>
+        <v>177000</v>
       </c>
       <c r="H52" s="3">
-        <v>167800</v>
+        <v>168600</v>
       </c>
       <c r="I52" s="3">
         <v>1600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12495800</v>
+        <v>12551500</v>
       </c>
       <c r="E54" s="3">
-        <v>11414200</v>
+        <v>11465100</v>
       </c>
       <c r="F54" s="3">
-        <v>10761200</v>
+        <v>10809100</v>
       </c>
       <c r="G54" s="3">
-        <v>11227900</v>
+        <v>11277900</v>
       </c>
       <c r="H54" s="3">
-        <v>10154900</v>
+        <v>10200100</v>
       </c>
       <c r="I54" s="3">
-        <v>143000</v>
+        <v>143600</v>
       </c>
       <c r="J54" s="3">
-        <v>128300</v>
+        <v>128800</v>
       </c>
       <c r="K54" s="3">
         <v>119900</v>
@@ -2144,19 +2144,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>384200</v>
+        <v>385900</v>
       </c>
       <c r="E57" s="3">
-        <v>222900</v>
+        <v>223900</v>
       </c>
       <c r="F57" s="3">
-        <v>93500</v>
+        <v>93900</v>
       </c>
       <c r="G57" s="3">
-        <v>49400</v>
+        <v>49700</v>
       </c>
       <c r="H57" s="3">
-        <v>52000</v>
+        <v>52200</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -2177,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>83400</v>
+        <v>83800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2341800</v>
+        <v>2352200</v>
       </c>
       <c r="E59" s="3">
-        <v>2287600</v>
+        <v>2297800</v>
       </c>
       <c r="F59" s="3">
-        <v>1806500</v>
+        <v>1814500</v>
       </c>
       <c r="G59" s="3">
-        <v>1838100</v>
+        <v>1846300</v>
       </c>
       <c r="H59" s="3">
-        <v>1731300</v>
+        <v>1739000</v>
       </c>
       <c r="I59" s="3">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="J59" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="K59" s="3">
         <v>15800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2809300</v>
+        <v>2821800</v>
       </c>
       <c r="E60" s="3">
-        <v>2510500</v>
+        <v>2521700</v>
       </c>
       <c r="F60" s="3">
-        <v>1899900</v>
+        <v>1908400</v>
       </c>
       <c r="G60" s="3">
-        <v>1887600</v>
+        <v>1896000</v>
       </c>
       <c r="H60" s="3">
-        <v>1783300</v>
+        <v>1791200</v>
       </c>
       <c r="I60" s="3">
-        <v>24500</v>
+        <v>24600</v>
       </c>
       <c r="J60" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="K60" s="3">
         <v>16300</v>
@@ -2276,7 +2276,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>540700</v>
+        <v>543100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2309,19 +2309,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>276700</v>
+        <v>277900</v>
       </c>
       <c r="E62" s="3">
-        <v>147400</v>
+        <v>148000</v>
       </c>
       <c r="F62" s="3">
-        <v>116000</v>
+        <v>116500</v>
       </c>
       <c r="G62" s="3">
-        <v>48500</v>
+        <v>48700</v>
       </c>
       <c r="H62" s="3">
-        <v>50000</v>
+        <v>50200</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3679700</v>
+        <v>3696100</v>
       </c>
       <c r="E66" s="3">
-        <v>2665700</v>
+        <v>2677600</v>
       </c>
       <c r="F66" s="3">
-        <v>2016100</v>
+        <v>2025000</v>
       </c>
       <c r="G66" s="3">
-        <v>1936000</v>
+        <v>1944700</v>
       </c>
       <c r="H66" s="3">
-        <v>1833300</v>
+        <v>1841400</v>
       </c>
       <c r="I66" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="J66" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="K66" s="3">
         <v>17000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8309200</v>
+        <v>8346300</v>
       </c>
       <c r="E72" s="3">
-        <v>8281200</v>
+        <v>8318100</v>
       </c>
       <c r="F72" s="3">
-        <v>8469900</v>
+        <v>8507700</v>
       </c>
       <c r="G72" s="3">
-        <v>8763000</v>
+        <v>8802100</v>
       </c>
       <c r="H72" s="3">
-        <v>7766100</v>
+        <v>7800700</v>
       </c>
       <c r="I72" s="3">
-        <v>135900</v>
+        <v>136500</v>
       </c>
       <c r="J72" s="3">
-        <v>119800</v>
+        <v>120300</v>
       </c>
       <c r="K72" s="3">
         <v>107600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8816100</v>
+        <v>8855400</v>
       </c>
       <c r="E76" s="3">
-        <v>8748500</v>
+        <v>8787500</v>
       </c>
       <c r="F76" s="3">
-        <v>8745100</v>
+        <v>8784100</v>
       </c>
       <c r="G76" s="3">
-        <v>9291900</v>
+        <v>9333300</v>
       </c>
       <c r="H76" s="3">
-        <v>8321600</v>
+        <v>8358700</v>
       </c>
       <c r="I76" s="3">
-        <v>118000</v>
+        <v>118500</v>
       </c>
       <c r="J76" s="3">
-        <v>106900</v>
+        <v>107300</v>
       </c>
       <c r="K76" s="3">
         <v>102900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2235200</v>
+        <v>2245200</v>
       </c>
       <c r="E81" s="3">
-        <v>2074900</v>
+        <v>2084200</v>
       </c>
       <c r="F81" s="3">
-        <v>2159100</v>
+        <v>2168700</v>
       </c>
       <c r="G81" s="3">
-        <v>1933300</v>
+        <v>1942000</v>
       </c>
       <c r="H81" s="3">
-        <v>1817200</v>
+        <v>1825300</v>
       </c>
       <c r="I81" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="J81" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="K81" s="3">
         <v>24200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>389700</v>
+        <v>391400</v>
       </c>
       <c r="E83" s="3">
-        <v>270900</v>
+        <v>272100</v>
       </c>
       <c r="F83" s="3">
-        <v>250900</v>
+        <v>252100</v>
       </c>
       <c r="G83" s="3">
-        <v>229400</v>
+        <v>230400</v>
       </c>
       <c r="H83" s="3">
-        <v>196500</v>
+        <v>197400</v>
       </c>
       <c r="I83" s="3">
-        <v>144000</v>
+        <v>144600</v>
       </c>
       <c r="J83" s="3">
-        <v>185100</v>
+        <v>185900</v>
       </c>
       <c r="K83" s="3">
         <v>2900</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2499600</v>
+        <v>2510800</v>
       </c>
       <c r="E89" s="3">
-        <v>2134200</v>
+        <v>2143700</v>
       </c>
       <c r="F89" s="3">
-        <v>1961100</v>
+        <v>1969800</v>
       </c>
       <c r="G89" s="3">
-        <v>1894300</v>
+        <v>1902700</v>
       </c>
       <c r="H89" s="3">
-        <v>1649100</v>
+        <v>1656500</v>
       </c>
       <c r="I89" s="3">
-        <v>1448300</v>
+        <v>1454700</v>
       </c>
       <c r="J89" s="3">
-        <v>1641600</v>
+        <v>1648900</v>
       </c>
       <c r="K89" s="3">
         <v>24400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-445500</v>
+        <v>-447400</v>
       </c>
       <c r="E91" s="3">
-        <v>-329300</v>
+        <v>-330800</v>
       </c>
       <c r="F91" s="3">
-        <v>-269100</v>
+        <v>-270300</v>
       </c>
       <c r="G91" s="3">
-        <v>-371800</v>
+        <v>-373400</v>
       </c>
       <c r="H91" s="3">
-        <v>-366800</v>
+        <v>-368400</v>
       </c>
       <c r="I91" s="3">
-        <v>-302700</v>
+        <v>-304000</v>
       </c>
       <c r="J91" s="3">
-        <v>-369800</v>
+        <v>-371400</v>
       </c>
       <c r="K91" s="3">
         <v>-5400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-241500</v>
+        <v>-242600</v>
       </c>
       <c r="E94" s="3">
-        <v>-212600</v>
+        <v>-213500</v>
       </c>
       <c r="F94" s="3">
-        <v>419100</v>
+        <v>420900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2299900</v>
+        <v>-2310100</v>
       </c>
       <c r="H94" s="3">
-        <v>-419700</v>
+        <v>-421600</v>
       </c>
       <c r="I94" s="3">
-        <v>-172300</v>
+        <v>-173000</v>
       </c>
       <c r="J94" s="3">
-        <v>-673900</v>
+        <v>-676900</v>
       </c>
       <c r="K94" s="3">
         <v>-13000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1281700</v>
+        <v>-1287400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1846100</v>
+        <v>-1854300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1005400</v>
+        <v>-1009900</v>
       </c>
       <c r="G96" s="3">
-        <v>-934700</v>
+        <v>-938800</v>
       </c>
       <c r="H96" s="3">
-        <v>-917700</v>
+        <v>-921800</v>
       </c>
       <c r="I96" s="3">
-        <v>-664700</v>
+        <v>-667700</v>
       </c>
       <c r="J96" s="3">
-        <v>-361800</v>
+        <v>-363400</v>
       </c>
       <c r="K96" s="3">
         <v>-6900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2369500</v>
+        <v>-2380100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1954800</v>
+        <v>-1963500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2762000</v>
+        <v>-2774300</v>
       </c>
       <c r="G100" s="3">
-        <v>-934700</v>
+        <v>-938800</v>
       </c>
       <c r="H100" s="3">
-        <v>-917700</v>
+        <v>-921800</v>
       </c>
       <c r="I100" s="3">
-        <v>-664700</v>
+        <v>-667700</v>
       </c>
       <c r="J100" s="3">
-        <v>-423400</v>
+        <v>-425200</v>
       </c>
       <c r="K100" s="3">
         <v>-8200</v>
@@ -3469,16 +3469,16 @@
         <v>-7700</v>
       </c>
       <c r="F101" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="G101" s="3">
-        <v>-16400</v>
+        <v>-16500</v>
       </c>
       <c r="H101" s="3">
         <v>2200</v>
       </c>
       <c r="I101" s="3">
-        <v>-16300</v>
+        <v>-16400</v>
       </c>
       <c r="J101" s="3">
         <v>10400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-123800</v>
+        <v>-124300</v>
       </c>
       <c r="E102" s="3">
-        <v>-40800</v>
+        <v>-41000</v>
       </c>
       <c r="F102" s="3">
-        <v>-371000</v>
+        <v>-372600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1356700</v>
+        <v>-1362700</v>
       </c>
       <c r="H102" s="3">
-        <v>313900</v>
+        <v>315200</v>
       </c>
       <c r="I102" s="3">
-        <v>595000</v>
+        <v>597600</v>
       </c>
       <c r="J102" s="3">
-        <v>554700</v>
+        <v>557200</v>
       </c>
       <c r="K102" s="3">
         <v>-400</v>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12284000</v>
+        <v>12492800</v>
       </c>
       <c r="E8" s="3">
-        <v>11185900</v>
+        <v>11376100</v>
       </c>
       <c r="F8" s="3">
-        <v>9541600</v>
+        <v>9703800</v>
       </c>
       <c r="G8" s="3">
-        <v>9265900</v>
+        <v>9423400</v>
       </c>
       <c r="H8" s="3">
-        <v>8448300</v>
+        <v>8591900</v>
       </c>
       <c r="I8" s="3">
-        <v>117900</v>
+        <v>119900</v>
       </c>
       <c r="J8" s="3">
-        <v>111600</v>
+        <v>113500</v>
       </c>
       <c r="K8" s="3">
         <v>103900</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8217000</v>
+        <v>8356700</v>
       </c>
       <c r="E9" s="3">
-        <v>7288200</v>
+        <v>7412100</v>
       </c>
       <c r="F9" s="3">
-        <v>6106100</v>
+        <v>6209900</v>
       </c>
       <c r="G9" s="3">
-        <v>5852100</v>
+        <v>5951600</v>
       </c>
       <c r="H9" s="3">
-        <v>5269800</v>
+        <v>5359400</v>
       </c>
       <c r="I9" s="3">
-        <v>72200</v>
+        <v>73400</v>
       </c>
       <c r="J9" s="3">
-        <v>71200</v>
+        <v>72400</v>
       </c>
       <c r="K9" s="3">
         <v>65700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4067000</v>
+        <v>4136100</v>
       </c>
       <c r="E10" s="3">
-        <v>3897700</v>
+        <v>3964000</v>
       </c>
       <c r="F10" s="3">
-        <v>3435500</v>
+        <v>3493900</v>
       </c>
       <c r="G10" s="3">
-        <v>3413800</v>
+        <v>3471800</v>
       </c>
       <c r="H10" s="3">
-        <v>3178500</v>
+        <v>3232500</v>
       </c>
       <c r="I10" s="3">
-        <v>45700</v>
+        <v>46500</v>
       </c>
       <c r="J10" s="3">
-        <v>40400</v>
+        <v>41100</v>
       </c>
       <c r="K10" s="3">
         <v>38200</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="E14" s="3">
-        <v>131100</v>
+        <v>133300</v>
       </c>
       <c r="F14" s="3">
-        <v>25600</v>
+        <v>26000</v>
       </c>
       <c r="G14" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="H14" s="3">
-        <v>20200</v>
+        <v>20500</v>
       </c>
       <c r="I14" s="3">
         <v>600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9662700</v>
+        <v>9827000</v>
       </c>
       <c r="E17" s="3">
-        <v>8729000</v>
+        <v>8877400</v>
       </c>
       <c r="F17" s="3">
-        <v>7237500</v>
+        <v>7360500</v>
       </c>
       <c r="G17" s="3">
-        <v>6979200</v>
+        <v>7097800</v>
       </c>
       <c r="H17" s="3">
-        <v>6334900</v>
+        <v>6442600</v>
       </c>
       <c r="I17" s="3">
-        <v>87300</v>
+        <v>88800</v>
       </c>
       <c r="J17" s="3">
-        <v>84800</v>
+        <v>86300</v>
       </c>
       <c r="K17" s="3">
         <v>77100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2621300</v>
+        <v>2665900</v>
       </c>
       <c r="E18" s="3">
-        <v>2456900</v>
+        <v>2498700</v>
       </c>
       <c r="F18" s="3">
-        <v>2304200</v>
+        <v>2343300</v>
       </c>
       <c r="G18" s="3">
-        <v>2286700</v>
+        <v>2325600</v>
       </c>
       <c r="H18" s="3">
-        <v>2113400</v>
+        <v>2149300</v>
       </c>
       <c r="I18" s="3">
-        <v>30600</v>
+        <v>31100</v>
       </c>
       <c r="J18" s="3">
-        <v>26800</v>
+        <v>27200</v>
       </c>
       <c r="K18" s="3">
         <v>26800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>379200</v>
+        <v>385700</v>
       </c>
       <c r="E20" s="3">
-        <v>389900</v>
+        <v>396600</v>
       </c>
       <c r="F20" s="3">
-        <v>438400</v>
+        <v>445800</v>
       </c>
       <c r="G20" s="3">
-        <v>412700</v>
+        <v>419700</v>
       </c>
       <c r="H20" s="3">
-        <v>422400</v>
+        <v>429600</v>
       </c>
       <c r="I20" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="J20" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K20" s="3">
         <v>6100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3392300</v>
+        <v>3450200</v>
       </c>
       <c r="E21" s="3">
-        <v>3119100</v>
+        <v>3172400</v>
       </c>
       <c r="F21" s="3">
-        <v>2994800</v>
+        <v>3045900</v>
       </c>
       <c r="G21" s="3">
-        <v>2930000</v>
+        <v>2979900</v>
       </c>
       <c r="H21" s="3">
-        <v>2733300</v>
+        <v>2779900</v>
       </c>
       <c r="I21" s="3">
-        <v>182900</v>
+        <v>186100</v>
       </c>
       <c r="J21" s="3">
-        <v>218800</v>
+        <v>222600</v>
       </c>
       <c r="K21" s="3">
         <v>35800</v>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23000</v>
+        <v>23400</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2977500</v>
+        <v>3028200</v>
       </c>
       <c r="E23" s="3">
-        <v>2846800</v>
+        <v>2895200</v>
       </c>
       <c r="F23" s="3">
-        <v>2742500</v>
+        <v>2789200</v>
       </c>
       <c r="G23" s="3">
-        <v>2699400</v>
+        <v>2745300</v>
       </c>
       <c r="H23" s="3">
-        <v>2535800</v>
+        <v>2578900</v>
       </c>
       <c r="I23" s="3">
-        <v>38100</v>
+        <v>38800</v>
       </c>
       <c r="J23" s="3">
-        <v>32700</v>
+        <v>33300</v>
       </c>
       <c r="K23" s="3">
         <v>32900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>726300</v>
+        <v>738600</v>
       </c>
       <c r="E24" s="3">
-        <v>761900</v>
+        <v>774800</v>
       </c>
       <c r="F24" s="3">
-        <v>573800</v>
+        <v>583600</v>
       </c>
       <c r="G24" s="3">
-        <v>757400</v>
+        <v>770300</v>
       </c>
       <c r="H24" s="3">
-        <v>710500</v>
+        <v>722500</v>
       </c>
       <c r="I24" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="J24" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="K24" s="3">
         <v>8700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2251300</v>
+        <v>2289500</v>
       </c>
       <c r="E26" s="3">
-        <v>2085000</v>
+        <v>2120400</v>
       </c>
       <c r="F26" s="3">
-        <v>2168700</v>
+        <v>2205600</v>
       </c>
       <c r="G26" s="3">
-        <v>1942000</v>
+        <v>1975000</v>
       </c>
       <c r="H26" s="3">
-        <v>1825300</v>
+        <v>1856400</v>
       </c>
       <c r="I26" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="J26" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="K26" s="3">
         <v>24200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2245200</v>
+        <v>2283300</v>
       </c>
       <c r="E27" s="3">
-        <v>2084200</v>
+        <v>2119600</v>
       </c>
       <c r="F27" s="3">
-        <v>2168700</v>
+        <v>2205600</v>
       </c>
       <c r="G27" s="3">
-        <v>1942000</v>
+        <v>1975000</v>
       </c>
       <c r="H27" s="3">
-        <v>1825300</v>
+        <v>1856400</v>
       </c>
       <c r="I27" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="J27" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="K27" s="3">
         <v>24200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-379200</v>
+        <v>-385700</v>
       </c>
       <c r="E32" s="3">
-        <v>-389900</v>
+        <v>-396600</v>
       </c>
       <c r="F32" s="3">
-        <v>-438400</v>
+        <v>-445800</v>
       </c>
       <c r="G32" s="3">
-        <v>-412700</v>
+        <v>-419700</v>
       </c>
       <c r="H32" s="3">
-        <v>-422400</v>
+        <v>-429600</v>
       </c>
       <c r="I32" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="J32" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="K32" s="3">
         <v>-6100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2245200</v>
+        <v>2283300</v>
       </c>
       <c r="E33" s="3">
-        <v>2084200</v>
+        <v>2119600</v>
       </c>
       <c r="F33" s="3">
-        <v>2168700</v>
+        <v>2205600</v>
       </c>
       <c r="G33" s="3">
-        <v>1942000</v>
+        <v>1975000</v>
       </c>
       <c r="H33" s="3">
-        <v>1825300</v>
+        <v>1856400</v>
       </c>
       <c r="I33" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="J33" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="K33" s="3">
         <v>24200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2245200</v>
+        <v>2283300</v>
       </c>
       <c r="E35" s="3">
-        <v>2084200</v>
+        <v>2119600</v>
       </c>
       <c r="F35" s="3">
-        <v>2168700</v>
+        <v>2205600</v>
       </c>
       <c r="G35" s="3">
-        <v>1942000</v>
+        <v>1975000</v>
       </c>
       <c r="H35" s="3">
-        <v>1825300</v>
+        <v>1856400</v>
       </c>
       <c r="I35" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="J35" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="K35" s="3">
         <v>24200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1609000</v>
+        <v>1636300</v>
       </c>
       <c r="E41" s="3">
-        <v>1872400</v>
+        <v>1904200</v>
       </c>
       <c r="F41" s="3">
-        <v>1709500</v>
+        <v>1738600</v>
       </c>
       <c r="G41" s="3">
-        <v>1937100</v>
+        <v>1970000</v>
       </c>
       <c r="H41" s="3">
-        <v>3643400</v>
+        <v>3705300</v>
       </c>
       <c r="I41" s="3">
-        <v>55900</v>
+        <v>56900</v>
       </c>
       <c r="J41" s="3">
-        <v>49700</v>
+        <v>50600</v>
       </c>
       <c r="K41" s="3">
         <v>47600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1490500</v>
+        <v>1515800</v>
       </c>
       <c r="E42" s="3">
-        <v>1623300</v>
+        <v>1650900</v>
       </c>
       <c r="F42" s="3">
-        <v>1766600</v>
+        <v>1796600</v>
       </c>
       <c r="G42" s="3">
-        <v>2395600</v>
+        <v>2436300</v>
       </c>
       <c r="H42" s="3">
-        <v>724100</v>
+        <v>736400</v>
       </c>
       <c r="I42" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="J42" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="K42" s="3">
         <v>12500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3777400</v>
+        <v>3841700</v>
       </c>
       <c r="E43" s="3">
-        <v>3147300</v>
+        <v>3200900</v>
       </c>
       <c r="F43" s="3">
-        <v>2630200</v>
+        <v>2674900</v>
       </c>
       <c r="G43" s="3">
-        <v>2530700</v>
+        <v>2573700</v>
       </c>
       <c r="H43" s="3">
-        <v>2322400</v>
+        <v>2361900</v>
       </c>
       <c r="I43" s="3">
-        <v>31500</v>
+        <v>32000</v>
       </c>
       <c r="J43" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="K43" s="3">
         <v>25200</v>
@@ -1751,19 +1751,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19600</v>
+        <v>20000</v>
       </c>
       <c r="E44" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="F44" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="G44" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="H44" s="3">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="I44" s="3">
         <v>2400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>487600</v>
+        <v>495900</v>
       </c>
       <c r="E45" s="3">
-        <v>496600</v>
+        <v>505000</v>
       </c>
       <c r="F45" s="3">
-        <v>644800</v>
+        <v>655800</v>
       </c>
       <c r="G45" s="3">
-        <v>385200</v>
+        <v>391700</v>
       </c>
       <c r="H45" s="3">
-        <v>289500</v>
+        <v>294500</v>
       </c>
       <c r="I45" s="3">
         <v>1500</v>
       </c>
       <c r="J45" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K45" s="3">
         <v>5900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7384100</v>
+        <v>7509700</v>
       </c>
       <c r="E46" s="3">
-        <v>7154400</v>
+        <v>7276000</v>
       </c>
       <c r="F46" s="3">
-        <v>6767300</v>
+        <v>6882300</v>
       </c>
       <c r="G46" s="3">
-        <v>7266300</v>
+        <v>7389800</v>
       </c>
       <c r="H46" s="3">
-        <v>6994300</v>
+        <v>7113200</v>
       </c>
       <c r="I46" s="3">
-        <v>102200</v>
+        <v>103900</v>
       </c>
       <c r="J46" s="3">
-        <v>97100</v>
+        <v>98800</v>
       </c>
       <c r="K46" s="3">
         <v>91300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1402900</v>
+        <v>1426800</v>
       </c>
       <c r="E47" s="3">
-        <v>1617400</v>
+        <v>1644900</v>
       </c>
       <c r="F47" s="3">
-        <v>1798100</v>
+        <v>1828700</v>
       </c>
       <c r="G47" s="3">
-        <v>1650400</v>
+        <v>1678400</v>
       </c>
       <c r="H47" s="3">
-        <v>970000</v>
+        <v>986500</v>
       </c>
       <c r="I47" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="J47" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="K47" s="3">
         <v>3800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2417400</v>
+        <v>2458500</v>
       </c>
       <c r="E48" s="3">
-        <v>1807100</v>
+        <v>1837800</v>
       </c>
       <c r="F48" s="3">
-        <v>1642900</v>
+        <v>1670900</v>
       </c>
       <c r="G48" s="3">
-        <v>1585200</v>
+        <v>1612100</v>
       </c>
       <c r="H48" s="3">
-        <v>1424700</v>
+        <v>1448900</v>
       </c>
       <c r="I48" s="3">
-        <v>19800</v>
+        <v>20100</v>
       </c>
       <c r="J48" s="3">
-        <v>17800</v>
+        <v>18100</v>
       </c>
       <c r="K48" s="3">
         <v>16700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>972300</v>
+        <v>988800</v>
       </c>
       <c r="E49" s="3">
-        <v>572500</v>
+        <v>582200</v>
       </c>
       <c r="F49" s="3">
-        <v>332600</v>
+        <v>338200</v>
       </c>
       <c r="G49" s="3">
-        <v>599100</v>
+        <v>609300</v>
       </c>
       <c r="H49" s="3">
-        <v>642500</v>
+        <v>653500</v>
       </c>
       <c r="I49" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="J49" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="K49" s="3">
         <v>6100</v>
@@ -2015,19 +2015,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>374800</v>
+        <v>381200</v>
       </c>
       <c r="E52" s="3">
-        <v>313800</v>
+        <v>319100</v>
       </c>
       <c r="F52" s="3">
-        <v>268200</v>
+        <v>272700</v>
       </c>
       <c r="G52" s="3">
-        <v>177000</v>
+        <v>180000</v>
       </c>
       <c r="H52" s="3">
-        <v>168600</v>
+        <v>171400</v>
       </c>
       <c r="I52" s="3">
         <v>1600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12551500</v>
+        <v>12764900</v>
       </c>
       <c r="E54" s="3">
-        <v>11465100</v>
+        <v>11659900</v>
       </c>
       <c r="F54" s="3">
-        <v>10809100</v>
+        <v>10992900</v>
       </c>
       <c r="G54" s="3">
-        <v>11277900</v>
+        <v>11469600</v>
       </c>
       <c r="H54" s="3">
-        <v>10200100</v>
+        <v>10373500</v>
       </c>
       <c r="I54" s="3">
-        <v>143600</v>
+        <v>146100</v>
       </c>
       <c r="J54" s="3">
-        <v>128800</v>
+        <v>131000</v>
       </c>
       <c r="K54" s="3">
         <v>119900</v>
@@ -2144,19 +2144,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>385900</v>
+        <v>392400</v>
       </c>
       <c r="E57" s="3">
-        <v>223900</v>
+        <v>227700</v>
       </c>
       <c r="F57" s="3">
-        <v>93900</v>
+        <v>95500</v>
       </c>
       <c r="G57" s="3">
-        <v>49700</v>
+        <v>50500</v>
       </c>
       <c r="H57" s="3">
-        <v>52200</v>
+        <v>53100</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -2177,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>83800</v>
+        <v>85200</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2352200</v>
+        <v>2392200</v>
       </c>
       <c r="E59" s="3">
-        <v>2297800</v>
+        <v>2336900</v>
       </c>
       <c r="F59" s="3">
-        <v>1814500</v>
+        <v>1845400</v>
       </c>
       <c r="G59" s="3">
-        <v>1846300</v>
+        <v>1877700</v>
       </c>
       <c r="H59" s="3">
-        <v>1739000</v>
+        <v>1768600</v>
       </c>
       <c r="I59" s="3">
-        <v>24300</v>
+        <v>24700</v>
       </c>
       <c r="J59" s="3">
-        <v>20200</v>
+        <v>20600</v>
       </c>
       <c r="K59" s="3">
         <v>15800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2821800</v>
+        <v>2869800</v>
       </c>
       <c r="E60" s="3">
-        <v>2521700</v>
+        <v>2564600</v>
       </c>
       <c r="F60" s="3">
-        <v>1908400</v>
+        <v>1940800</v>
       </c>
       <c r="G60" s="3">
-        <v>1896000</v>
+        <v>1928200</v>
       </c>
       <c r="H60" s="3">
-        <v>1791200</v>
+        <v>1821700</v>
       </c>
       <c r="I60" s="3">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="J60" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="K60" s="3">
         <v>16300</v>
@@ -2276,7 +2276,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>543100</v>
+        <v>552300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2309,22 +2309,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>277900</v>
+        <v>282600</v>
       </c>
       <c r="E62" s="3">
-        <v>148000</v>
+        <v>150500</v>
       </c>
       <c r="F62" s="3">
-        <v>116500</v>
+        <v>118500</v>
       </c>
       <c r="G62" s="3">
-        <v>48700</v>
+        <v>49500</v>
       </c>
       <c r="H62" s="3">
-        <v>50200</v>
+        <v>51000</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J62" s="3">
         <v>900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3696100</v>
+        <v>3759000</v>
       </c>
       <c r="E66" s="3">
-        <v>2677600</v>
+        <v>2723100</v>
       </c>
       <c r="F66" s="3">
-        <v>2025000</v>
+        <v>2059500</v>
       </c>
       <c r="G66" s="3">
-        <v>1944700</v>
+        <v>1977700</v>
       </c>
       <c r="H66" s="3">
-        <v>1841400</v>
+        <v>1872700</v>
       </c>
       <c r="I66" s="3">
-        <v>25100</v>
+        <v>25500</v>
       </c>
       <c r="J66" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="K66" s="3">
         <v>17000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8346300</v>
+        <v>8488100</v>
       </c>
       <c r="E72" s="3">
-        <v>8318100</v>
+        <v>8459500</v>
       </c>
       <c r="F72" s="3">
-        <v>8507700</v>
+        <v>8652300</v>
       </c>
       <c r="G72" s="3">
-        <v>8802100</v>
+        <v>8951700</v>
       </c>
       <c r="H72" s="3">
-        <v>7800700</v>
+        <v>7933300</v>
       </c>
       <c r="I72" s="3">
-        <v>136500</v>
+        <v>138800</v>
       </c>
       <c r="J72" s="3">
-        <v>120300</v>
+        <v>122400</v>
       </c>
       <c r="K72" s="3">
         <v>107600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8855400</v>
+        <v>9005900</v>
       </c>
       <c r="E76" s="3">
-        <v>8787500</v>
+        <v>8936800</v>
       </c>
       <c r="F76" s="3">
-        <v>8784100</v>
+        <v>8933400</v>
       </c>
       <c r="G76" s="3">
-        <v>9333300</v>
+        <v>9491900</v>
       </c>
       <c r="H76" s="3">
-        <v>8358700</v>
+        <v>8500800</v>
       </c>
       <c r="I76" s="3">
-        <v>118500</v>
+        <v>120600</v>
       </c>
       <c r="J76" s="3">
-        <v>107300</v>
+        <v>109200</v>
       </c>
       <c r="K76" s="3">
         <v>102900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2245200</v>
+        <v>2283300</v>
       </c>
       <c r="E81" s="3">
-        <v>2084200</v>
+        <v>2119600</v>
       </c>
       <c r="F81" s="3">
-        <v>2168700</v>
+        <v>2205600</v>
       </c>
       <c r="G81" s="3">
-        <v>1942000</v>
+        <v>1975000</v>
       </c>
       <c r="H81" s="3">
-        <v>1825300</v>
+        <v>1856400</v>
       </c>
       <c r="I81" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="J81" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="K81" s="3">
         <v>24200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>391400</v>
+        <v>398100</v>
       </c>
       <c r="E83" s="3">
-        <v>272100</v>
+        <v>276700</v>
       </c>
       <c r="F83" s="3">
-        <v>252100</v>
+        <v>256300</v>
       </c>
       <c r="G83" s="3">
-        <v>230400</v>
+        <v>234300</v>
       </c>
       <c r="H83" s="3">
-        <v>197400</v>
+        <v>200800</v>
       </c>
       <c r="I83" s="3">
-        <v>144600</v>
+        <v>147100</v>
       </c>
       <c r="J83" s="3">
-        <v>185900</v>
+        <v>189100</v>
       </c>
       <c r="K83" s="3">
         <v>2900</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2510800</v>
+        <v>2553400</v>
       </c>
       <c r="E89" s="3">
-        <v>2143700</v>
+        <v>2180100</v>
       </c>
       <c r="F89" s="3">
-        <v>1969800</v>
+        <v>2003300</v>
       </c>
       <c r="G89" s="3">
-        <v>1902700</v>
+        <v>1935100</v>
       </c>
       <c r="H89" s="3">
-        <v>1656500</v>
+        <v>1684600</v>
       </c>
       <c r="I89" s="3">
-        <v>1454700</v>
+        <v>1479500</v>
       </c>
       <c r="J89" s="3">
-        <v>1648900</v>
+        <v>1676900</v>
       </c>
       <c r="K89" s="3">
         <v>24400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-447400</v>
+        <v>-455000</v>
       </c>
       <c r="E91" s="3">
-        <v>-330800</v>
+        <v>-336400</v>
       </c>
       <c r="F91" s="3">
-        <v>-270300</v>
+        <v>-274900</v>
       </c>
       <c r="G91" s="3">
-        <v>-373400</v>
+        <v>-379800</v>
       </c>
       <c r="H91" s="3">
-        <v>-368400</v>
+        <v>-374700</v>
       </c>
       <c r="I91" s="3">
-        <v>-304000</v>
+        <v>-309200</v>
       </c>
       <c r="J91" s="3">
-        <v>-371400</v>
+        <v>-377700</v>
       </c>
       <c r="K91" s="3">
         <v>-5400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-242600</v>
+        <v>-246700</v>
       </c>
       <c r="E94" s="3">
-        <v>-213500</v>
+        <v>-217100</v>
       </c>
       <c r="F94" s="3">
-        <v>420900</v>
+        <v>428100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2310100</v>
+        <v>-2349400</v>
       </c>
       <c r="H94" s="3">
-        <v>-421600</v>
+        <v>-428800</v>
       </c>
       <c r="I94" s="3">
-        <v>-173000</v>
+        <v>-176000</v>
       </c>
       <c r="J94" s="3">
-        <v>-676900</v>
+        <v>-688400</v>
       </c>
       <c r="K94" s="3">
         <v>-13000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1287400</v>
+        <v>-1309300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1854300</v>
+        <v>-1885800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1009900</v>
+        <v>-1027000</v>
       </c>
       <c r="G96" s="3">
-        <v>-938800</v>
+        <v>-954800</v>
       </c>
       <c r="H96" s="3">
-        <v>-921800</v>
+        <v>-937500</v>
       </c>
       <c r="I96" s="3">
-        <v>-667700</v>
+        <v>-679100</v>
       </c>
       <c r="J96" s="3">
-        <v>-363400</v>
+        <v>-369600</v>
       </c>
       <c r="K96" s="3">
         <v>-6900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2380100</v>
+        <v>-2420500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1963500</v>
+        <v>-1996900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2774300</v>
+        <v>-2821500</v>
       </c>
       <c r="G100" s="3">
-        <v>-938800</v>
+        <v>-954800</v>
       </c>
       <c r="H100" s="3">
-        <v>-921800</v>
+        <v>-937500</v>
       </c>
       <c r="I100" s="3">
-        <v>-667700</v>
+        <v>-679100</v>
       </c>
       <c r="J100" s="3">
-        <v>-425200</v>
+        <v>-432500</v>
       </c>
       <c r="K100" s="3">
         <v>-8200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="E101" s="3">
-        <v>-7700</v>
+        <v>-7800</v>
       </c>
       <c r="F101" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="G101" s="3">
-        <v>-16500</v>
+        <v>-16800</v>
       </c>
       <c r="H101" s="3">
         <v>2200</v>
       </c>
       <c r="I101" s="3">
-        <v>-16400</v>
+        <v>-16600</v>
       </c>
       <c r="J101" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="K101" s="3">
         <v>-3600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-124300</v>
+        <v>-126500</v>
       </c>
       <c r="E102" s="3">
-        <v>-41000</v>
+        <v>-41700</v>
       </c>
       <c r="F102" s="3">
-        <v>-372600</v>
+        <v>-379000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1362700</v>
+        <v>-1385900</v>
       </c>
       <c r="H102" s="3">
-        <v>315200</v>
+        <v>320600</v>
       </c>
       <c r="I102" s="3">
-        <v>597600</v>
+        <v>607800</v>
       </c>
       <c r="J102" s="3">
-        <v>557200</v>
+        <v>566600</v>
       </c>
       <c r="K102" s="3">
         <v>-400</v>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>INFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12492800</v>
+        <v>13804900</v>
       </c>
       <c r="E8" s="3">
-        <v>11376100</v>
+        <v>12474700</v>
       </c>
       <c r="F8" s="3">
-        <v>9703800</v>
+        <v>11359500</v>
       </c>
       <c r="G8" s="3">
-        <v>9423400</v>
+        <v>9689700</v>
       </c>
       <c r="H8" s="3">
-        <v>8591900</v>
+        <v>9409700</v>
       </c>
       <c r="I8" s="3">
-        <v>119900</v>
+        <v>8579400</v>
       </c>
       <c r="J8" s="3">
+        <v>119700</v>
+      </c>
+      <c r="K8" s="3">
         <v>113500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>103900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>101100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8356700</v>
+        <v>8987700</v>
       </c>
       <c r="E9" s="3">
-        <v>7412100</v>
+        <v>8344600</v>
       </c>
       <c r="F9" s="3">
-        <v>6209900</v>
+        <v>7401300</v>
       </c>
       <c r="G9" s="3">
-        <v>5951600</v>
+        <v>6200900</v>
       </c>
       <c r="H9" s="3">
-        <v>5359400</v>
+        <v>5943000</v>
       </c>
       <c r="I9" s="3">
-        <v>73400</v>
+        <v>5351600</v>
       </c>
       <c r="J9" s="3">
+        <v>73300</v>
+      </c>
+      <c r="K9" s="3">
         <v>72400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>65700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>60100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4136100</v>
+        <v>4817100</v>
       </c>
       <c r="E10" s="3">
-        <v>3964000</v>
+        <v>4130100</v>
       </c>
       <c r="F10" s="3">
-        <v>3493900</v>
+        <v>3958200</v>
       </c>
       <c r="G10" s="3">
-        <v>3471800</v>
+        <v>3488900</v>
       </c>
       <c r="H10" s="3">
-        <v>3232500</v>
+        <v>3466700</v>
       </c>
       <c r="I10" s="3">
-        <v>46500</v>
+        <v>3227800</v>
       </c>
       <c r="J10" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K10" s="3">
         <v>41100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>41000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23700</v>
+        <v>26100</v>
       </c>
       <c r="E14" s="3">
-        <v>133300</v>
+        <v>23600</v>
       </c>
       <c r="F14" s="3">
+        <v>133100</v>
+      </c>
+      <c r="G14" s="3">
         <v>26000</v>
       </c>
-      <c r="G14" s="3">
-        <v>19300</v>
-      </c>
       <c r="H14" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I14" s="3">
         <v>20500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9827000</v>
+        <v>10421800</v>
       </c>
       <c r="E17" s="3">
-        <v>8877400</v>
+        <v>9812700</v>
       </c>
       <c r="F17" s="3">
-        <v>7360500</v>
+        <v>8864500</v>
       </c>
       <c r="G17" s="3">
-        <v>7097800</v>
+        <v>7349800</v>
       </c>
       <c r="H17" s="3">
-        <v>6442600</v>
+        <v>7087500</v>
       </c>
       <c r="I17" s="3">
-        <v>88800</v>
+        <v>6433200</v>
       </c>
       <c r="J17" s="3">
+        <v>88700</v>
+      </c>
+      <c r="K17" s="3">
         <v>86300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>72000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2665900</v>
+        <v>3383100</v>
       </c>
       <c r="E18" s="3">
-        <v>2498700</v>
+        <v>2662000</v>
       </c>
       <c r="F18" s="3">
-        <v>2343300</v>
+        <v>2495000</v>
       </c>
       <c r="G18" s="3">
-        <v>2325600</v>
+        <v>2339900</v>
       </c>
       <c r="H18" s="3">
-        <v>2149300</v>
+        <v>2322200</v>
       </c>
       <c r="I18" s="3">
-        <v>31100</v>
+        <v>2146200</v>
       </c>
       <c r="J18" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K18" s="3">
         <v>27200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>29100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,82 +1082,89 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>385700</v>
+        <v>299800</v>
       </c>
       <c r="E20" s="3">
-        <v>396600</v>
+        <v>385100</v>
       </c>
       <c r="F20" s="3">
-        <v>445800</v>
+        <v>396000</v>
       </c>
       <c r="G20" s="3">
-        <v>419700</v>
+        <v>445200</v>
       </c>
       <c r="H20" s="3">
-        <v>429600</v>
+        <v>419100</v>
       </c>
       <c r="I20" s="3">
+        <v>429000</v>
+      </c>
+      <c r="J20" s="3">
         <v>7700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>6100</v>
       </c>
       <c r="K20" s="3">
         <v>6100</v>
       </c>
       <c r="L20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="M20" s="3">
         <v>5700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3450200</v>
+        <v>4131400</v>
       </c>
       <c r="E21" s="3">
-        <v>3172400</v>
+        <v>3444300</v>
       </c>
       <c r="F21" s="3">
-        <v>3045900</v>
+        <v>3167100</v>
       </c>
       <c r="G21" s="3">
-        <v>2979900</v>
+        <v>3040900</v>
       </c>
       <c r="H21" s="3">
-        <v>2779900</v>
+        <v>2975100</v>
       </c>
       <c r="I21" s="3">
-        <v>186100</v>
+        <v>2775500</v>
       </c>
       <c r="J21" s="3">
+        <v>185500</v>
+      </c>
+      <c r="K21" s="3">
         <v>222600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>35800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>37700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E22" s="3">
         <v>23400</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1142,81 +1181,90 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3028200</v>
+        <v>3658700</v>
       </c>
       <c r="E23" s="3">
-        <v>2895200</v>
+        <v>3023800</v>
       </c>
       <c r="F23" s="3">
-        <v>2789200</v>
+        <v>2891000</v>
       </c>
       <c r="G23" s="3">
-        <v>2745300</v>
+        <v>2785100</v>
       </c>
       <c r="H23" s="3">
-        <v>2578900</v>
+        <v>2741300</v>
       </c>
       <c r="I23" s="3">
-        <v>38800</v>
+        <v>2575200</v>
       </c>
       <c r="J23" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K23" s="3">
         <v>33300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>738600</v>
+        <v>990000</v>
       </c>
       <c r="E24" s="3">
-        <v>774800</v>
+        <v>737600</v>
       </c>
       <c r="F24" s="3">
-        <v>583600</v>
+        <v>773700</v>
       </c>
       <c r="G24" s="3">
-        <v>770300</v>
+        <v>582700</v>
       </c>
       <c r="H24" s="3">
-        <v>722500</v>
+        <v>769200</v>
       </c>
       <c r="I24" s="3">
+        <v>721500</v>
+      </c>
+      <c r="J24" s="3">
         <v>11100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2289500</v>
+        <v>2668700</v>
       </c>
       <c r="E26" s="3">
-        <v>2120400</v>
+        <v>2286200</v>
       </c>
       <c r="F26" s="3">
-        <v>2205600</v>
+        <v>2117300</v>
       </c>
       <c r="G26" s="3">
-        <v>1975000</v>
+        <v>2202400</v>
       </c>
       <c r="H26" s="3">
-        <v>1856400</v>
+        <v>1972100</v>
       </c>
       <c r="I26" s="3">
+        <v>1853700</v>
+      </c>
+      <c r="J26" s="3">
         <v>27700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2283300</v>
+        <v>2658800</v>
       </c>
       <c r="E27" s="3">
-        <v>2119600</v>
+        <v>2280000</v>
       </c>
       <c r="F27" s="3">
-        <v>2205600</v>
+        <v>2116500</v>
       </c>
       <c r="G27" s="3">
-        <v>1975000</v>
+        <v>2202400</v>
       </c>
       <c r="H27" s="3">
-        <v>1856400</v>
+        <v>1972100</v>
       </c>
       <c r="I27" s="3">
+        <v>1853700</v>
+      </c>
+      <c r="J27" s="3">
         <v>27700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-385700</v>
+        <v>-299800</v>
       </c>
       <c r="E32" s="3">
-        <v>-396600</v>
+        <v>-385100</v>
       </c>
       <c r="F32" s="3">
-        <v>-445800</v>
+        <v>-396000</v>
       </c>
       <c r="G32" s="3">
-        <v>-419700</v>
+        <v>-445200</v>
       </c>
       <c r="H32" s="3">
-        <v>-429600</v>
+        <v>-419100</v>
       </c>
       <c r="I32" s="3">
+        <v>-429000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-7700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-6100</v>
       </c>
       <c r="K32" s="3">
         <v>-6100</v>
       </c>
       <c r="L32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-5700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2283300</v>
+        <v>2658800</v>
       </c>
       <c r="E33" s="3">
-        <v>2119600</v>
+        <v>2280000</v>
       </c>
       <c r="F33" s="3">
-        <v>2205600</v>
+        <v>2116500</v>
       </c>
       <c r="G33" s="3">
-        <v>1975000</v>
+        <v>2202400</v>
       </c>
       <c r="H33" s="3">
-        <v>1856400</v>
+        <v>1972100</v>
       </c>
       <c r="I33" s="3">
+        <v>1853700</v>
+      </c>
+      <c r="J33" s="3">
         <v>27700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2283300</v>
+        <v>2658800</v>
       </c>
       <c r="E35" s="3">
-        <v>2119600</v>
+        <v>2280000</v>
       </c>
       <c r="F35" s="3">
-        <v>2205600</v>
+        <v>2116500</v>
       </c>
       <c r="G35" s="3">
-        <v>1975000</v>
+        <v>2202400</v>
       </c>
       <c r="H35" s="3">
-        <v>1856400</v>
+        <v>1972100</v>
       </c>
       <c r="I35" s="3">
+        <v>1853700</v>
+      </c>
+      <c r="J35" s="3">
         <v>27700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1636300</v>
+        <v>2688200</v>
       </c>
       <c r="E41" s="3">
-        <v>1904200</v>
+        <v>1634000</v>
       </c>
       <c r="F41" s="3">
-        <v>1738600</v>
+        <v>1901500</v>
       </c>
       <c r="G41" s="3">
-        <v>1970000</v>
+        <v>1736000</v>
       </c>
       <c r="H41" s="3">
-        <v>3705300</v>
+        <v>1967200</v>
       </c>
       <c r="I41" s="3">
-        <v>56900</v>
+        <v>3699900</v>
       </c>
       <c r="J41" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K41" s="3">
         <v>50600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>53400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1515800</v>
+        <v>960000</v>
       </c>
       <c r="E42" s="3">
-        <v>1650900</v>
+        <v>1513600</v>
       </c>
       <c r="F42" s="3">
-        <v>1796600</v>
+        <v>1648500</v>
       </c>
       <c r="G42" s="3">
-        <v>2436300</v>
+        <v>1794000</v>
       </c>
       <c r="H42" s="3">
-        <v>736400</v>
+        <v>2432800</v>
       </c>
       <c r="I42" s="3">
+        <v>735400</v>
+      </c>
+      <c r="J42" s="3">
         <v>11100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>15300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3841700</v>
+        <v>4080400</v>
       </c>
       <c r="E43" s="3">
-        <v>3200900</v>
+        <v>3836100</v>
       </c>
       <c r="F43" s="3">
-        <v>2674900</v>
+        <v>3196200</v>
       </c>
       <c r="G43" s="3">
-        <v>2573700</v>
+        <v>2671100</v>
       </c>
       <c r="H43" s="3">
-        <v>2361900</v>
+        <v>2569900</v>
       </c>
       <c r="I43" s="3">
-        <v>32000</v>
+        <v>2358500</v>
       </c>
       <c r="J43" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K43" s="3">
         <v>28600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>22600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20000</v>
+        <v>19400</v>
       </c>
       <c r="E44" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F44" s="3">
         <v>15000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>15100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2200</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>495900</v>
+        <v>596700</v>
       </c>
       <c r="E45" s="3">
-        <v>505000</v>
+        <v>495200</v>
       </c>
       <c r="F45" s="3">
-        <v>655800</v>
+        <v>504300</v>
       </c>
       <c r="G45" s="3">
-        <v>391700</v>
+        <v>654800</v>
       </c>
       <c r="H45" s="3">
-        <v>294500</v>
+        <v>391200</v>
       </c>
       <c r="I45" s="3">
+        <v>294000</v>
+      </c>
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4500</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7509700</v>
+        <v>8344700</v>
       </c>
       <c r="E46" s="3">
-        <v>7276000</v>
+        <v>7498700</v>
       </c>
       <c r="F46" s="3">
-        <v>6882300</v>
+        <v>7265400</v>
       </c>
       <c r="G46" s="3">
-        <v>7389800</v>
+        <v>6872300</v>
       </c>
       <c r="H46" s="3">
-        <v>7113200</v>
+        <v>7379100</v>
       </c>
       <c r="I46" s="3">
-        <v>103900</v>
+        <v>7102900</v>
       </c>
       <c r="J46" s="3">
+        <v>103800</v>
+      </c>
+      <c r="K46" s="3">
         <v>98800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>91300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>86000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1426800</v>
+        <v>2618000</v>
       </c>
       <c r="E47" s="3">
-        <v>1644900</v>
+        <v>1424700</v>
       </c>
       <c r="F47" s="3">
-        <v>1828700</v>
+        <v>1642500</v>
       </c>
       <c r="G47" s="3">
-        <v>1678400</v>
+        <v>1826000</v>
       </c>
       <c r="H47" s="3">
-        <v>986500</v>
+        <v>1676000</v>
       </c>
       <c r="I47" s="3">
+        <v>985000</v>
+      </c>
+      <c r="J47" s="3">
         <v>12200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2458500</v>
+        <v>2530500</v>
       </c>
       <c r="E48" s="3">
-        <v>1837800</v>
+        <v>2454900</v>
       </c>
       <c r="F48" s="3">
-        <v>1670900</v>
+        <v>1835100</v>
       </c>
       <c r="G48" s="3">
-        <v>1612100</v>
+        <v>1668400</v>
       </c>
       <c r="H48" s="3">
-        <v>1448900</v>
+        <v>1609800</v>
       </c>
       <c r="I48" s="3">
+        <v>1446800</v>
+      </c>
+      <c r="J48" s="3">
         <v>20100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>988800</v>
+        <v>1119900</v>
       </c>
       <c r="E49" s="3">
-        <v>582200</v>
+        <v>987400</v>
       </c>
       <c r="F49" s="3">
-        <v>338200</v>
+        <v>581300</v>
       </c>
       <c r="G49" s="3">
-        <v>609300</v>
+        <v>337700</v>
       </c>
       <c r="H49" s="3">
-        <v>653500</v>
+        <v>608400</v>
       </c>
       <c r="I49" s="3">
+        <v>652500</v>
+      </c>
+      <c r="J49" s="3">
         <v>8200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3300</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>381200</v>
+        <v>279100</v>
       </c>
       <c r="E52" s="3">
-        <v>319100</v>
+        <v>380600</v>
       </c>
       <c r="F52" s="3">
-        <v>272700</v>
+        <v>318600</v>
       </c>
       <c r="G52" s="3">
-        <v>180000</v>
+        <v>272300</v>
       </c>
       <c r="H52" s="3">
-        <v>171400</v>
+        <v>179700</v>
       </c>
       <c r="I52" s="3">
+        <v>171200</v>
+      </c>
+      <c r="J52" s="3">
         <v>1600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1900</v>
       </c>
       <c r="K52" s="3">
         <v>1900</v>
       </c>
       <c r="L52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M52" s="3">
         <v>1400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12764900</v>
+        <v>14892200</v>
       </c>
       <c r="E54" s="3">
-        <v>11659900</v>
+        <v>12746300</v>
       </c>
       <c r="F54" s="3">
-        <v>10992900</v>
+        <v>11643000</v>
       </c>
       <c r="G54" s="3">
-        <v>11469600</v>
+        <v>10976900</v>
       </c>
       <c r="H54" s="3">
-        <v>10373500</v>
+        <v>11453000</v>
       </c>
       <c r="I54" s="3">
-        <v>146100</v>
+        <v>10358400</v>
       </c>
       <c r="J54" s="3">
+        <v>145900</v>
+      </c>
+      <c r="K54" s="3">
         <v>131000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>119900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>109000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,49 +2267,53 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>392400</v>
+        <v>363400</v>
       </c>
       <c r="E57" s="3">
-        <v>227700</v>
+        <v>391900</v>
       </c>
       <c r="F57" s="3">
-        <v>95500</v>
+        <v>227400</v>
       </c>
       <c r="G57" s="3">
-        <v>50500</v>
+        <v>95400</v>
       </c>
       <c r="H57" s="3">
-        <v>53100</v>
+        <v>50400</v>
       </c>
       <c r="I57" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>85200</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+        <v>101400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>85100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2197,89 +2330,98 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2392200</v>
+        <v>2814200</v>
       </c>
       <c r="E59" s="3">
-        <v>2336900</v>
+        <v>2388700</v>
       </c>
       <c r="F59" s="3">
-        <v>1845400</v>
+        <v>2333500</v>
       </c>
       <c r="G59" s="3">
-        <v>1877700</v>
+        <v>1842700</v>
       </c>
       <c r="H59" s="3">
-        <v>1768600</v>
+        <v>1875000</v>
       </c>
       <c r="I59" s="3">
+        <v>1766000</v>
+      </c>
+      <c r="J59" s="3">
         <v>24700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13500</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2869800</v>
+        <v>3279100</v>
       </c>
       <c r="E60" s="3">
-        <v>2564600</v>
+        <v>2865600</v>
       </c>
       <c r="F60" s="3">
-        <v>1940800</v>
+        <v>2560900</v>
       </c>
       <c r="G60" s="3">
-        <v>1928200</v>
+        <v>1938000</v>
       </c>
       <c r="H60" s="3">
-        <v>1821700</v>
+        <v>1925400</v>
       </c>
       <c r="I60" s="3">
+        <v>1819000</v>
+      </c>
+      <c r="J60" s="3">
         <v>25000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>552300</v>
+        <v>630300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>551500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2302,42 +2444,48 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>282600</v>
+        <v>433100</v>
       </c>
       <c r="E62" s="3">
-        <v>150500</v>
+        <v>282200</v>
       </c>
       <c r="F62" s="3">
-        <v>118500</v>
+        <v>150300</v>
       </c>
       <c r="G62" s="3">
+        <v>118300</v>
+      </c>
+      <c r="H62" s="3">
         <v>49500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>51000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3759000</v>
+        <v>4401600</v>
       </c>
       <c r="E66" s="3">
-        <v>2723100</v>
+        <v>3753500</v>
       </c>
       <c r="F66" s="3">
-        <v>2059500</v>
+        <v>2719100</v>
       </c>
       <c r="G66" s="3">
-        <v>1977700</v>
+        <v>2056500</v>
       </c>
       <c r="H66" s="3">
-        <v>1872700</v>
+        <v>1974900</v>
       </c>
       <c r="I66" s="3">
+        <v>1870000</v>
+      </c>
+      <c r="J66" s="3">
         <v>25500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8488100</v>
+        <v>9878100</v>
       </c>
       <c r="E72" s="3">
-        <v>8459500</v>
+        <v>8475800</v>
       </c>
       <c r="F72" s="3">
-        <v>8652300</v>
+        <v>8447200</v>
       </c>
       <c r="G72" s="3">
-        <v>8951700</v>
+        <v>8639700</v>
       </c>
       <c r="H72" s="3">
-        <v>7933300</v>
+        <v>8938700</v>
       </c>
       <c r="I72" s="3">
-        <v>138800</v>
+        <v>7921800</v>
       </c>
       <c r="J72" s="3">
+        <v>138600</v>
+      </c>
+      <c r="K72" s="3">
         <v>122400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>107600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>94100</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9005900</v>
+        <v>10490600</v>
       </c>
       <c r="E76" s="3">
-        <v>8936800</v>
+        <v>8992800</v>
       </c>
       <c r="F76" s="3">
-        <v>8933400</v>
+        <v>8923900</v>
       </c>
       <c r="G76" s="3">
-        <v>9491900</v>
+        <v>8920400</v>
       </c>
       <c r="H76" s="3">
-        <v>8500800</v>
+        <v>9478100</v>
       </c>
       <c r="I76" s="3">
-        <v>120600</v>
+        <v>8488400</v>
       </c>
       <c r="J76" s="3">
+        <v>120400</v>
+      </c>
+      <c r="K76" s="3">
         <v>109200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>102900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>95100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2283300</v>
+        <v>2658800</v>
       </c>
       <c r="E81" s="3">
-        <v>2119600</v>
+        <v>2280000</v>
       </c>
       <c r="F81" s="3">
-        <v>2205600</v>
+        <v>2116500</v>
       </c>
       <c r="G81" s="3">
-        <v>1975000</v>
+        <v>2202400</v>
       </c>
       <c r="H81" s="3">
-        <v>1856400</v>
+        <v>1972100</v>
       </c>
       <c r="I81" s="3">
+        <v>1853700</v>
+      </c>
+      <c r="J81" s="3">
         <v>27700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>398100</v>
+        <v>448900</v>
       </c>
       <c r="E83" s="3">
-        <v>276700</v>
+        <v>397500</v>
       </c>
       <c r="F83" s="3">
-        <v>256300</v>
+        <v>276300</v>
       </c>
       <c r="G83" s="3">
-        <v>234300</v>
+        <v>256000</v>
       </c>
       <c r="H83" s="3">
-        <v>200800</v>
+        <v>234000</v>
       </c>
       <c r="I83" s="3">
-        <v>147100</v>
+        <v>200500</v>
       </c>
       <c r="J83" s="3">
+        <v>146900</v>
+      </c>
+      <c r="K83" s="3">
         <v>189100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2553400</v>
+        <v>3315000</v>
       </c>
       <c r="E89" s="3">
-        <v>2180100</v>
+        <v>2549700</v>
       </c>
       <c r="F89" s="3">
-        <v>2003300</v>
+        <v>2177000</v>
       </c>
       <c r="G89" s="3">
-        <v>1935100</v>
+        <v>2000400</v>
       </c>
       <c r="H89" s="3">
-        <v>1684600</v>
+        <v>1932300</v>
       </c>
       <c r="I89" s="3">
-        <v>1479500</v>
+        <v>1682200</v>
       </c>
       <c r="J89" s="3">
+        <v>1477300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1676900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-455000</v>
+        <v>-289500</v>
       </c>
       <c r="E91" s="3">
-        <v>-336400</v>
+        <v>-454400</v>
       </c>
       <c r="F91" s="3">
-        <v>-274900</v>
+        <v>-335900</v>
       </c>
       <c r="G91" s="3">
-        <v>-379800</v>
+        <v>-274500</v>
       </c>
       <c r="H91" s="3">
-        <v>-374700</v>
+        <v>-379200</v>
       </c>
       <c r="I91" s="3">
-        <v>-309200</v>
+        <v>-374100</v>
       </c>
       <c r="J91" s="3">
+        <v>-308700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-377700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-246700</v>
+        <v>-1148500</v>
       </c>
       <c r="E94" s="3">
-        <v>-217100</v>
+        <v>-246400</v>
       </c>
       <c r="F94" s="3">
-        <v>428100</v>
+        <v>-216800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2349400</v>
+        <v>427500</v>
       </c>
       <c r="H94" s="3">
-        <v>-428800</v>
+        <v>-2346000</v>
       </c>
       <c r="I94" s="3">
-        <v>-176000</v>
+        <v>-428100</v>
       </c>
       <c r="J94" s="3">
+        <v>-175700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-688400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1309300</v>
+        <v>-1252700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1885800</v>
+        <v>-1307400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1027000</v>
+        <v>-1883100</v>
       </c>
       <c r="G96" s="3">
-        <v>-954800</v>
+        <v>-1025600</v>
       </c>
       <c r="H96" s="3">
-        <v>-937500</v>
+        <v>-953400</v>
       </c>
       <c r="I96" s="3">
-        <v>-679100</v>
+        <v>-936100</v>
       </c>
       <c r="J96" s="3">
+        <v>-678100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-369600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2420500</v>
+        <v>-1344600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1996900</v>
+        <v>-2417000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2821500</v>
+        <v>-1993900</v>
       </c>
       <c r="G100" s="3">
-        <v>-954800</v>
+        <v>-2817400</v>
       </c>
       <c r="H100" s="3">
-        <v>-937500</v>
+        <v>-953400</v>
       </c>
       <c r="I100" s="3">
-        <v>-679100</v>
+        <v>-936100</v>
       </c>
       <c r="J100" s="3">
+        <v>-678100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-432500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12700</v>
+        <v>11400</v>
       </c>
       <c r="E101" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-7800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>11100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-16800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-16600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>10600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6400</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-126500</v>
+        <v>833300</v>
       </c>
       <c r="E102" s="3">
-        <v>-41700</v>
+        <v>-126300</v>
       </c>
       <c r="F102" s="3">
-        <v>-379000</v>
+        <v>-41600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1385900</v>
+        <v>-378400</v>
       </c>
       <c r="H102" s="3">
-        <v>320600</v>
+        <v>-1383900</v>
       </c>
       <c r="I102" s="3">
-        <v>607800</v>
+        <v>320100</v>
       </c>
       <c r="J102" s="3">
+        <v>606900</v>
+      </c>
+      <c r="K102" s="3">
         <v>566600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13804900</v>
+        <v>13513500</v>
       </c>
       <c r="E8" s="3">
-        <v>12474700</v>
+        <v>12211400</v>
       </c>
       <c r="F8" s="3">
-        <v>11359500</v>
+        <v>11119800</v>
       </c>
       <c r="G8" s="3">
-        <v>9689700</v>
+        <v>9485200</v>
       </c>
       <c r="H8" s="3">
-        <v>9409700</v>
+        <v>9211100</v>
       </c>
       <c r="I8" s="3">
-        <v>8579400</v>
+        <v>8398300</v>
       </c>
       <c r="J8" s="3">
-        <v>119700</v>
+        <v>117200</v>
       </c>
       <c r="K8" s="3">
         <v>113500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8987700</v>
+        <v>8798000</v>
       </c>
       <c r="E9" s="3">
-        <v>8344600</v>
+        <v>8168500</v>
       </c>
       <c r="F9" s="3">
-        <v>7401300</v>
+        <v>7245100</v>
       </c>
       <c r="G9" s="3">
-        <v>6200900</v>
+        <v>6070000</v>
       </c>
       <c r="H9" s="3">
-        <v>5943000</v>
+        <v>5817500</v>
       </c>
       <c r="I9" s="3">
-        <v>5351600</v>
+        <v>5238600</v>
       </c>
       <c r="J9" s="3">
-        <v>73300</v>
+        <v>71700</v>
       </c>
       <c r="K9" s="3">
         <v>72400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4817100</v>
+        <v>4715400</v>
       </c>
       <c r="E10" s="3">
-        <v>4130100</v>
+        <v>4042900</v>
       </c>
       <c r="F10" s="3">
-        <v>3958200</v>
+        <v>3874700</v>
       </c>
       <c r="G10" s="3">
-        <v>3488900</v>
+        <v>3415200</v>
       </c>
       <c r="H10" s="3">
-        <v>3466700</v>
+        <v>3393600</v>
       </c>
       <c r="I10" s="3">
-        <v>3227800</v>
+        <v>3159700</v>
       </c>
       <c r="J10" s="3">
-        <v>46400</v>
+        <v>45400</v>
       </c>
       <c r="K10" s="3">
         <v>41100</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26100</v>
+        <v>25600</v>
       </c>
       <c r="E14" s="3">
-        <v>23600</v>
+        <v>23100</v>
       </c>
       <c r="F14" s="3">
-        <v>133100</v>
+        <v>130300</v>
       </c>
       <c r="G14" s="3">
-        <v>26000</v>
+        <v>25400</v>
       </c>
       <c r="H14" s="3">
-        <v>19200</v>
+        <v>18800</v>
       </c>
       <c r="I14" s="3">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="J14" s="3">
         <v>600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10421800</v>
+        <v>10201800</v>
       </c>
       <c r="E17" s="3">
-        <v>9812700</v>
+        <v>9605600</v>
       </c>
       <c r="F17" s="3">
-        <v>8864500</v>
+        <v>8677400</v>
       </c>
       <c r="G17" s="3">
-        <v>7349800</v>
+        <v>7194700</v>
       </c>
       <c r="H17" s="3">
-        <v>7087500</v>
+        <v>6937900</v>
       </c>
       <c r="I17" s="3">
-        <v>6433200</v>
+        <v>6297400</v>
       </c>
       <c r="J17" s="3">
-        <v>88700</v>
+        <v>86800</v>
       </c>
       <c r="K17" s="3">
         <v>86300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3383100</v>
+        <v>3311700</v>
       </c>
       <c r="E18" s="3">
-        <v>2662000</v>
+        <v>2605800</v>
       </c>
       <c r="F18" s="3">
-        <v>2495000</v>
+        <v>2442400</v>
       </c>
       <c r="G18" s="3">
-        <v>2339900</v>
+        <v>2290500</v>
       </c>
       <c r="H18" s="3">
-        <v>2322200</v>
+        <v>2273200</v>
       </c>
       <c r="I18" s="3">
-        <v>2146200</v>
+        <v>2100900</v>
       </c>
       <c r="J18" s="3">
-        <v>31000</v>
+        <v>30400</v>
       </c>
       <c r="K18" s="3">
         <v>27200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>299800</v>
+        <v>293500</v>
       </c>
       <c r="E20" s="3">
-        <v>385100</v>
+        <v>377000</v>
       </c>
       <c r="F20" s="3">
-        <v>396000</v>
+        <v>387600</v>
       </c>
       <c r="G20" s="3">
-        <v>445200</v>
+        <v>435800</v>
       </c>
       <c r="H20" s="3">
-        <v>419100</v>
+        <v>410200</v>
       </c>
       <c r="I20" s="3">
-        <v>429000</v>
+        <v>419900</v>
       </c>
       <c r="J20" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="K20" s="3">
         <v>6100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4131400</v>
+        <v>4044900</v>
       </c>
       <c r="E21" s="3">
-        <v>3444300</v>
+        <v>3372200</v>
       </c>
       <c r="F21" s="3">
-        <v>3167100</v>
+        <v>3100700</v>
       </c>
       <c r="G21" s="3">
-        <v>3040900</v>
+        <v>2977100</v>
       </c>
       <c r="H21" s="3">
-        <v>2975100</v>
+        <v>2912600</v>
       </c>
       <c r="I21" s="3">
-        <v>2775500</v>
+        <v>2717200</v>
       </c>
       <c r="J21" s="3">
-        <v>185500</v>
+        <v>181800</v>
       </c>
       <c r="K21" s="3">
         <v>222600</v>
@@ -1161,10 +1161,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24200</v>
+        <v>23700</v>
       </c>
       <c r="E22" s="3">
-        <v>23400</v>
+        <v>22900</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3658700</v>
+        <v>3581500</v>
       </c>
       <c r="E23" s="3">
-        <v>3023800</v>
+        <v>2959900</v>
       </c>
       <c r="F23" s="3">
-        <v>2891000</v>
+        <v>2830000</v>
       </c>
       <c r="G23" s="3">
-        <v>2785100</v>
+        <v>2726300</v>
       </c>
       <c r="H23" s="3">
-        <v>2741300</v>
+        <v>2683400</v>
       </c>
       <c r="I23" s="3">
-        <v>2575200</v>
+        <v>2520800</v>
       </c>
       <c r="J23" s="3">
-        <v>38700</v>
+        <v>37900</v>
       </c>
       <c r="K23" s="3">
         <v>33300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>990000</v>
+        <v>969100</v>
       </c>
       <c r="E24" s="3">
-        <v>737600</v>
+        <v>722000</v>
       </c>
       <c r="F24" s="3">
-        <v>773700</v>
+        <v>757400</v>
       </c>
       <c r="G24" s="3">
-        <v>582700</v>
+        <v>570400</v>
       </c>
       <c r="H24" s="3">
-        <v>769200</v>
+        <v>752900</v>
       </c>
       <c r="I24" s="3">
-        <v>721500</v>
+        <v>706300</v>
       </c>
       <c r="J24" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="K24" s="3">
         <v>9200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2668700</v>
+        <v>2612400</v>
       </c>
       <c r="E26" s="3">
-        <v>2286200</v>
+        <v>2237900</v>
       </c>
       <c r="F26" s="3">
-        <v>2117300</v>
+        <v>2072600</v>
       </c>
       <c r="G26" s="3">
-        <v>2202400</v>
+        <v>2155900</v>
       </c>
       <c r="H26" s="3">
-        <v>1972100</v>
+        <v>1930500</v>
       </c>
       <c r="I26" s="3">
-        <v>1853700</v>
+        <v>1814500</v>
       </c>
       <c r="J26" s="3">
-        <v>27700</v>
+        <v>27100</v>
       </c>
       <c r="K26" s="3">
         <v>24100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2658800</v>
+        <v>2602700</v>
       </c>
       <c r="E27" s="3">
-        <v>2280000</v>
+        <v>2231900</v>
       </c>
       <c r="F27" s="3">
-        <v>2116500</v>
+        <v>2071800</v>
       </c>
       <c r="G27" s="3">
-        <v>2202400</v>
+        <v>2155900</v>
       </c>
       <c r="H27" s="3">
-        <v>1972100</v>
+        <v>1930500</v>
       </c>
       <c r="I27" s="3">
-        <v>1853700</v>
+        <v>1814500</v>
       </c>
       <c r="J27" s="3">
-        <v>27700</v>
+        <v>27100</v>
       </c>
       <c r="K27" s="3">
         <v>24100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-299800</v>
+        <v>-293500</v>
       </c>
       <c r="E32" s="3">
-        <v>-385100</v>
+        <v>-377000</v>
       </c>
       <c r="F32" s="3">
-        <v>-396000</v>
+        <v>-387600</v>
       </c>
       <c r="G32" s="3">
-        <v>-445200</v>
+        <v>-435800</v>
       </c>
       <c r="H32" s="3">
-        <v>-419100</v>
+        <v>-410200</v>
       </c>
       <c r="I32" s="3">
-        <v>-429000</v>
+        <v>-419900</v>
       </c>
       <c r="J32" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="K32" s="3">
         <v>-6100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2658800</v>
+        <v>2602700</v>
       </c>
       <c r="E33" s="3">
-        <v>2280000</v>
+        <v>2231900</v>
       </c>
       <c r="F33" s="3">
-        <v>2116500</v>
+        <v>2071800</v>
       </c>
       <c r="G33" s="3">
-        <v>2202400</v>
+        <v>2155900</v>
       </c>
       <c r="H33" s="3">
-        <v>1972100</v>
+        <v>1930500</v>
       </c>
       <c r="I33" s="3">
-        <v>1853700</v>
+        <v>1814500</v>
       </c>
       <c r="J33" s="3">
-        <v>27700</v>
+        <v>27100</v>
       </c>
       <c r="K33" s="3">
         <v>24100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2658800</v>
+        <v>2602700</v>
       </c>
       <c r="E35" s="3">
-        <v>2280000</v>
+        <v>2231900</v>
       </c>
       <c r="F35" s="3">
-        <v>2116500</v>
+        <v>2071800</v>
       </c>
       <c r="G35" s="3">
-        <v>2202400</v>
+        <v>2155900</v>
       </c>
       <c r="H35" s="3">
-        <v>1972100</v>
+        <v>1930500</v>
       </c>
       <c r="I35" s="3">
-        <v>1853700</v>
+        <v>1814500</v>
       </c>
       <c r="J35" s="3">
-        <v>27700</v>
+        <v>27100</v>
       </c>
       <c r="K35" s="3">
         <v>24100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2688200</v>
+        <v>2631500</v>
       </c>
       <c r="E41" s="3">
-        <v>1634000</v>
+        <v>1599500</v>
       </c>
       <c r="F41" s="3">
-        <v>1901500</v>
+        <v>1861300</v>
       </c>
       <c r="G41" s="3">
-        <v>1736000</v>
+        <v>1699400</v>
       </c>
       <c r="H41" s="3">
-        <v>1967200</v>
+        <v>1925600</v>
       </c>
       <c r="I41" s="3">
-        <v>3699900</v>
+        <v>3621800</v>
       </c>
       <c r="J41" s="3">
-        <v>56800</v>
+        <v>55600</v>
       </c>
       <c r="K41" s="3">
         <v>50600</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>960000</v>
+        <v>939800</v>
       </c>
       <c r="E42" s="3">
-        <v>1513600</v>
+        <v>1481700</v>
       </c>
       <c r="F42" s="3">
-        <v>1648500</v>
+        <v>1613700</v>
       </c>
       <c r="G42" s="3">
-        <v>1794000</v>
+        <v>1756200</v>
       </c>
       <c r="H42" s="3">
-        <v>2432800</v>
+        <v>2381500</v>
       </c>
       <c r="I42" s="3">
-        <v>735400</v>
+        <v>719800</v>
       </c>
       <c r="J42" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="K42" s="3">
         <v>15300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4080400</v>
+        <v>3994200</v>
       </c>
       <c r="E43" s="3">
-        <v>3836100</v>
+        <v>3755100</v>
       </c>
       <c r="F43" s="3">
-        <v>3196200</v>
+        <v>3128700</v>
       </c>
       <c r="G43" s="3">
-        <v>2671100</v>
+        <v>2614700</v>
       </c>
       <c r="H43" s="3">
-        <v>2569900</v>
+        <v>2515700</v>
       </c>
       <c r="I43" s="3">
-        <v>2358500</v>
+        <v>2308700</v>
       </c>
       <c r="J43" s="3">
-        <v>31900</v>
+        <v>31300</v>
       </c>
       <c r="K43" s="3">
         <v>28600</v>
@@ -1846,22 +1846,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19400</v>
+        <v>19000</v>
       </c>
       <c r="E44" s="3">
-        <v>19900</v>
+        <v>19500</v>
       </c>
       <c r="F44" s="3">
-        <v>15000</v>
+        <v>14700</v>
       </c>
       <c r="G44" s="3">
-        <v>16400</v>
+        <v>16000</v>
       </c>
       <c r="H44" s="3">
-        <v>18000</v>
+        <v>17600</v>
       </c>
       <c r="I44" s="3">
-        <v>15100</v>
+        <v>14800</v>
       </c>
       <c r="J44" s="3">
         <v>2400</v>
@@ -1882,22 +1882,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>596700</v>
+        <v>584100</v>
       </c>
       <c r="E45" s="3">
-        <v>495200</v>
+        <v>484700</v>
       </c>
       <c r="F45" s="3">
-        <v>504300</v>
+        <v>493600</v>
       </c>
       <c r="G45" s="3">
-        <v>654800</v>
+        <v>641000</v>
       </c>
       <c r="H45" s="3">
-        <v>391200</v>
+        <v>382900</v>
       </c>
       <c r="I45" s="3">
-        <v>294000</v>
+        <v>287800</v>
       </c>
       <c r="J45" s="3">
         <v>1500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8344700</v>
+        <v>8168600</v>
       </c>
       <c r="E46" s="3">
-        <v>7498700</v>
+        <v>7340500</v>
       </c>
       <c r="F46" s="3">
-        <v>7265400</v>
+        <v>7112100</v>
       </c>
       <c r="G46" s="3">
-        <v>6872300</v>
+        <v>6727300</v>
       </c>
       <c r="H46" s="3">
-        <v>7379100</v>
+        <v>7223300</v>
       </c>
       <c r="I46" s="3">
-        <v>7102900</v>
+        <v>6953000</v>
       </c>
       <c r="J46" s="3">
-        <v>103800</v>
+        <v>101600</v>
       </c>
       <c r="K46" s="3">
         <v>98800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2618000</v>
+        <v>2562800</v>
       </c>
       <c r="E47" s="3">
-        <v>1424700</v>
+        <v>1394600</v>
       </c>
       <c r="F47" s="3">
-        <v>1642500</v>
+        <v>1607800</v>
       </c>
       <c r="G47" s="3">
-        <v>1826000</v>
+        <v>1787500</v>
       </c>
       <c r="H47" s="3">
-        <v>1676000</v>
+        <v>1640600</v>
       </c>
       <c r="I47" s="3">
-        <v>985000</v>
+        <v>964200</v>
       </c>
       <c r="J47" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="K47" s="3">
         <v>6400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2530500</v>
+        <v>2477100</v>
       </c>
       <c r="E48" s="3">
-        <v>2454900</v>
+        <v>2403100</v>
       </c>
       <c r="F48" s="3">
-        <v>1835100</v>
+        <v>1796400</v>
       </c>
       <c r="G48" s="3">
-        <v>1668400</v>
+        <v>1633200</v>
       </c>
       <c r="H48" s="3">
-        <v>1609800</v>
+        <v>1575800</v>
       </c>
       <c r="I48" s="3">
-        <v>1446800</v>
+        <v>1416300</v>
       </c>
       <c r="J48" s="3">
-        <v>20100</v>
+        <v>19600</v>
       </c>
       <c r="K48" s="3">
         <v>18100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1119900</v>
+        <v>1096300</v>
       </c>
       <c r="E49" s="3">
-        <v>987400</v>
+        <v>966500</v>
       </c>
       <c r="F49" s="3">
-        <v>581300</v>
+        <v>569100</v>
       </c>
       <c r="G49" s="3">
-        <v>337700</v>
+        <v>330600</v>
       </c>
       <c r="H49" s="3">
-        <v>608400</v>
+        <v>595600</v>
       </c>
       <c r="I49" s="3">
-        <v>652500</v>
+        <v>638700</v>
       </c>
       <c r="J49" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="K49" s="3">
         <v>5700</v>
@@ -2134,22 +2134,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>279100</v>
+        <v>273200</v>
       </c>
       <c r="E52" s="3">
-        <v>380600</v>
+        <v>372600</v>
       </c>
       <c r="F52" s="3">
-        <v>318600</v>
+        <v>311900</v>
       </c>
       <c r="G52" s="3">
-        <v>272300</v>
+        <v>266600</v>
       </c>
       <c r="H52" s="3">
-        <v>179700</v>
+        <v>175900</v>
       </c>
       <c r="I52" s="3">
-        <v>171200</v>
+        <v>167600</v>
       </c>
       <c r="J52" s="3">
         <v>1600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14892200</v>
+        <v>14577900</v>
       </c>
       <c r="E54" s="3">
-        <v>12746300</v>
+        <v>12477300</v>
       </c>
       <c r="F54" s="3">
-        <v>11643000</v>
+        <v>11397300</v>
       </c>
       <c r="G54" s="3">
-        <v>10976900</v>
+        <v>10745200</v>
       </c>
       <c r="H54" s="3">
-        <v>11453000</v>
+        <v>11211200</v>
       </c>
       <c r="I54" s="3">
-        <v>10358400</v>
+        <v>10139800</v>
       </c>
       <c r="J54" s="3">
-        <v>145900</v>
+        <v>142800</v>
       </c>
       <c r="K54" s="3">
         <v>131000</v>
@@ -2274,22 +2274,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>363400</v>
+        <v>355800</v>
       </c>
       <c r="E57" s="3">
-        <v>391900</v>
+        <v>383600</v>
       </c>
       <c r="F57" s="3">
-        <v>227400</v>
+        <v>222600</v>
       </c>
       <c r="G57" s="3">
-        <v>95400</v>
+        <v>93300</v>
       </c>
       <c r="H57" s="3">
-        <v>50400</v>
+        <v>49400</v>
       </c>
       <c r="I57" s="3">
-        <v>53000</v>
+        <v>51900</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -2310,10 +2310,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>101400</v>
+        <v>99300</v>
       </c>
       <c r="E58" s="3">
-        <v>85100</v>
+        <v>83300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2814200</v>
+        <v>2754800</v>
       </c>
       <c r="E59" s="3">
-        <v>2388700</v>
+        <v>2338300</v>
       </c>
       <c r="F59" s="3">
-        <v>2333500</v>
+        <v>2284200</v>
       </c>
       <c r="G59" s="3">
-        <v>1842700</v>
+        <v>1803800</v>
       </c>
       <c r="H59" s="3">
-        <v>1875000</v>
+        <v>1835400</v>
       </c>
       <c r="I59" s="3">
-        <v>1766000</v>
+        <v>1728700</v>
       </c>
       <c r="J59" s="3">
-        <v>24700</v>
+        <v>24200</v>
       </c>
       <c r="K59" s="3">
         <v>20600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3279100</v>
+        <v>3209800</v>
       </c>
       <c r="E60" s="3">
-        <v>2865600</v>
+        <v>2805100</v>
       </c>
       <c r="F60" s="3">
-        <v>2560900</v>
+        <v>2506800</v>
       </c>
       <c r="G60" s="3">
-        <v>1938000</v>
+        <v>1897100</v>
       </c>
       <c r="H60" s="3">
-        <v>1925400</v>
+        <v>1884700</v>
       </c>
       <c r="I60" s="3">
-        <v>1819000</v>
+        <v>1780600</v>
       </c>
       <c r="J60" s="3">
-        <v>25000</v>
+        <v>24500</v>
       </c>
       <c r="K60" s="3">
         <v>21000</v>
@@ -2418,10 +2418,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>630300</v>
+        <v>617000</v>
       </c>
       <c r="E61" s="3">
-        <v>551500</v>
+        <v>539900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>433100</v>
+        <v>423900</v>
       </c>
       <c r="E62" s="3">
-        <v>282200</v>
+        <v>276300</v>
       </c>
       <c r="F62" s="3">
-        <v>150300</v>
+        <v>147100</v>
       </c>
       <c r="G62" s="3">
-        <v>118300</v>
+        <v>115800</v>
       </c>
       <c r="H62" s="3">
-        <v>49500</v>
+        <v>48400</v>
       </c>
       <c r="I62" s="3">
-        <v>51000</v>
+        <v>49900</v>
       </c>
       <c r="J62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4401600</v>
+        <v>4308700</v>
       </c>
       <c r="E66" s="3">
-        <v>3753500</v>
+        <v>3674300</v>
       </c>
       <c r="F66" s="3">
-        <v>2719100</v>
+        <v>2661800</v>
       </c>
       <c r="G66" s="3">
-        <v>2056500</v>
+        <v>2013100</v>
       </c>
       <c r="H66" s="3">
-        <v>1974900</v>
+        <v>1933200</v>
       </c>
       <c r="I66" s="3">
-        <v>1870000</v>
+        <v>1830500</v>
       </c>
       <c r="J66" s="3">
-        <v>25500</v>
+        <v>24900</v>
       </c>
       <c r="K66" s="3">
         <v>21900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9878100</v>
+        <v>9669600</v>
       </c>
       <c r="E72" s="3">
-        <v>8475800</v>
+        <v>8296900</v>
       </c>
       <c r="F72" s="3">
-        <v>8447200</v>
+        <v>8268900</v>
       </c>
       <c r="G72" s="3">
-        <v>8639700</v>
+        <v>8457400</v>
       </c>
       <c r="H72" s="3">
-        <v>8938700</v>
+        <v>8750000</v>
       </c>
       <c r="I72" s="3">
-        <v>7921800</v>
+        <v>7754600</v>
       </c>
       <c r="J72" s="3">
-        <v>138600</v>
+        <v>135700</v>
       </c>
       <c r="K72" s="3">
         <v>122400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10490600</v>
+        <v>10269200</v>
       </c>
       <c r="E76" s="3">
-        <v>8992800</v>
+        <v>8803000</v>
       </c>
       <c r="F76" s="3">
-        <v>8923900</v>
+        <v>8735500</v>
       </c>
       <c r="G76" s="3">
-        <v>8920400</v>
+        <v>8732100</v>
       </c>
       <c r="H76" s="3">
-        <v>9478100</v>
+        <v>9278100</v>
       </c>
       <c r="I76" s="3">
-        <v>8488400</v>
+        <v>8309300</v>
       </c>
       <c r="J76" s="3">
-        <v>120400</v>
+        <v>117800</v>
       </c>
       <c r="K76" s="3">
         <v>109200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2658800</v>
+        <v>2602700</v>
       </c>
       <c r="E81" s="3">
-        <v>2280000</v>
+        <v>2231900</v>
       </c>
       <c r="F81" s="3">
-        <v>2116500</v>
+        <v>2071800</v>
       </c>
       <c r="G81" s="3">
-        <v>2202400</v>
+        <v>2155900</v>
       </c>
       <c r="H81" s="3">
-        <v>1972100</v>
+        <v>1930500</v>
       </c>
       <c r="I81" s="3">
-        <v>1853700</v>
+        <v>1814500</v>
       </c>
       <c r="J81" s="3">
-        <v>27700</v>
+        <v>27100</v>
       </c>
       <c r="K81" s="3">
         <v>24100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>448900</v>
+        <v>439400</v>
       </c>
       <c r="E83" s="3">
-        <v>397500</v>
+        <v>389100</v>
       </c>
       <c r="F83" s="3">
-        <v>276300</v>
+        <v>270500</v>
       </c>
       <c r="G83" s="3">
-        <v>256000</v>
+        <v>250600</v>
       </c>
       <c r="H83" s="3">
-        <v>234000</v>
+        <v>229100</v>
       </c>
       <c r="I83" s="3">
-        <v>200500</v>
+        <v>196200</v>
       </c>
       <c r="J83" s="3">
-        <v>146900</v>
+        <v>143800</v>
       </c>
       <c r="K83" s="3">
         <v>189100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3315000</v>
+        <v>3245100</v>
       </c>
       <c r="E89" s="3">
-        <v>2549700</v>
+        <v>2495900</v>
       </c>
       <c r="F89" s="3">
-        <v>2177000</v>
+        <v>2131000</v>
       </c>
       <c r="G89" s="3">
-        <v>2000400</v>
+        <v>1958200</v>
       </c>
       <c r="H89" s="3">
-        <v>1932300</v>
+        <v>1891500</v>
       </c>
       <c r="I89" s="3">
-        <v>1682200</v>
+        <v>1646700</v>
       </c>
       <c r="J89" s="3">
-        <v>1477300</v>
+        <v>1446100</v>
       </c>
       <c r="K89" s="3">
         <v>1676900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-289500</v>
+        <v>-283400</v>
       </c>
       <c r="E91" s="3">
-        <v>-454400</v>
+        <v>-444800</v>
       </c>
       <c r="F91" s="3">
-        <v>-335900</v>
+        <v>-328900</v>
       </c>
       <c r="G91" s="3">
-        <v>-274500</v>
+        <v>-268700</v>
       </c>
       <c r="H91" s="3">
-        <v>-379200</v>
+        <v>-371200</v>
       </c>
       <c r="I91" s="3">
-        <v>-374100</v>
+        <v>-366200</v>
       </c>
       <c r="J91" s="3">
-        <v>-308700</v>
+        <v>-302200</v>
       </c>
       <c r="K91" s="3">
         <v>-377700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1148500</v>
+        <v>-1124300</v>
       </c>
       <c r="E94" s="3">
-        <v>-246400</v>
+        <v>-241200</v>
       </c>
       <c r="F94" s="3">
-        <v>-216800</v>
+        <v>-212200</v>
       </c>
       <c r="G94" s="3">
-        <v>427500</v>
+        <v>418400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2346000</v>
+        <v>-2296500</v>
       </c>
       <c r="I94" s="3">
-        <v>-428100</v>
+        <v>-419100</v>
       </c>
       <c r="J94" s="3">
-        <v>-175700</v>
+        <v>-172000</v>
       </c>
       <c r="K94" s="3">
         <v>-688400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1252700</v>
+        <v>-1226200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1307400</v>
+        <v>-1279800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1883100</v>
+        <v>-1843300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1025600</v>
+        <v>-1003900</v>
       </c>
       <c r="H96" s="3">
-        <v>-953400</v>
+        <v>-933300</v>
       </c>
       <c r="I96" s="3">
-        <v>-936100</v>
+        <v>-916300</v>
       </c>
       <c r="J96" s="3">
-        <v>-678100</v>
+        <v>-663800</v>
       </c>
       <c r="K96" s="3">
         <v>-369600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1344600</v>
+        <v>-1316200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2417000</v>
+        <v>-2366000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1993900</v>
+        <v>-1951900</v>
       </c>
       <c r="G100" s="3">
-        <v>-2817400</v>
+        <v>-2757900</v>
       </c>
       <c r="H100" s="3">
-        <v>-953400</v>
+        <v>-933300</v>
       </c>
       <c r="I100" s="3">
-        <v>-936100</v>
+        <v>-916300</v>
       </c>
       <c r="J100" s="3">
-        <v>-678100</v>
+        <v>-663800</v>
       </c>
       <c r="K100" s="3">
         <v>-432500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="E101" s="3">
-        <v>-12600</v>
+        <v>-12400</v>
       </c>
       <c r="F101" s="3">
-        <v>-7800</v>
+        <v>-7700</v>
       </c>
       <c r="G101" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="H101" s="3">
-        <v>-16800</v>
+        <v>-16400</v>
       </c>
       <c r="I101" s="3">
         <v>2200</v>
       </c>
       <c r="J101" s="3">
-        <v>-16600</v>
+        <v>-16300</v>
       </c>
       <c r="K101" s="3">
         <v>10600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>833300</v>
+        <v>815700</v>
       </c>
       <c r="E102" s="3">
-        <v>-126300</v>
+        <v>-123600</v>
       </c>
       <c r="F102" s="3">
-        <v>-41600</v>
+        <v>-40800</v>
       </c>
       <c r="G102" s="3">
-        <v>-378400</v>
+        <v>-370400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1383900</v>
+        <v>-1354700</v>
       </c>
       <c r="I102" s="3">
-        <v>320100</v>
+        <v>313400</v>
       </c>
       <c r="J102" s="3">
-        <v>606900</v>
+        <v>594100</v>
       </c>
       <c r="K102" s="3">
         <v>566600</v>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13513500</v>
+        <v>13392900</v>
       </c>
       <c r="E8" s="3">
-        <v>12211400</v>
+        <v>12102400</v>
       </c>
       <c r="F8" s="3">
-        <v>11119800</v>
+        <v>11020600</v>
       </c>
       <c r="G8" s="3">
-        <v>9485200</v>
+        <v>9400600</v>
       </c>
       <c r="H8" s="3">
-        <v>9211100</v>
+        <v>9128900</v>
       </c>
       <c r="I8" s="3">
-        <v>8398300</v>
+        <v>8323400</v>
       </c>
       <c r="J8" s="3">
-        <v>117200</v>
+        <v>116100</v>
       </c>
       <c r="K8" s="3">
         <v>113500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8798000</v>
+        <v>8719600</v>
       </c>
       <c r="E9" s="3">
-        <v>8168500</v>
+        <v>8095600</v>
       </c>
       <c r="F9" s="3">
-        <v>7245100</v>
+        <v>7180500</v>
       </c>
       <c r="G9" s="3">
-        <v>6070000</v>
+        <v>6015800</v>
       </c>
       <c r="H9" s="3">
-        <v>5817500</v>
+        <v>5765600</v>
       </c>
       <c r="I9" s="3">
-        <v>5238600</v>
+        <v>5191900</v>
       </c>
       <c r="J9" s="3">
-        <v>71700</v>
+        <v>71100</v>
       </c>
       <c r="K9" s="3">
         <v>72400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4715400</v>
+        <v>4673400</v>
       </c>
       <c r="E10" s="3">
-        <v>4042900</v>
+        <v>4006900</v>
       </c>
       <c r="F10" s="3">
-        <v>3874700</v>
+        <v>3840100</v>
       </c>
       <c r="G10" s="3">
-        <v>3415200</v>
+        <v>3384800</v>
       </c>
       <c r="H10" s="3">
-        <v>3393600</v>
+        <v>3363300</v>
       </c>
       <c r="I10" s="3">
-        <v>3159700</v>
+        <v>3131500</v>
       </c>
       <c r="J10" s="3">
-        <v>45400</v>
+        <v>45000</v>
       </c>
       <c r="K10" s="3">
         <v>41100</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>25600</v>
+        <v>25300</v>
       </c>
       <c r="E14" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="F14" s="3">
-        <v>130300</v>
+        <v>129200</v>
       </c>
       <c r="G14" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="H14" s="3">
-        <v>18800</v>
+        <v>18700</v>
       </c>
       <c r="I14" s="3">
-        <v>20000</v>
+        <v>19900</v>
       </c>
       <c r="J14" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K14" s="3">
         <v>400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10201800</v>
+        <v>10110800</v>
       </c>
       <c r="E17" s="3">
-        <v>9605600</v>
+        <v>9519900</v>
       </c>
       <c r="F17" s="3">
-        <v>8677400</v>
+        <v>8600000</v>
       </c>
       <c r="G17" s="3">
-        <v>7194700</v>
+        <v>7130500</v>
       </c>
       <c r="H17" s="3">
-        <v>6937900</v>
+        <v>6876000</v>
       </c>
       <c r="I17" s="3">
-        <v>6297400</v>
+        <v>6241200</v>
       </c>
       <c r="J17" s="3">
-        <v>86800</v>
+        <v>86000</v>
       </c>
       <c r="K17" s="3">
         <v>86300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3311700</v>
+        <v>3282100</v>
       </c>
       <c r="E18" s="3">
-        <v>2605800</v>
+        <v>2582600</v>
       </c>
       <c r="F18" s="3">
-        <v>2442400</v>
+        <v>2420600</v>
       </c>
       <c r="G18" s="3">
-        <v>2290500</v>
+        <v>2270100</v>
       </c>
       <c r="H18" s="3">
-        <v>2273200</v>
+        <v>2252900</v>
       </c>
       <c r="I18" s="3">
-        <v>2100900</v>
+        <v>2082100</v>
       </c>
       <c r="J18" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="K18" s="3">
         <v>27200</v>
@@ -1089,22 +1089,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>293500</v>
+        <v>290900</v>
       </c>
       <c r="E20" s="3">
-        <v>377000</v>
+        <v>373600</v>
       </c>
       <c r="F20" s="3">
-        <v>387600</v>
+        <v>384200</v>
       </c>
       <c r="G20" s="3">
-        <v>435800</v>
+        <v>431900</v>
       </c>
       <c r="H20" s="3">
-        <v>410200</v>
+        <v>406600</v>
       </c>
       <c r="I20" s="3">
-        <v>419900</v>
+        <v>416200</v>
       </c>
       <c r="J20" s="3">
         <v>7500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4044900</v>
+        <v>4008500</v>
       </c>
       <c r="E21" s="3">
-        <v>3372200</v>
+        <v>3341800</v>
       </c>
       <c r="F21" s="3">
-        <v>3100700</v>
+        <v>3072800</v>
       </c>
       <c r="G21" s="3">
-        <v>2977100</v>
+        <v>2950300</v>
       </c>
       <c r="H21" s="3">
-        <v>2912600</v>
+        <v>2886500</v>
       </c>
       <c r="I21" s="3">
-        <v>2717200</v>
+        <v>2692800</v>
       </c>
       <c r="J21" s="3">
-        <v>181800</v>
+        <v>180100</v>
       </c>
       <c r="K21" s="3">
         <v>222600</v>
@@ -1161,10 +1161,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="E22" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3581500</v>
+        <v>3549500</v>
       </c>
       <c r="E23" s="3">
-        <v>2959900</v>
+        <v>2933500</v>
       </c>
       <c r="F23" s="3">
-        <v>2830000</v>
+        <v>2804800</v>
       </c>
       <c r="G23" s="3">
-        <v>2726300</v>
+        <v>2702000</v>
       </c>
       <c r="H23" s="3">
-        <v>2683400</v>
+        <v>2659500</v>
       </c>
       <c r="I23" s="3">
-        <v>2520800</v>
+        <v>2498300</v>
       </c>
       <c r="J23" s="3">
-        <v>37900</v>
+        <v>37600</v>
       </c>
       <c r="K23" s="3">
         <v>33300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>969100</v>
+        <v>960400</v>
       </c>
       <c r="E24" s="3">
-        <v>722000</v>
+        <v>715600</v>
       </c>
       <c r="F24" s="3">
-        <v>757400</v>
+        <v>750600</v>
       </c>
       <c r="G24" s="3">
-        <v>570400</v>
+        <v>565300</v>
       </c>
       <c r="H24" s="3">
-        <v>752900</v>
+        <v>746200</v>
       </c>
       <c r="I24" s="3">
-        <v>706300</v>
+        <v>700000</v>
       </c>
       <c r="J24" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="K24" s="3">
         <v>9200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2612400</v>
+        <v>2589100</v>
       </c>
       <c r="E26" s="3">
-        <v>2237900</v>
+        <v>2218000</v>
       </c>
       <c r="F26" s="3">
-        <v>2072600</v>
+        <v>2054200</v>
       </c>
       <c r="G26" s="3">
-        <v>2155900</v>
+        <v>2136700</v>
       </c>
       <c r="H26" s="3">
-        <v>1930500</v>
+        <v>1913300</v>
       </c>
       <c r="I26" s="3">
-        <v>1814500</v>
+        <v>1798400</v>
       </c>
       <c r="J26" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="K26" s="3">
         <v>24100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2602700</v>
+        <v>2579500</v>
       </c>
       <c r="E27" s="3">
-        <v>2231900</v>
+        <v>2212000</v>
       </c>
       <c r="F27" s="3">
-        <v>2071800</v>
+        <v>2053400</v>
       </c>
       <c r="G27" s="3">
-        <v>2155900</v>
+        <v>2136700</v>
       </c>
       <c r="H27" s="3">
-        <v>1930500</v>
+        <v>1913300</v>
       </c>
       <c r="I27" s="3">
-        <v>1814500</v>
+        <v>1798400</v>
       </c>
       <c r="J27" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="K27" s="3">
         <v>24100</v>
@@ -1521,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-293500</v>
+        <v>-290900</v>
       </c>
       <c r="E32" s="3">
-        <v>-377000</v>
+        <v>-373600</v>
       </c>
       <c r="F32" s="3">
-        <v>-387600</v>
+        <v>-384200</v>
       </c>
       <c r="G32" s="3">
-        <v>-435800</v>
+        <v>-431900</v>
       </c>
       <c r="H32" s="3">
-        <v>-410200</v>
+        <v>-406600</v>
       </c>
       <c r="I32" s="3">
-        <v>-419900</v>
+        <v>-416200</v>
       </c>
       <c r="J32" s="3">
         <v>-7500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2602700</v>
+        <v>2579500</v>
       </c>
       <c r="E33" s="3">
-        <v>2231900</v>
+        <v>2212000</v>
       </c>
       <c r="F33" s="3">
-        <v>2071800</v>
+        <v>2053400</v>
       </c>
       <c r="G33" s="3">
-        <v>2155900</v>
+        <v>2136700</v>
       </c>
       <c r="H33" s="3">
-        <v>1930500</v>
+        <v>1913300</v>
       </c>
       <c r="I33" s="3">
-        <v>1814500</v>
+        <v>1798400</v>
       </c>
       <c r="J33" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="K33" s="3">
         <v>24100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2602700</v>
+        <v>2579500</v>
       </c>
       <c r="E35" s="3">
-        <v>2231900</v>
+        <v>2212000</v>
       </c>
       <c r="F35" s="3">
-        <v>2071800</v>
+        <v>2053400</v>
       </c>
       <c r="G35" s="3">
-        <v>2155900</v>
+        <v>2136700</v>
       </c>
       <c r="H35" s="3">
-        <v>1930500</v>
+        <v>1913300</v>
       </c>
       <c r="I35" s="3">
-        <v>1814500</v>
+        <v>1798400</v>
       </c>
       <c r="J35" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="K35" s="3">
         <v>24100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2631500</v>
+        <v>2608000</v>
       </c>
       <c r="E41" s="3">
-        <v>1599500</v>
+        <v>1585200</v>
       </c>
       <c r="F41" s="3">
-        <v>1861300</v>
+        <v>1844700</v>
       </c>
       <c r="G41" s="3">
-        <v>1699400</v>
+        <v>1684200</v>
       </c>
       <c r="H41" s="3">
-        <v>1925600</v>
+        <v>1908500</v>
       </c>
       <c r="I41" s="3">
-        <v>3621800</v>
+        <v>3589500</v>
       </c>
       <c r="J41" s="3">
-        <v>55600</v>
+        <v>55100</v>
       </c>
       <c r="K41" s="3">
         <v>50600</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>939800</v>
+        <v>931400</v>
       </c>
       <c r="E42" s="3">
-        <v>1481700</v>
+        <v>1468400</v>
       </c>
       <c r="F42" s="3">
-        <v>1613700</v>
+        <v>1599300</v>
       </c>
       <c r="G42" s="3">
-        <v>1756200</v>
+        <v>1740500</v>
       </c>
       <c r="H42" s="3">
-        <v>2381500</v>
+        <v>2360200</v>
       </c>
       <c r="I42" s="3">
-        <v>719800</v>
+        <v>713400</v>
       </c>
       <c r="J42" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="K42" s="3">
         <v>15300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3994200</v>
+        <v>3958600</v>
       </c>
       <c r="E43" s="3">
-        <v>3755100</v>
+        <v>3721600</v>
       </c>
       <c r="F43" s="3">
-        <v>3128700</v>
+        <v>3100800</v>
       </c>
       <c r="G43" s="3">
-        <v>2614700</v>
+        <v>2591400</v>
       </c>
       <c r="H43" s="3">
-        <v>2515700</v>
+        <v>2493200</v>
       </c>
       <c r="I43" s="3">
-        <v>2308700</v>
+        <v>2288100</v>
       </c>
       <c r="J43" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="K43" s="3">
         <v>28600</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="E44" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="F44" s="3">
+        <v>14500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>15900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I44" s="3">
         <v>14700</v>
       </c>
-      <c r="G44" s="3">
-        <v>16000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>17600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>14800</v>
-      </c>
       <c r="J44" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K44" s="3">
         <v>2200</v>
@@ -1882,22 +1882,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>584100</v>
+        <v>578900</v>
       </c>
       <c r="E45" s="3">
-        <v>484700</v>
+        <v>480400</v>
       </c>
       <c r="F45" s="3">
-        <v>493600</v>
+        <v>489200</v>
       </c>
       <c r="G45" s="3">
-        <v>641000</v>
+        <v>635300</v>
       </c>
       <c r="H45" s="3">
-        <v>382900</v>
+        <v>379500</v>
       </c>
       <c r="I45" s="3">
-        <v>287800</v>
+        <v>285300</v>
       </c>
       <c r="J45" s="3">
         <v>1500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8168600</v>
+        <v>8095700</v>
       </c>
       <c r="E46" s="3">
-        <v>7340500</v>
+        <v>7275000</v>
       </c>
       <c r="F46" s="3">
-        <v>7112100</v>
+        <v>7048600</v>
       </c>
       <c r="G46" s="3">
-        <v>6727300</v>
+        <v>6667300</v>
       </c>
       <c r="H46" s="3">
-        <v>7223300</v>
+        <v>7158900</v>
       </c>
       <c r="I46" s="3">
-        <v>6953000</v>
+        <v>6890900</v>
       </c>
       <c r="J46" s="3">
-        <v>101600</v>
+        <v>100700</v>
       </c>
       <c r="K46" s="3">
         <v>98800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2562800</v>
+        <v>2539900</v>
       </c>
       <c r="E47" s="3">
-        <v>1394600</v>
+        <v>1382200</v>
       </c>
       <c r="F47" s="3">
-        <v>1607800</v>
+        <v>1593500</v>
       </c>
       <c r="G47" s="3">
-        <v>1787500</v>
+        <v>1771600</v>
       </c>
       <c r="H47" s="3">
-        <v>1640600</v>
+        <v>1626000</v>
       </c>
       <c r="I47" s="3">
-        <v>964200</v>
+        <v>955600</v>
       </c>
       <c r="J47" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="K47" s="3">
         <v>6400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2477100</v>
+        <v>2455000</v>
       </c>
       <c r="E48" s="3">
-        <v>2403100</v>
+        <v>2381700</v>
       </c>
       <c r="F48" s="3">
-        <v>1796400</v>
+        <v>1780400</v>
       </c>
       <c r="G48" s="3">
-        <v>1633200</v>
+        <v>1618700</v>
       </c>
       <c r="H48" s="3">
-        <v>1575800</v>
+        <v>1561700</v>
       </c>
       <c r="I48" s="3">
-        <v>1416300</v>
+        <v>1403600</v>
       </c>
       <c r="J48" s="3">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="K48" s="3">
         <v>18100</v>
@@ -2026,22 +2026,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1096300</v>
+        <v>1086500</v>
       </c>
       <c r="E49" s="3">
-        <v>966500</v>
+        <v>957900</v>
       </c>
       <c r="F49" s="3">
-        <v>569100</v>
+        <v>564000</v>
       </c>
       <c r="G49" s="3">
-        <v>330600</v>
+        <v>327700</v>
       </c>
       <c r="H49" s="3">
-        <v>595600</v>
+        <v>590300</v>
       </c>
       <c r="I49" s="3">
-        <v>638700</v>
+        <v>633000</v>
       </c>
       <c r="J49" s="3">
         <v>8000</v>
@@ -2134,22 +2134,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>273200</v>
+        <v>270700</v>
       </c>
       <c r="E52" s="3">
-        <v>372600</v>
+        <v>369200</v>
       </c>
       <c r="F52" s="3">
-        <v>311900</v>
+        <v>309100</v>
       </c>
       <c r="G52" s="3">
-        <v>266600</v>
+        <v>264200</v>
       </c>
       <c r="H52" s="3">
-        <v>175900</v>
+        <v>174400</v>
       </c>
       <c r="I52" s="3">
-        <v>167600</v>
+        <v>166100</v>
       </c>
       <c r="J52" s="3">
         <v>1600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14577900</v>
+        <v>14447900</v>
       </c>
       <c r="E54" s="3">
-        <v>12477300</v>
+        <v>12366000</v>
       </c>
       <c r="F54" s="3">
-        <v>11397300</v>
+        <v>11295600</v>
       </c>
       <c r="G54" s="3">
-        <v>10745200</v>
+        <v>10649300</v>
       </c>
       <c r="H54" s="3">
-        <v>11211200</v>
+        <v>11111200</v>
       </c>
       <c r="I54" s="3">
-        <v>10139800</v>
+        <v>10049400</v>
       </c>
       <c r="J54" s="3">
-        <v>142800</v>
+        <v>141500</v>
       </c>
       <c r="K54" s="3">
         <v>131000</v>
@@ -2274,22 +2274,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>355800</v>
+        <v>352600</v>
       </c>
       <c r="E57" s="3">
-        <v>383600</v>
+        <v>380200</v>
       </c>
       <c r="F57" s="3">
-        <v>222600</v>
+        <v>220600</v>
       </c>
       <c r="G57" s="3">
-        <v>93300</v>
+        <v>92500</v>
       </c>
       <c r="H57" s="3">
-        <v>49400</v>
+        <v>48900</v>
       </c>
       <c r="I57" s="3">
-        <v>51900</v>
+        <v>51500</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -2310,10 +2310,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>99300</v>
+        <v>98400</v>
       </c>
       <c r="E58" s="3">
-        <v>83300</v>
+        <v>82500</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2754800</v>
+        <v>2730300</v>
       </c>
       <c r="E59" s="3">
-        <v>2338300</v>
+        <v>2317400</v>
       </c>
       <c r="F59" s="3">
-        <v>2284200</v>
+        <v>2263800</v>
       </c>
       <c r="G59" s="3">
-        <v>1803800</v>
+        <v>1787700</v>
       </c>
       <c r="H59" s="3">
-        <v>1835400</v>
+        <v>1819000</v>
       </c>
       <c r="I59" s="3">
-        <v>1728700</v>
+        <v>1713300</v>
       </c>
       <c r="J59" s="3">
-        <v>24200</v>
+        <v>24000</v>
       </c>
       <c r="K59" s="3">
         <v>20600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3209800</v>
+        <v>3181200</v>
       </c>
       <c r="E60" s="3">
-        <v>2805100</v>
+        <v>2780100</v>
       </c>
       <c r="F60" s="3">
-        <v>2506800</v>
+        <v>2484400</v>
       </c>
       <c r="G60" s="3">
-        <v>1897100</v>
+        <v>1880200</v>
       </c>
       <c r="H60" s="3">
-        <v>1884700</v>
+        <v>1867900</v>
       </c>
       <c r="I60" s="3">
-        <v>1780600</v>
+        <v>1764800</v>
       </c>
       <c r="J60" s="3">
-        <v>24500</v>
+        <v>24300</v>
       </c>
       <c r="K60" s="3">
         <v>21000</v>
@@ -2418,10 +2418,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>617000</v>
+        <v>611400</v>
       </c>
       <c r="E61" s="3">
-        <v>539900</v>
+        <v>535100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>423900</v>
+        <v>420200</v>
       </c>
       <c r="E62" s="3">
-        <v>276300</v>
+        <v>273800</v>
       </c>
       <c r="F62" s="3">
-        <v>147100</v>
+        <v>145800</v>
       </c>
       <c r="G62" s="3">
-        <v>115800</v>
+        <v>114800</v>
       </c>
       <c r="H62" s="3">
-        <v>48400</v>
+        <v>48000</v>
       </c>
       <c r="I62" s="3">
-        <v>49900</v>
+        <v>49500</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4308700</v>
+        <v>4270300</v>
       </c>
       <c r="E66" s="3">
-        <v>3674300</v>
+        <v>3641500</v>
       </c>
       <c r="F66" s="3">
-        <v>2661800</v>
+        <v>2638000</v>
       </c>
       <c r="G66" s="3">
-        <v>2013100</v>
+        <v>1995100</v>
       </c>
       <c r="H66" s="3">
-        <v>1933200</v>
+        <v>1915900</v>
       </c>
       <c r="I66" s="3">
-        <v>1830500</v>
+        <v>1814200</v>
       </c>
       <c r="J66" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="K66" s="3">
         <v>21900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9669600</v>
+        <v>9583300</v>
       </c>
       <c r="E72" s="3">
-        <v>8296900</v>
+        <v>8222900</v>
       </c>
       <c r="F72" s="3">
-        <v>8268900</v>
+        <v>8195200</v>
       </c>
       <c r="G72" s="3">
-        <v>8457400</v>
+        <v>8381900</v>
       </c>
       <c r="H72" s="3">
-        <v>8750000</v>
+        <v>8672000</v>
       </c>
       <c r="I72" s="3">
-        <v>7754600</v>
+        <v>7685400</v>
       </c>
       <c r="J72" s="3">
-        <v>135700</v>
+        <v>134500</v>
       </c>
       <c r="K72" s="3">
         <v>122400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10269200</v>
+        <v>10177600</v>
       </c>
       <c r="E76" s="3">
-        <v>8803000</v>
+        <v>8724500</v>
       </c>
       <c r="F76" s="3">
-        <v>8735500</v>
+        <v>8657600</v>
       </c>
       <c r="G76" s="3">
-        <v>8732100</v>
+        <v>8654200</v>
       </c>
       <c r="H76" s="3">
-        <v>9278100</v>
+        <v>9195300</v>
       </c>
       <c r="I76" s="3">
-        <v>8309300</v>
+        <v>8235100</v>
       </c>
       <c r="J76" s="3">
-        <v>117800</v>
+        <v>116800</v>
       </c>
       <c r="K76" s="3">
         <v>109200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2602700</v>
+        <v>2579500</v>
       </c>
       <c r="E81" s="3">
-        <v>2231900</v>
+        <v>2212000</v>
       </c>
       <c r="F81" s="3">
-        <v>2071800</v>
+        <v>2053400</v>
       </c>
       <c r="G81" s="3">
-        <v>2155900</v>
+        <v>2136700</v>
       </c>
       <c r="H81" s="3">
-        <v>1930500</v>
+        <v>1913300</v>
       </c>
       <c r="I81" s="3">
-        <v>1814500</v>
+        <v>1798400</v>
       </c>
       <c r="J81" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="K81" s="3">
         <v>24100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>439400</v>
+        <v>435500</v>
       </c>
       <c r="E83" s="3">
-        <v>389100</v>
+        <v>385600</v>
       </c>
       <c r="F83" s="3">
-        <v>270500</v>
+        <v>268100</v>
       </c>
       <c r="G83" s="3">
-        <v>250600</v>
+        <v>248300</v>
       </c>
       <c r="H83" s="3">
-        <v>229100</v>
+        <v>227000</v>
       </c>
       <c r="I83" s="3">
-        <v>196200</v>
+        <v>194500</v>
       </c>
       <c r="J83" s="3">
-        <v>143800</v>
+        <v>142500</v>
       </c>
       <c r="K83" s="3">
         <v>189100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3245100</v>
+        <v>3216100</v>
       </c>
       <c r="E89" s="3">
-        <v>2495900</v>
+        <v>2473600</v>
       </c>
       <c r="F89" s="3">
-        <v>2131000</v>
+        <v>2112000</v>
       </c>
       <c r="G89" s="3">
-        <v>1958200</v>
+        <v>1940700</v>
       </c>
       <c r="H89" s="3">
-        <v>1891500</v>
+        <v>1874600</v>
       </c>
       <c r="I89" s="3">
-        <v>1646700</v>
+        <v>1632000</v>
       </c>
       <c r="J89" s="3">
-        <v>1446100</v>
+        <v>1433200</v>
       </c>
       <c r="K89" s="3">
         <v>1676900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-283400</v>
+        <v>-280900</v>
       </c>
       <c r="E91" s="3">
-        <v>-444800</v>
+        <v>-440800</v>
       </c>
       <c r="F91" s="3">
-        <v>-328900</v>
+        <v>-325900</v>
       </c>
       <c r="G91" s="3">
-        <v>-268700</v>
+        <v>-266300</v>
       </c>
       <c r="H91" s="3">
-        <v>-371200</v>
+        <v>-367900</v>
       </c>
       <c r="I91" s="3">
-        <v>-366200</v>
+        <v>-363000</v>
       </c>
       <c r="J91" s="3">
-        <v>-302200</v>
+        <v>-299500</v>
       </c>
       <c r="K91" s="3">
         <v>-377700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1124300</v>
+        <v>-1114300</v>
       </c>
       <c r="E94" s="3">
-        <v>-241200</v>
+        <v>-239000</v>
       </c>
       <c r="F94" s="3">
-        <v>-212200</v>
+        <v>-210300</v>
       </c>
       <c r="G94" s="3">
-        <v>418400</v>
+        <v>414700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2296500</v>
+        <v>-2276000</v>
       </c>
       <c r="I94" s="3">
-        <v>-419100</v>
+        <v>-415400</v>
       </c>
       <c r="J94" s="3">
-        <v>-172000</v>
+        <v>-170500</v>
       </c>
       <c r="K94" s="3">
         <v>-688400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1226200</v>
+        <v>-1215300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1279800</v>
+        <v>-1268300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1843300</v>
+        <v>-1826900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1003900</v>
+        <v>-995000</v>
       </c>
       <c r="H96" s="3">
-        <v>-933300</v>
+        <v>-925000</v>
       </c>
       <c r="I96" s="3">
-        <v>-916300</v>
+        <v>-908200</v>
       </c>
       <c r="J96" s="3">
-        <v>-663800</v>
+        <v>-657800</v>
       </c>
       <c r="K96" s="3">
         <v>-369600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1316200</v>
+        <v>-1304500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2366000</v>
+        <v>-2344900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1951900</v>
+        <v>-1934400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2757900</v>
+        <v>-2733300</v>
       </c>
       <c r="H100" s="3">
-        <v>-933300</v>
+        <v>-925000</v>
       </c>
       <c r="I100" s="3">
-        <v>-916300</v>
+        <v>-908200</v>
       </c>
       <c r="J100" s="3">
-        <v>-663800</v>
+        <v>-657800</v>
       </c>
       <c r="K100" s="3">
         <v>-432500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="E101" s="3">
-        <v>-12400</v>
+        <v>-12300</v>
       </c>
       <c r="F101" s="3">
-        <v>-7700</v>
+        <v>-7600</v>
       </c>
       <c r="G101" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="H101" s="3">
-        <v>-16400</v>
+        <v>-16300</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J101" s="3">
-        <v>-16300</v>
+        <v>-16100</v>
       </c>
       <c r="K101" s="3">
         <v>10600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>815700</v>
+        <v>808500</v>
       </c>
       <c r="E102" s="3">
-        <v>-123600</v>
+        <v>-122500</v>
       </c>
       <c r="F102" s="3">
-        <v>-40800</v>
+        <v>-40400</v>
       </c>
       <c r="G102" s="3">
-        <v>-370400</v>
+        <v>-367100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1354700</v>
+        <v>-1342600</v>
       </c>
       <c r="I102" s="3">
-        <v>313400</v>
+        <v>310600</v>
       </c>
       <c r="J102" s="3">
-        <v>594100</v>
+        <v>588800</v>
       </c>
       <c r="K102" s="3">
         <v>566600</v>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13392900</v>
+        <v>13131700</v>
       </c>
       <c r="E8" s="3">
-        <v>12102400</v>
+        <v>11866400</v>
       </c>
       <c r="F8" s="3">
-        <v>11020600</v>
+        <v>10805600</v>
       </c>
       <c r="G8" s="3">
-        <v>9400600</v>
+        <v>9217200</v>
       </c>
       <c r="H8" s="3">
-        <v>9128900</v>
+        <v>8950900</v>
       </c>
       <c r="I8" s="3">
-        <v>8323400</v>
+        <v>8161000</v>
       </c>
       <c r="J8" s="3">
-        <v>116100</v>
+        <v>113900</v>
       </c>
       <c r="K8" s="3">
         <v>113500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8719600</v>
+        <v>8549500</v>
       </c>
       <c r="E9" s="3">
-        <v>8095600</v>
+        <v>7937700</v>
       </c>
       <c r="F9" s="3">
-        <v>7180500</v>
+        <v>7040400</v>
       </c>
       <c r="G9" s="3">
-        <v>6015800</v>
+        <v>5898500</v>
       </c>
       <c r="H9" s="3">
-        <v>5765600</v>
+        <v>5653200</v>
       </c>
       <c r="I9" s="3">
-        <v>5191900</v>
+        <v>5090600</v>
       </c>
       <c r="J9" s="3">
-        <v>71100</v>
+        <v>69700</v>
       </c>
       <c r="K9" s="3">
         <v>72400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4673400</v>
+        <v>4582200</v>
       </c>
       <c r="E10" s="3">
-        <v>4006900</v>
+        <v>3928700</v>
       </c>
       <c r="F10" s="3">
-        <v>3840100</v>
+        <v>3765200</v>
       </c>
       <c r="G10" s="3">
-        <v>3384800</v>
+        <v>3318700</v>
       </c>
       <c r="H10" s="3">
-        <v>3363300</v>
+        <v>3297700</v>
       </c>
       <c r="I10" s="3">
-        <v>3131500</v>
+        <v>3070400</v>
       </c>
       <c r="J10" s="3">
-        <v>45000</v>
+        <v>44200</v>
       </c>
       <c r="K10" s="3">
         <v>41100</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>25300</v>
+        <v>24800</v>
       </c>
       <c r="E14" s="3">
-        <v>22900</v>
+        <v>22500</v>
       </c>
       <c r="F14" s="3">
-        <v>129200</v>
+        <v>126600</v>
       </c>
       <c r="G14" s="3">
-        <v>25200</v>
+        <v>24700</v>
       </c>
       <c r="H14" s="3">
-        <v>18700</v>
+        <v>18300</v>
       </c>
       <c r="I14" s="3">
-        <v>19900</v>
+        <v>19500</v>
       </c>
       <c r="J14" s="3">
         <v>500</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10110800</v>
+        <v>9913600</v>
       </c>
       <c r="E17" s="3">
-        <v>9519900</v>
+        <v>9334200</v>
       </c>
       <c r="F17" s="3">
-        <v>8600000</v>
+        <v>8432200</v>
       </c>
       <c r="G17" s="3">
-        <v>7130500</v>
+        <v>6991400</v>
       </c>
       <c r="H17" s="3">
-        <v>6876000</v>
+        <v>6741900</v>
       </c>
       <c r="I17" s="3">
-        <v>6241200</v>
+        <v>6119500</v>
       </c>
       <c r="J17" s="3">
-        <v>86000</v>
+        <v>84300</v>
       </c>
       <c r="K17" s="3">
         <v>86300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3282100</v>
+        <v>3218100</v>
       </c>
       <c r="E18" s="3">
-        <v>2582600</v>
+        <v>2532200</v>
       </c>
       <c r="F18" s="3">
-        <v>2420600</v>
+        <v>2373400</v>
       </c>
       <c r="G18" s="3">
-        <v>2270100</v>
+        <v>2225800</v>
       </c>
       <c r="H18" s="3">
-        <v>2252900</v>
+        <v>2209000</v>
       </c>
       <c r="I18" s="3">
-        <v>2082100</v>
+        <v>2041500</v>
       </c>
       <c r="J18" s="3">
-        <v>30100</v>
+        <v>29500</v>
       </c>
       <c r="K18" s="3">
         <v>27200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>290900</v>
+        <v>285200</v>
       </c>
       <c r="E20" s="3">
-        <v>373600</v>
+        <v>366400</v>
       </c>
       <c r="F20" s="3">
-        <v>384200</v>
+        <v>376700</v>
       </c>
       <c r="G20" s="3">
-        <v>431900</v>
+        <v>423500</v>
       </c>
       <c r="H20" s="3">
-        <v>406600</v>
+        <v>398600</v>
       </c>
       <c r="I20" s="3">
-        <v>416200</v>
+        <v>408000</v>
       </c>
       <c r="J20" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="K20" s="3">
         <v>6100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4008500</v>
+        <v>3931300</v>
       </c>
       <c r="E21" s="3">
-        <v>3341800</v>
+        <v>3277500</v>
       </c>
       <c r="F21" s="3">
-        <v>3072800</v>
+        <v>3013500</v>
       </c>
       <c r="G21" s="3">
-        <v>2950300</v>
+        <v>2893300</v>
       </c>
       <c r="H21" s="3">
-        <v>2886500</v>
+        <v>2830700</v>
       </c>
       <c r="I21" s="3">
-        <v>2692800</v>
+        <v>2640700</v>
       </c>
       <c r="J21" s="3">
-        <v>180100</v>
+        <v>176900</v>
       </c>
       <c r="K21" s="3">
         <v>222600</v>
@@ -1161,10 +1161,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23500</v>
+        <v>23000</v>
       </c>
       <c r="E22" s="3">
-        <v>22700</v>
+        <v>22200</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3549500</v>
+        <v>3480300</v>
       </c>
       <c r="E23" s="3">
-        <v>2933500</v>
+        <v>2876300</v>
       </c>
       <c r="F23" s="3">
-        <v>2804800</v>
+        <v>2750100</v>
       </c>
       <c r="G23" s="3">
-        <v>2702000</v>
+        <v>2649300</v>
       </c>
       <c r="H23" s="3">
-        <v>2659500</v>
+        <v>2607600</v>
       </c>
       <c r="I23" s="3">
-        <v>2498300</v>
+        <v>2449600</v>
       </c>
       <c r="J23" s="3">
-        <v>37600</v>
+        <v>36800</v>
       </c>
       <c r="K23" s="3">
         <v>33300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>960400</v>
+        <v>941700</v>
       </c>
       <c r="E24" s="3">
-        <v>715600</v>
+        <v>701600</v>
       </c>
       <c r="F24" s="3">
-        <v>750600</v>
+        <v>736000</v>
       </c>
       <c r="G24" s="3">
-        <v>565300</v>
+        <v>554300</v>
       </c>
       <c r="H24" s="3">
-        <v>746200</v>
+        <v>731700</v>
       </c>
       <c r="I24" s="3">
-        <v>700000</v>
+        <v>686300</v>
       </c>
       <c r="J24" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="K24" s="3">
         <v>9200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2589100</v>
+        <v>2538600</v>
       </c>
       <c r="E26" s="3">
-        <v>2218000</v>
+        <v>2174700</v>
       </c>
       <c r="F26" s="3">
-        <v>2054200</v>
+        <v>2014100</v>
       </c>
       <c r="G26" s="3">
-        <v>2136700</v>
+        <v>2095000</v>
       </c>
       <c r="H26" s="3">
-        <v>1913300</v>
+        <v>1875900</v>
       </c>
       <c r="I26" s="3">
-        <v>1798400</v>
+        <v>1763300</v>
       </c>
       <c r="J26" s="3">
-        <v>26800</v>
+        <v>26300</v>
       </c>
       <c r="K26" s="3">
         <v>24100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2579500</v>
+        <v>2529200</v>
       </c>
       <c r="E27" s="3">
-        <v>2212000</v>
+        <v>2168800</v>
       </c>
       <c r="F27" s="3">
-        <v>2053400</v>
+        <v>2013300</v>
       </c>
       <c r="G27" s="3">
-        <v>2136700</v>
+        <v>2095000</v>
       </c>
       <c r="H27" s="3">
-        <v>1913300</v>
+        <v>1875900</v>
       </c>
       <c r="I27" s="3">
-        <v>1798400</v>
+        <v>1763300</v>
       </c>
       <c r="J27" s="3">
-        <v>26800</v>
+        <v>26300</v>
       </c>
       <c r="K27" s="3">
         <v>24100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-290900</v>
+        <v>-285200</v>
       </c>
       <c r="E32" s="3">
-        <v>-373600</v>
+        <v>-366400</v>
       </c>
       <c r="F32" s="3">
-        <v>-384200</v>
+        <v>-376700</v>
       </c>
       <c r="G32" s="3">
-        <v>-431900</v>
+        <v>-423500</v>
       </c>
       <c r="H32" s="3">
-        <v>-406600</v>
+        <v>-398600</v>
       </c>
       <c r="I32" s="3">
-        <v>-416200</v>
+        <v>-408000</v>
       </c>
       <c r="J32" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="K32" s="3">
         <v>-6100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2579500</v>
+        <v>2529200</v>
       </c>
       <c r="E33" s="3">
-        <v>2212000</v>
+        <v>2168800</v>
       </c>
       <c r="F33" s="3">
-        <v>2053400</v>
+        <v>2013300</v>
       </c>
       <c r="G33" s="3">
-        <v>2136700</v>
+        <v>2095000</v>
       </c>
       <c r="H33" s="3">
-        <v>1913300</v>
+        <v>1875900</v>
       </c>
       <c r="I33" s="3">
-        <v>1798400</v>
+        <v>1763300</v>
       </c>
       <c r="J33" s="3">
-        <v>26800</v>
+        <v>26300</v>
       </c>
       <c r="K33" s="3">
         <v>24100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2579500</v>
+        <v>2529200</v>
       </c>
       <c r="E35" s="3">
-        <v>2212000</v>
+        <v>2168800</v>
       </c>
       <c r="F35" s="3">
-        <v>2053400</v>
+        <v>2013300</v>
       </c>
       <c r="G35" s="3">
-        <v>2136700</v>
+        <v>2095000</v>
       </c>
       <c r="H35" s="3">
-        <v>1913300</v>
+        <v>1875900</v>
       </c>
       <c r="I35" s="3">
-        <v>1798400</v>
+        <v>1763300</v>
       </c>
       <c r="J35" s="3">
-        <v>26800</v>
+        <v>26300</v>
       </c>
       <c r="K35" s="3">
         <v>24100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2608000</v>
+        <v>2557100</v>
       </c>
       <c r="E41" s="3">
-        <v>1585200</v>
+        <v>1554300</v>
       </c>
       <c r="F41" s="3">
-        <v>1844700</v>
+        <v>1808800</v>
       </c>
       <c r="G41" s="3">
-        <v>1684200</v>
+        <v>1651400</v>
       </c>
       <c r="H41" s="3">
-        <v>1908500</v>
+        <v>1871200</v>
       </c>
       <c r="I41" s="3">
-        <v>3589500</v>
+        <v>3519500</v>
       </c>
       <c r="J41" s="3">
-        <v>55100</v>
+        <v>54000</v>
       </c>
       <c r="K41" s="3">
         <v>50600</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>931400</v>
+        <v>913200</v>
       </c>
       <c r="E42" s="3">
-        <v>1468400</v>
+        <v>1439800</v>
       </c>
       <c r="F42" s="3">
-        <v>1599300</v>
+        <v>1568100</v>
       </c>
       <c r="G42" s="3">
-        <v>1740500</v>
+        <v>1706500</v>
       </c>
       <c r="H42" s="3">
-        <v>2360200</v>
+        <v>2314200</v>
       </c>
       <c r="I42" s="3">
-        <v>713400</v>
+        <v>699500</v>
       </c>
       <c r="J42" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="K42" s="3">
         <v>15300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3958600</v>
+        <v>3881400</v>
       </c>
       <c r="E43" s="3">
-        <v>3721600</v>
+        <v>3649000</v>
       </c>
       <c r="F43" s="3">
-        <v>3100800</v>
+        <v>3040300</v>
       </c>
       <c r="G43" s="3">
-        <v>2591400</v>
+        <v>2540800</v>
       </c>
       <c r="H43" s="3">
-        <v>2493200</v>
+        <v>2444600</v>
       </c>
       <c r="I43" s="3">
-        <v>2288100</v>
+        <v>2243500</v>
       </c>
       <c r="J43" s="3">
-        <v>31000</v>
+        <v>30400</v>
       </c>
       <c r="K43" s="3">
         <v>28600</v>
@@ -1846,22 +1846,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18800</v>
+        <v>18400</v>
       </c>
       <c r="E44" s="3">
-        <v>19300</v>
+        <v>19000</v>
       </c>
       <c r="F44" s="3">
-        <v>14500</v>
+        <v>14200</v>
       </c>
       <c r="G44" s="3">
-        <v>15900</v>
+        <v>15600</v>
       </c>
       <c r="H44" s="3">
-        <v>17500</v>
+        <v>17100</v>
       </c>
       <c r="I44" s="3">
-        <v>14700</v>
+        <v>14400</v>
       </c>
       <c r="J44" s="3">
         <v>2300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>578900</v>
+        <v>567600</v>
       </c>
       <c r="E45" s="3">
-        <v>480400</v>
+        <v>471000</v>
       </c>
       <c r="F45" s="3">
-        <v>489200</v>
+        <v>479700</v>
       </c>
       <c r="G45" s="3">
-        <v>635300</v>
+        <v>622900</v>
       </c>
       <c r="H45" s="3">
-        <v>379500</v>
+        <v>372100</v>
       </c>
       <c r="I45" s="3">
-        <v>285300</v>
+        <v>279700</v>
       </c>
       <c r="J45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K45" s="3">
         <v>2100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8095700</v>
+        <v>7937800</v>
       </c>
       <c r="E46" s="3">
-        <v>7275000</v>
+        <v>7133100</v>
       </c>
       <c r="F46" s="3">
-        <v>7048600</v>
+        <v>6911200</v>
       </c>
       <c r="G46" s="3">
-        <v>6667300</v>
+        <v>6537200</v>
       </c>
       <c r="H46" s="3">
-        <v>7158900</v>
+        <v>7019200</v>
       </c>
       <c r="I46" s="3">
-        <v>6890900</v>
+        <v>6756500</v>
       </c>
       <c r="J46" s="3">
-        <v>100700</v>
+        <v>98700</v>
       </c>
       <c r="K46" s="3">
         <v>98800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2539900</v>
+        <v>2490400</v>
       </c>
       <c r="E47" s="3">
-        <v>1382200</v>
+        <v>1355200</v>
       </c>
       <c r="F47" s="3">
-        <v>1593500</v>
+        <v>1562400</v>
       </c>
       <c r="G47" s="3">
-        <v>1771600</v>
+        <v>1737000</v>
       </c>
       <c r="H47" s="3">
-        <v>1626000</v>
+        <v>1594300</v>
       </c>
       <c r="I47" s="3">
-        <v>955600</v>
+        <v>937000</v>
       </c>
       <c r="J47" s="3">
-        <v>11900</v>
+        <v>11600</v>
       </c>
       <c r="K47" s="3">
         <v>6400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2455000</v>
+        <v>2407100</v>
       </c>
       <c r="E48" s="3">
-        <v>2381700</v>
+        <v>2335200</v>
       </c>
       <c r="F48" s="3">
-        <v>1780400</v>
+        <v>1745600</v>
       </c>
       <c r="G48" s="3">
-        <v>1618700</v>
+        <v>1587100</v>
       </c>
       <c r="H48" s="3">
-        <v>1561700</v>
+        <v>1531300</v>
       </c>
       <c r="I48" s="3">
-        <v>1403600</v>
+        <v>1376300</v>
       </c>
       <c r="J48" s="3">
-        <v>19500</v>
+        <v>19100</v>
       </c>
       <c r="K48" s="3">
         <v>18100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1086500</v>
+        <v>1065300</v>
       </c>
       <c r="E49" s="3">
-        <v>957900</v>
+        <v>939200</v>
       </c>
       <c r="F49" s="3">
-        <v>564000</v>
+        <v>553000</v>
       </c>
       <c r="G49" s="3">
-        <v>327700</v>
+        <v>321300</v>
       </c>
       <c r="H49" s="3">
-        <v>590300</v>
+        <v>578700</v>
       </c>
       <c r="I49" s="3">
-        <v>633000</v>
+        <v>620700</v>
       </c>
       <c r="J49" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="K49" s="3">
         <v>5700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>270700</v>
+        <v>265500</v>
       </c>
       <c r="E52" s="3">
-        <v>369200</v>
+        <v>362000</v>
       </c>
       <c r="F52" s="3">
-        <v>309100</v>
+        <v>303100</v>
       </c>
       <c r="G52" s="3">
-        <v>264200</v>
+        <v>259000</v>
       </c>
       <c r="H52" s="3">
-        <v>174400</v>
+        <v>171000</v>
       </c>
       <c r="I52" s="3">
-        <v>166100</v>
+        <v>162900</v>
       </c>
       <c r="J52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K52" s="3">
         <v>1900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14447900</v>
+        <v>14166100</v>
       </c>
       <c r="E54" s="3">
-        <v>12366000</v>
+        <v>12124800</v>
       </c>
       <c r="F54" s="3">
-        <v>11295600</v>
+        <v>11075300</v>
       </c>
       <c r="G54" s="3">
-        <v>10649300</v>
+        <v>10441600</v>
       </c>
       <c r="H54" s="3">
-        <v>11111200</v>
+        <v>10894500</v>
       </c>
       <c r="I54" s="3">
-        <v>10049400</v>
+        <v>9853300</v>
       </c>
       <c r="J54" s="3">
-        <v>141500</v>
+        <v>138700</v>
       </c>
       <c r="K54" s="3">
         <v>131000</v>
@@ -2274,22 +2274,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>352600</v>
+        <v>345700</v>
       </c>
       <c r="E57" s="3">
-        <v>380200</v>
+        <v>372800</v>
       </c>
       <c r="F57" s="3">
-        <v>220600</v>
+        <v>216300</v>
       </c>
       <c r="G57" s="3">
-        <v>92500</v>
+        <v>90700</v>
       </c>
       <c r="H57" s="3">
-        <v>48900</v>
+        <v>48000</v>
       </c>
       <c r="I57" s="3">
-        <v>51500</v>
+        <v>50500</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -2310,10 +2310,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>98400</v>
+        <v>96500</v>
       </c>
       <c r="E58" s="3">
-        <v>82500</v>
+        <v>80900</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2730300</v>
+        <v>2677000</v>
       </c>
       <c r="E59" s="3">
-        <v>2317400</v>
+        <v>2272200</v>
       </c>
       <c r="F59" s="3">
-        <v>2263800</v>
+        <v>2219700</v>
       </c>
       <c r="G59" s="3">
-        <v>1787700</v>
+        <v>1752800</v>
       </c>
       <c r="H59" s="3">
-        <v>1819000</v>
+        <v>1783500</v>
       </c>
       <c r="I59" s="3">
-        <v>1713300</v>
+        <v>1679900</v>
       </c>
       <c r="J59" s="3">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="K59" s="3">
         <v>20600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3181200</v>
+        <v>3119200</v>
       </c>
       <c r="E60" s="3">
-        <v>2780100</v>
+        <v>2725900</v>
       </c>
       <c r="F60" s="3">
-        <v>2484400</v>
+        <v>2436000</v>
       </c>
       <c r="G60" s="3">
-        <v>1880200</v>
+        <v>1843500</v>
       </c>
       <c r="H60" s="3">
-        <v>1867900</v>
+        <v>1831500</v>
       </c>
       <c r="I60" s="3">
-        <v>1764800</v>
+        <v>1730300</v>
       </c>
       <c r="J60" s="3">
-        <v>24300</v>
+        <v>23800</v>
       </c>
       <c r="K60" s="3">
         <v>21000</v>
@@ -2418,10 +2418,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>611400</v>
+        <v>599500</v>
       </c>
       <c r="E61" s="3">
-        <v>535100</v>
+        <v>524600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>420200</v>
+        <v>412000</v>
       </c>
       <c r="E62" s="3">
-        <v>273800</v>
+        <v>268500</v>
       </c>
       <c r="F62" s="3">
-        <v>145800</v>
+        <v>143000</v>
       </c>
       <c r="G62" s="3">
-        <v>114800</v>
+        <v>112500</v>
       </c>
       <c r="H62" s="3">
-        <v>48000</v>
+        <v>47100</v>
       </c>
       <c r="I62" s="3">
-        <v>49500</v>
+        <v>48500</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4270300</v>
+        <v>4187000</v>
       </c>
       <c r="E66" s="3">
-        <v>3641500</v>
+        <v>3570500</v>
       </c>
       <c r="F66" s="3">
-        <v>2638000</v>
+        <v>2586600</v>
       </c>
       <c r="G66" s="3">
-        <v>1995100</v>
+        <v>1956200</v>
       </c>
       <c r="H66" s="3">
-        <v>1915900</v>
+        <v>1878600</v>
       </c>
       <c r="I66" s="3">
-        <v>1814200</v>
+        <v>1778800</v>
       </c>
       <c r="J66" s="3">
-        <v>24700</v>
+        <v>24200</v>
       </c>
       <c r="K66" s="3">
         <v>21900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9583300</v>
+        <v>9396400</v>
       </c>
       <c r="E72" s="3">
-        <v>8222900</v>
+        <v>8062500</v>
       </c>
       <c r="F72" s="3">
-        <v>8195200</v>
+        <v>8035300</v>
       </c>
       <c r="G72" s="3">
-        <v>8381900</v>
+        <v>8218400</v>
       </c>
       <c r="H72" s="3">
-        <v>8672000</v>
+        <v>8502800</v>
       </c>
       <c r="I72" s="3">
-        <v>7685400</v>
+        <v>7535500</v>
       </c>
       <c r="J72" s="3">
-        <v>134500</v>
+        <v>131900</v>
       </c>
       <c r="K72" s="3">
         <v>122400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10177600</v>
+        <v>9979100</v>
       </c>
       <c r="E76" s="3">
-        <v>8724500</v>
+        <v>8554300</v>
       </c>
       <c r="F76" s="3">
-        <v>8657600</v>
+        <v>8488700</v>
       </c>
       <c r="G76" s="3">
-        <v>8654200</v>
+        <v>8485400</v>
       </c>
       <c r="H76" s="3">
-        <v>9195300</v>
+        <v>9015900</v>
       </c>
       <c r="I76" s="3">
-        <v>8235100</v>
+        <v>8074500</v>
       </c>
       <c r="J76" s="3">
-        <v>116800</v>
+        <v>114500</v>
       </c>
       <c r="K76" s="3">
         <v>109200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2579500</v>
+        <v>2529200</v>
       </c>
       <c r="E81" s="3">
-        <v>2212000</v>
+        <v>2168800</v>
       </c>
       <c r="F81" s="3">
-        <v>2053400</v>
+        <v>2013300</v>
       </c>
       <c r="G81" s="3">
-        <v>2136700</v>
+        <v>2095000</v>
       </c>
       <c r="H81" s="3">
-        <v>1913300</v>
+        <v>1875900</v>
       </c>
       <c r="I81" s="3">
-        <v>1798400</v>
+        <v>1763300</v>
       </c>
       <c r="J81" s="3">
-        <v>26800</v>
+        <v>26300</v>
       </c>
       <c r="K81" s="3">
         <v>24100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>435500</v>
+        <v>427000</v>
       </c>
       <c r="E83" s="3">
-        <v>385600</v>
+        <v>378100</v>
       </c>
       <c r="F83" s="3">
-        <v>268100</v>
+        <v>262800</v>
       </c>
       <c r="G83" s="3">
-        <v>248300</v>
+        <v>243500</v>
       </c>
       <c r="H83" s="3">
-        <v>227000</v>
+        <v>222600</v>
       </c>
       <c r="I83" s="3">
-        <v>194500</v>
+        <v>190700</v>
       </c>
       <c r="J83" s="3">
-        <v>142500</v>
+        <v>139700</v>
       </c>
       <c r="K83" s="3">
         <v>189100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3216100</v>
+        <v>3153400</v>
       </c>
       <c r="E89" s="3">
-        <v>2473600</v>
+        <v>2425400</v>
       </c>
       <c r="F89" s="3">
-        <v>2112000</v>
+        <v>2070800</v>
       </c>
       <c r="G89" s="3">
-        <v>1940700</v>
+        <v>1902900</v>
       </c>
       <c r="H89" s="3">
-        <v>1874600</v>
+        <v>1838000</v>
       </c>
       <c r="I89" s="3">
-        <v>1632000</v>
+        <v>1600200</v>
       </c>
       <c r="J89" s="3">
-        <v>1433200</v>
+        <v>1405300</v>
       </c>
       <c r="K89" s="3">
         <v>1676900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-280900</v>
+        <v>-275400</v>
       </c>
       <c r="E91" s="3">
-        <v>-440800</v>
+        <v>-432200</v>
       </c>
       <c r="F91" s="3">
-        <v>-325900</v>
+        <v>-319600</v>
       </c>
       <c r="G91" s="3">
-        <v>-266300</v>
+        <v>-261100</v>
       </c>
       <c r="H91" s="3">
-        <v>-367900</v>
+        <v>-360700</v>
       </c>
       <c r="I91" s="3">
-        <v>-363000</v>
+        <v>-355900</v>
       </c>
       <c r="J91" s="3">
-        <v>-299500</v>
+        <v>-293700</v>
       </c>
       <c r="K91" s="3">
         <v>-377700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1114300</v>
+        <v>-1092500</v>
       </c>
       <c r="E94" s="3">
-        <v>-239000</v>
+        <v>-234300</v>
       </c>
       <c r="F94" s="3">
-        <v>-210300</v>
+        <v>-206200</v>
       </c>
       <c r="G94" s="3">
-        <v>414700</v>
+        <v>406600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2276000</v>
+        <v>-2231600</v>
       </c>
       <c r="I94" s="3">
-        <v>-415400</v>
+        <v>-407300</v>
       </c>
       <c r="J94" s="3">
-        <v>-170500</v>
+        <v>-167200</v>
       </c>
       <c r="K94" s="3">
         <v>-688400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1215300</v>
+        <v>-1191600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1268300</v>
+        <v>-1243600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1826900</v>
+        <v>-1791200</v>
       </c>
       <c r="G96" s="3">
-        <v>-995000</v>
+        <v>-975500</v>
       </c>
       <c r="H96" s="3">
-        <v>-925000</v>
+        <v>-906900</v>
       </c>
       <c r="I96" s="3">
-        <v>-908200</v>
+        <v>-890500</v>
       </c>
       <c r="J96" s="3">
-        <v>-657800</v>
+        <v>-645000</v>
       </c>
       <c r="K96" s="3">
         <v>-369600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1304500</v>
+        <v>-1279000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2344900</v>
+        <v>-2299100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1934400</v>
+        <v>-1896700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2733300</v>
+        <v>-2680000</v>
       </c>
       <c r="H100" s="3">
-        <v>-925000</v>
+        <v>-906900</v>
       </c>
       <c r="I100" s="3">
-        <v>-908200</v>
+        <v>-890500</v>
       </c>
       <c r="J100" s="3">
-        <v>-657800</v>
+        <v>-645000</v>
       </c>
       <c r="K100" s="3">
         <v>-432500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="E101" s="3">
-        <v>-12300</v>
+        <v>-12000</v>
       </c>
       <c r="F101" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="G101" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="H101" s="3">
-        <v>-16300</v>
+        <v>-15900</v>
       </c>
       <c r="I101" s="3">
         <v>2100</v>
       </c>
       <c r="J101" s="3">
-        <v>-16100</v>
+        <v>-15800</v>
       </c>
       <c r="K101" s="3">
         <v>10600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>808500</v>
+        <v>792700</v>
       </c>
       <c r="E102" s="3">
-        <v>-122500</v>
+        <v>-120100</v>
       </c>
       <c r="F102" s="3">
-        <v>-40400</v>
+        <v>-39600</v>
       </c>
       <c r="G102" s="3">
-        <v>-367100</v>
+        <v>-359900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1342600</v>
+        <v>-1316400</v>
       </c>
       <c r="I102" s="3">
-        <v>310600</v>
+        <v>304500</v>
       </c>
       <c r="J102" s="3">
-        <v>588800</v>
+        <v>577300</v>
       </c>
       <c r="K102" s="3">
         <v>566600</v>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>INFY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13131700</v>
+        <v>12981000</v>
       </c>
       <c r="E8" s="3">
-        <v>11866400</v>
+        <v>11730200</v>
       </c>
       <c r="F8" s="3">
-        <v>10805600</v>
+        <v>10681600</v>
       </c>
       <c r="G8" s="3">
-        <v>9217200</v>
+        <v>9111400</v>
       </c>
       <c r="H8" s="3">
-        <v>8950900</v>
+        <v>8848100</v>
       </c>
       <c r="I8" s="3">
-        <v>8161000</v>
+        <v>8067400</v>
       </c>
       <c r="J8" s="3">
-        <v>113900</v>
+        <v>112500</v>
       </c>
       <c r="K8" s="3">
         <v>113500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8549500</v>
+        <v>8451400</v>
       </c>
       <c r="E9" s="3">
-        <v>7937700</v>
+        <v>7846600</v>
       </c>
       <c r="F9" s="3">
-        <v>7040400</v>
+        <v>6959600</v>
       </c>
       <c r="G9" s="3">
-        <v>5898500</v>
+        <v>5830800</v>
       </c>
       <c r="H9" s="3">
-        <v>5653200</v>
+        <v>5588300</v>
       </c>
       <c r="I9" s="3">
-        <v>5090600</v>
+        <v>5032200</v>
       </c>
       <c r="J9" s="3">
-        <v>69700</v>
+        <v>68900</v>
       </c>
       <c r="K9" s="3">
         <v>72400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4582200</v>
+        <v>4529600</v>
       </c>
       <c r="E10" s="3">
-        <v>3928700</v>
+        <v>3883600</v>
       </c>
       <c r="F10" s="3">
-        <v>3765200</v>
+        <v>3722000</v>
       </c>
       <c r="G10" s="3">
-        <v>3318700</v>
+        <v>3280600</v>
       </c>
       <c r="H10" s="3">
-        <v>3297700</v>
+        <v>3259800</v>
       </c>
       <c r="I10" s="3">
-        <v>3070400</v>
+        <v>3035200</v>
       </c>
       <c r="J10" s="3">
-        <v>44200</v>
+        <v>43600</v>
       </c>
       <c r="K10" s="3">
         <v>41100</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24800</v>
+        <v>24500</v>
       </c>
       <c r="E14" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="F14" s="3">
-        <v>126600</v>
+        <v>125200</v>
       </c>
       <c r="G14" s="3">
-        <v>24700</v>
+        <v>24400</v>
       </c>
       <c r="H14" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="I14" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="J14" s="3">
         <v>500</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9913600</v>
+        <v>9799800</v>
       </c>
       <c r="E17" s="3">
-        <v>9334200</v>
+        <v>9227100</v>
       </c>
       <c r="F17" s="3">
-        <v>8432200</v>
+        <v>8335500</v>
       </c>
       <c r="G17" s="3">
-        <v>6991400</v>
+        <v>6911200</v>
       </c>
       <c r="H17" s="3">
-        <v>6741900</v>
+        <v>6664500</v>
       </c>
       <c r="I17" s="3">
-        <v>6119500</v>
+        <v>6049300</v>
       </c>
       <c r="J17" s="3">
-        <v>84300</v>
+        <v>83400</v>
       </c>
       <c r="K17" s="3">
         <v>86300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3218100</v>
+        <v>3181200</v>
       </c>
       <c r="E18" s="3">
-        <v>2532200</v>
+        <v>2503100</v>
       </c>
       <c r="F18" s="3">
-        <v>2373400</v>
+        <v>2346100</v>
       </c>
       <c r="G18" s="3">
-        <v>2225800</v>
+        <v>2200300</v>
       </c>
       <c r="H18" s="3">
-        <v>2209000</v>
+        <v>2183600</v>
       </c>
       <c r="I18" s="3">
-        <v>2041500</v>
+        <v>2018100</v>
       </c>
       <c r="J18" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="K18" s="3">
         <v>27200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>285200</v>
+        <v>281900</v>
       </c>
       <c r="E20" s="3">
-        <v>366400</v>
+        <v>362100</v>
       </c>
       <c r="F20" s="3">
-        <v>376700</v>
+        <v>372400</v>
       </c>
       <c r="G20" s="3">
-        <v>423500</v>
+        <v>418600</v>
       </c>
       <c r="H20" s="3">
-        <v>398600</v>
+        <v>394100</v>
       </c>
       <c r="I20" s="3">
-        <v>408000</v>
+        <v>403400</v>
       </c>
       <c r="J20" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="K20" s="3">
         <v>6100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3931300</v>
+        <v>3836900</v>
       </c>
       <c r="E21" s="3">
-        <v>3277500</v>
+        <v>3125100</v>
       </c>
       <c r="F21" s="3">
-        <v>3013500</v>
+        <v>2959200</v>
       </c>
       <c r="G21" s="3">
-        <v>2893300</v>
+        <v>2838900</v>
       </c>
       <c r="H21" s="3">
-        <v>2830700</v>
+        <v>2766200</v>
       </c>
       <c r="I21" s="3">
-        <v>2640700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>176900</v>
+        <v>2559600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>222600</v>
@@ -1161,10 +1161,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="E22" s="3">
-        <v>22200</v>
+        <v>22000</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3480300</v>
+        <v>3440300</v>
       </c>
       <c r="E23" s="3">
-        <v>2876300</v>
+        <v>2843300</v>
       </c>
       <c r="F23" s="3">
-        <v>2750100</v>
+        <v>2718500</v>
       </c>
       <c r="G23" s="3">
-        <v>2649300</v>
+        <v>2618900</v>
       </c>
       <c r="H23" s="3">
-        <v>2607600</v>
+        <v>2577700</v>
       </c>
       <c r="I23" s="3">
-        <v>2449600</v>
+        <v>2421500</v>
       </c>
       <c r="J23" s="3">
-        <v>36800</v>
+        <v>36400</v>
       </c>
       <c r="K23" s="3">
         <v>33300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>941700</v>
+        <v>930900</v>
       </c>
       <c r="E24" s="3">
-        <v>701600</v>
+        <v>693500</v>
       </c>
       <c r="F24" s="3">
-        <v>736000</v>
+        <v>727500</v>
       </c>
       <c r="G24" s="3">
-        <v>554300</v>
+        <v>547900</v>
       </c>
       <c r="H24" s="3">
-        <v>731700</v>
+        <v>723300</v>
       </c>
       <c r="I24" s="3">
-        <v>686300</v>
+        <v>678400</v>
       </c>
       <c r="J24" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="K24" s="3">
         <v>9200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2538600</v>
+        <v>2509500</v>
       </c>
       <c r="E26" s="3">
-        <v>2174700</v>
+        <v>2149800</v>
       </c>
       <c r="F26" s="3">
-        <v>2014100</v>
+        <v>1991000</v>
       </c>
       <c r="G26" s="3">
-        <v>2095000</v>
+        <v>2070900</v>
       </c>
       <c r="H26" s="3">
-        <v>1875900</v>
+        <v>1854400</v>
       </c>
       <c r="I26" s="3">
-        <v>1763300</v>
+        <v>1743000</v>
       </c>
       <c r="J26" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="K26" s="3">
         <v>24100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2529200</v>
+        <v>2500100</v>
       </c>
       <c r="E27" s="3">
-        <v>2168800</v>
+        <v>2143900</v>
       </c>
       <c r="F27" s="3">
-        <v>2013300</v>
+        <v>1990200</v>
       </c>
       <c r="G27" s="3">
-        <v>2095000</v>
+        <v>2070900</v>
       </c>
       <c r="H27" s="3">
-        <v>1875900</v>
+        <v>1854400</v>
       </c>
       <c r="I27" s="3">
-        <v>1763300</v>
+        <v>1743000</v>
       </c>
       <c r="J27" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="K27" s="3">
         <v>24100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-285200</v>
+        <v>-281900</v>
       </c>
       <c r="E32" s="3">
-        <v>-366400</v>
+        <v>-362100</v>
       </c>
       <c r="F32" s="3">
-        <v>-376700</v>
+        <v>-372400</v>
       </c>
       <c r="G32" s="3">
-        <v>-423500</v>
+        <v>-418600</v>
       </c>
       <c r="H32" s="3">
-        <v>-398600</v>
+        <v>-394100</v>
       </c>
       <c r="I32" s="3">
-        <v>-408000</v>
+        <v>-403400</v>
       </c>
       <c r="J32" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="K32" s="3">
         <v>-6100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2529200</v>
+        <v>2500100</v>
       </c>
       <c r="E33" s="3">
-        <v>2168800</v>
+        <v>2143900</v>
       </c>
       <c r="F33" s="3">
-        <v>2013300</v>
+        <v>1990200</v>
       </c>
       <c r="G33" s="3">
-        <v>2095000</v>
+        <v>2070900</v>
       </c>
       <c r="H33" s="3">
-        <v>1875900</v>
+        <v>1854400</v>
       </c>
       <c r="I33" s="3">
-        <v>1763300</v>
+        <v>1743000</v>
       </c>
       <c r="J33" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="K33" s="3">
         <v>24100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2529200</v>
+        <v>2500100</v>
       </c>
       <c r="E35" s="3">
-        <v>2168800</v>
+        <v>2143900</v>
       </c>
       <c r="F35" s="3">
-        <v>2013300</v>
+        <v>1990200</v>
       </c>
       <c r="G35" s="3">
-        <v>2095000</v>
+        <v>2070900</v>
       </c>
       <c r="H35" s="3">
-        <v>1875900</v>
+        <v>1854400</v>
       </c>
       <c r="I35" s="3">
-        <v>1763300</v>
+        <v>1743000</v>
       </c>
       <c r="J35" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="K35" s="3">
         <v>24100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2557100</v>
+        <v>2527800</v>
       </c>
       <c r="E41" s="3">
-        <v>1554300</v>
+        <v>1536400</v>
       </c>
       <c r="F41" s="3">
-        <v>1808800</v>
+        <v>1788000</v>
       </c>
       <c r="G41" s="3">
-        <v>1651400</v>
+        <v>1632400</v>
       </c>
       <c r="H41" s="3">
-        <v>1871200</v>
+        <v>1849800</v>
       </c>
       <c r="I41" s="3">
-        <v>3519500</v>
+        <v>3479100</v>
       </c>
       <c r="J41" s="3">
-        <v>54000</v>
+        <v>53400</v>
       </c>
       <c r="K41" s="3">
         <v>50600</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>913200</v>
+        <v>902700</v>
       </c>
       <c r="E42" s="3">
-        <v>1439800</v>
+        <v>1423300</v>
       </c>
       <c r="F42" s="3">
-        <v>1568100</v>
+        <v>1550100</v>
       </c>
       <c r="G42" s="3">
-        <v>1706500</v>
+        <v>1687000</v>
       </c>
       <c r="H42" s="3">
-        <v>2314200</v>
+        <v>2287600</v>
       </c>
       <c r="I42" s="3">
-        <v>699500</v>
+        <v>691500</v>
       </c>
       <c r="J42" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="K42" s="3">
         <v>15300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3881400</v>
+        <v>3836900</v>
       </c>
       <c r="E43" s="3">
-        <v>3649000</v>
+        <v>3607100</v>
       </c>
       <c r="F43" s="3">
-        <v>3040300</v>
+        <v>3005500</v>
       </c>
       <c r="G43" s="3">
-        <v>2540800</v>
+        <v>2511600</v>
       </c>
       <c r="H43" s="3">
-        <v>2444600</v>
+        <v>2416600</v>
       </c>
       <c r="I43" s="3">
-        <v>2243500</v>
+        <v>2217700</v>
       </c>
       <c r="J43" s="3">
-        <v>30400</v>
+        <v>30000</v>
       </c>
       <c r="K43" s="3">
         <v>28600</v>
@@ -1846,22 +1846,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="E44" s="3">
-        <v>19000</v>
+        <v>18700</v>
       </c>
       <c r="F44" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I44" s="3">
         <v>14200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>15600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>17100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>14400</v>
       </c>
       <c r="J44" s="3">
         <v>2300</v>
@@ -1882,22 +1882,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>567600</v>
+        <v>561100</v>
       </c>
       <c r="E45" s="3">
-        <v>471000</v>
+        <v>465600</v>
       </c>
       <c r="F45" s="3">
-        <v>479700</v>
+        <v>474200</v>
       </c>
       <c r="G45" s="3">
-        <v>622900</v>
+        <v>615800</v>
       </c>
       <c r="H45" s="3">
-        <v>372100</v>
+        <v>367800</v>
       </c>
       <c r="I45" s="3">
-        <v>279700</v>
+        <v>276500</v>
       </c>
       <c r="J45" s="3">
         <v>1400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7937800</v>
+        <v>7846700</v>
       </c>
       <c r="E46" s="3">
-        <v>7133100</v>
+        <v>7051200</v>
       </c>
       <c r="F46" s="3">
-        <v>6911200</v>
+        <v>6831800</v>
       </c>
       <c r="G46" s="3">
-        <v>6537200</v>
+        <v>6462200</v>
       </c>
       <c r="H46" s="3">
-        <v>7019200</v>
+        <v>6938700</v>
       </c>
       <c r="I46" s="3">
-        <v>6756500</v>
+        <v>6679000</v>
       </c>
       <c r="J46" s="3">
-        <v>98700</v>
+        <v>97600</v>
       </c>
       <c r="K46" s="3">
         <v>98800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2490400</v>
+        <v>2461800</v>
       </c>
       <c r="E47" s="3">
-        <v>1355200</v>
+        <v>1339700</v>
       </c>
       <c r="F47" s="3">
-        <v>1562400</v>
+        <v>1544500</v>
       </c>
       <c r="G47" s="3">
-        <v>1737000</v>
+        <v>1717100</v>
       </c>
       <c r="H47" s="3">
-        <v>1594300</v>
+        <v>1576000</v>
       </c>
       <c r="I47" s="3">
-        <v>937000</v>
+        <v>926200</v>
       </c>
       <c r="J47" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="K47" s="3">
         <v>6400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2407100</v>
+        <v>2379500</v>
       </c>
       <c r="E48" s="3">
-        <v>2335200</v>
+        <v>2308400</v>
       </c>
       <c r="F48" s="3">
-        <v>1745600</v>
+        <v>1725600</v>
       </c>
       <c r="G48" s="3">
-        <v>1587100</v>
+        <v>1568900</v>
       </c>
       <c r="H48" s="3">
-        <v>1531300</v>
+        <v>1513700</v>
       </c>
       <c r="I48" s="3">
-        <v>1376300</v>
+        <v>1360500</v>
       </c>
       <c r="J48" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="K48" s="3">
         <v>18100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1065300</v>
+        <v>1053100</v>
       </c>
       <c r="E49" s="3">
-        <v>939200</v>
+        <v>928400</v>
       </c>
       <c r="F49" s="3">
-        <v>553000</v>
+        <v>546600</v>
       </c>
       <c r="G49" s="3">
-        <v>321300</v>
+        <v>317600</v>
       </c>
       <c r="H49" s="3">
-        <v>578700</v>
+        <v>572100</v>
       </c>
       <c r="I49" s="3">
-        <v>620700</v>
+        <v>613600</v>
       </c>
       <c r="J49" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="K49" s="3">
         <v>5700</v>
@@ -2134,22 +2134,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>265500</v>
+        <v>262400</v>
       </c>
       <c r="E52" s="3">
-        <v>362000</v>
+        <v>357900</v>
       </c>
       <c r="F52" s="3">
-        <v>303100</v>
+        <v>299600</v>
       </c>
       <c r="G52" s="3">
-        <v>259000</v>
+        <v>256100</v>
       </c>
       <c r="H52" s="3">
-        <v>171000</v>
+        <v>169000</v>
       </c>
       <c r="I52" s="3">
-        <v>162900</v>
+        <v>161000</v>
       </c>
       <c r="J52" s="3">
         <v>1500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14166100</v>
+        <v>14003500</v>
       </c>
       <c r="E54" s="3">
-        <v>12124800</v>
+        <v>11985600</v>
       </c>
       <c r="F54" s="3">
-        <v>11075300</v>
+        <v>10948100</v>
       </c>
       <c r="G54" s="3">
-        <v>10441600</v>
+        <v>10321800</v>
       </c>
       <c r="H54" s="3">
-        <v>10894500</v>
+        <v>10769500</v>
       </c>
       <c r="I54" s="3">
-        <v>9853300</v>
+        <v>9740300</v>
       </c>
       <c r="J54" s="3">
-        <v>138700</v>
+        <v>137100</v>
       </c>
       <c r="K54" s="3">
         <v>131000</v>
@@ -2274,22 +2274,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>345700</v>
+        <v>341700</v>
       </c>
       <c r="E57" s="3">
-        <v>372800</v>
+        <v>368500</v>
       </c>
       <c r="F57" s="3">
-        <v>216300</v>
+        <v>213800</v>
       </c>
       <c r="G57" s="3">
-        <v>90700</v>
+        <v>89700</v>
       </c>
       <c r="H57" s="3">
-        <v>48000</v>
+        <v>47400</v>
       </c>
       <c r="I57" s="3">
-        <v>50500</v>
+        <v>49900</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -2310,10 +2310,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>96500</v>
+        <v>95300</v>
       </c>
       <c r="E58" s="3">
-        <v>80900</v>
+        <v>80000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2677000</v>
+        <v>2646300</v>
       </c>
       <c r="E59" s="3">
-        <v>2272200</v>
+        <v>2246100</v>
       </c>
       <c r="F59" s="3">
-        <v>2219700</v>
+        <v>2194200</v>
       </c>
       <c r="G59" s="3">
-        <v>1752800</v>
+        <v>1732700</v>
       </c>
       <c r="H59" s="3">
-        <v>1783500</v>
+        <v>1763100</v>
       </c>
       <c r="I59" s="3">
-        <v>1679900</v>
+        <v>1660600</v>
       </c>
       <c r="J59" s="3">
-        <v>23500</v>
+        <v>23200</v>
       </c>
       <c r="K59" s="3">
         <v>20600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3119200</v>
+        <v>3083400</v>
       </c>
       <c r="E60" s="3">
-        <v>2725900</v>
+        <v>2694600</v>
       </c>
       <c r="F60" s="3">
-        <v>2436000</v>
+        <v>2408000</v>
       </c>
       <c r="G60" s="3">
-        <v>1843500</v>
+        <v>1822400</v>
       </c>
       <c r="H60" s="3">
-        <v>1831500</v>
+        <v>1810500</v>
       </c>
       <c r="I60" s="3">
-        <v>1730300</v>
+        <v>1710500</v>
       </c>
       <c r="J60" s="3">
-        <v>23800</v>
+        <v>23500</v>
       </c>
       <c r="K60" s="3">
         <v>21000</v>
@@ -2418,10 +2418,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>599500</v>
+        <v>592600</v>
       </c>
       <c r="E61" s="3">
-        <v>524600</v>
+        <v>518600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>412000</v>
+        <v>407200</v>
       </c>
       <c r="E62" s="3">
-        <v>268500</v>
+        <v>265400</v>
       </c>
       <c r="F62" s="3">
-        <v>143000</v>
+        <v>141300</v>
       </c>
       <c r="G62" s="3">
-        <v>112500</v>
+        <v>111200</v>
       </c>
       <c r="H62" s="3">
-        <v>47100</v>
+        <v>46500</v>
       </c>
       <c r="I62" s="3">
-        <v>48500</v>
+        <v>47900</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4187000</v>
+        <v>4138900</v>
       </c>
       <c r="E66" s="3">
-        <v>3570500</v>
+        <v>3529500</v>
       </c>
       <c r="F66" s="3">
-        <v>2586600</v>
+        <v>2556900</v>
       </c>
       <c r="G66" s="3">
-        <v>1956200</v>
+        <v>1933700</v>
       </c>
       <c r="H66" s="3">
-        <v>1878600</v>
+        <v>1857000</v>
       </c>
       <c r="I66" s="3">
-        <v>1778800</v>
+        <v>1758400</v>
       </c>
       <c r="J66" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="K66" s="3">
         <v>21900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9396400</v>
+        <v>9288600</v>
       </c>
       <c r="E72" s="3">
-        <v>8062500</v>
+        <v>7970000</v>
       </c>
       <c r="F72" s="3">
-        <v>8035300</v>
+        <v>7943100</v>
       </c>
       <c r="G72" s="3">
-        <v>8218400</v>
+        <v>8124100</v>
       </c>
       <c r="H72" s="3">
-        <v>8502800</v>
+        <v>8405200</v>
       </c>
       <c r="I72" s="3">
-        <v>7535500</v>
+        <v>7449000</v>
       </c>
       <c r="J72" s="3">
-        <v>131900</v>
+        <v>130400</v>
       </c>
       <c r="K72" s="3">
         <v>122400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9979100</v>
+        <v>9864500</v>
       </c>
       <c r="E76" s="3">
-        <v>8554300</v>
+        <v>8456100</v>
       </c>
       <c r="F76" s="3">
-        <v>8488700</v>
+        <v>8391300</v>
       </c>
       <c r="G76" s="3">
-        <v>8485400</v>
+        <v>8388100</v>
       </c>
       <c r="H76" s="3">
-        <v>9015900</v>
+        <v>8912500</v>
       </c>
       <c r="I76" s="3">
-        <v>8074500</v>
+        <v>7981800</v>
       </c>
       <c r="J76" s="3">
-        <v>114500</v>
+        <v>113200</v>
       </c>
       <c r="K76" s="3">
         <v>109200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2529200</v>
+        <v>2500100</v>
       </c>
       <c r="E81" s="3">
-        <v>2168800</v>
+        <v>2143900</v>
       </c>
       <c r="F81" s="3">
-        <v>2013300</v>
+        <v>1990200</v>
       </c>
       <c r="G81" s="3">
-        <v>2095000</v>
+        <v>2070900</v>
       </c>
       <c r="H81" s="3">
-        <v>1875900</v>
+        <v>1854400</v>
       </c>
       <c r="I81" s="3">
-        <v>1763300</v>
+        <v>1743000</v>
       </c>
       <c r="J81" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="K81" s="3">
         <v>24100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>427000</v>
+        <v>373800</v>
       </c>
       <c r="E83" s="3">
-        <v>378100</v>
+        <v>259800</v>
       </c>
       <c r="F83" s="3">
-        <v>262800</v>
+        <v>240700</v>
       </c>
       <c r="G83" s="3">
-        <v>243500</v>
+        <v>220000</v>
       </c>
       <c r="H83" s="3">
-        <v>222600</v>
+        <v>188500</v>
       </c>
       <c r="I83" s="3">
-        <v>190700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>139700</v>
+        <v>138100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>189100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3153400</v>
+        <v>2397600</v>
       </c>
       <c r="E89" s="3">
-        <v>2425400</v>
+        <v>2047000</v>
       </c>
       <c r="F89" s="3">
-        <v>2070800</v>
+        <v>1881000</v>
       </c>
       <c r="G89" s="3">
-        <v>1902900</v>
+        <v>1816900</v>
       </c>
       <c r="H89" s="3">
-        <v>1838000</v>
+        <v>1581800</v>
       </c>
       <c r="I89" s="3">
-        <v>1600200</v>
+        <v>1389200</v>
       </c>
       <c r="J89" s="3">
-        <v>1405300</v>
+        <v>1574600</v>
       </c>
       <c r="K89" s="3">
         <v>1676900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-275400</v>
+        <v>-427300</v>
       </c>
       <c r="E91" s="3">
-        <v>-432200</v>
+        <v>-315900</v>
       </c>
       <c r="F91" s="3">
-        <v>-319600</v>
+        <v>-258100</v>
       </c>
       <c r="G91" s="3">
-        <v>-261100</v>
+        <v>-356600</v>
       </c>
       <c r="H91" s="3">
-        <v>-360700</v>
+        <v>-351800</v>
       </c>
       <c r="I91" s="3">
-        <v>-355900</v>
+        <v>-290300</v>
       </c>
       <c r="J91" s="3">
-        <v>-293700</v>
+        <v>-354700</v>
       </c>
       <c r="K91" s="3">
         <v>-377700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1092500</v>
+        <v>-231700</v>
       </c>
       <c r="E94" s="3">
-        <v>-234300</v>
+        <v>-203900</v>
       </c>
       <c r="F94" s="3">
-        <v>-206200</v>
+        <v>401900</v>
       </c>
       <c r="G94" s="3">
-        <v>406600</v>
+        <v>-2206000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2231600</v>
+        <v>-402600</v>
       </c>
       <c r="I94" s="3">
-        <v>-407300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-167200</v>
+        <v>-165200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-688400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1191600</v>
+        <v>-1229300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1243600</v>
+        <v>-1770700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1791200</v>
+        <v>-964300</v>
       </c>
       <c r="G96" s="3">
-        <v>-975500</v>
+        <v>-896500</v>
       </c>
       <c r="H96" s="3">
-        <v>-906900</v>
+        <v>-880200</v>
       </c>
       <c r="I96" s="3">
-        <v>-890500</v>
+        <v>-637600</v>
       </c>
       <c r="J96" s="3">
-        <v>-645000</v>
+        <v>-347000</v>
       </c>
       <c r="K96" s="3">
         <v>-369600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1279000</v>
+        <v>-2272800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2299100</v>
+        <v>-1875000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1896700</v>
+        <v>-2649200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2680000</v>
+        <v>-896500</v>
       </c>
       <c r="H100" s="3">
-        <v>-906900</v>
+        <v>-880200</v>
       </c>
       <c r="I100" s="3">
-        <v>-890500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-645000</v>
+        <v>-637600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-432500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10800</v>
+        <v>-11900</v>
       </c>
       <c r="E101" s="3">
-        <v>-12000</v>
+        <v>-7400</v>
       </c>
       <c r="F101" s="3">
-        <v>-7400</v>
+        <v>10500</v>
       </c>
       <c r="G101" s="3">
-        <v>10600</v>
+        <v>-15800</v>
       </c>
       <c r="H101" s="3">
-        <v>-15900</v>
+        <v>2100</v>
       </c>
       <c r="I101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-15800</v>
+        <v>-15600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>10600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>792700</v>
+        <v>-118700</v>
       </c>
       <c r="E102" s="3">
-        <v>-120100</v>
+        <v>-39100</v>
       </c>
       <c r="F102" s="3">
-        <v>-39600</v>
+        <v>-355800</v>
       </c>
       <c r="G102" s="3">
-        <v>-359900</v>
+        <v>-1301300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1316400</v>
+        <v>301000</v>
       </c>
       <c r="I102" s="3">
-        <v>304500</v>
+        <v>570700</v>
       </c>
       <c r="J102" s="3">
-        <v>577300</v>
+        <v>532000</v>
       </c>
       <c r="K102" s="3">
         <v>566600</v>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>INFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12981000</v>
+        <v>15229500</v>
       </c>
       <c r="E8" s="3">
-        <v>11730200</v>
+        <v>12579100</v>
       </c>
       <c r="F8" s="3">
-        <v>10681600</v>
+        <v>11367000</v>
       </c>
       <c r="G8" s="3">
-        <v>9111400</v>
+        <v>10350900</v>
       </c>
       <c r="H8" s="3">
-        <v>8848100</v>
+        <v>8829400</v>
       </c>
       <c r="I8" s="3">
-        <v>8067400</v>
+        <v>8574200</v>
       </c>
       <c r="J8" s="3">
+        <v>7817600</v>
+      </c>
+      <c r="K8" s="3">
         <v>112500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>113500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>103900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>101100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8451400</v>
+        <v>10266100</v>
       </c>
       <c r="E9" s="3">
-        <v>7846600</v>
+        <v>8189700</v>
       </c>
       <c r="F9" s="3">
-        <v>6959600</v>
+        <v>7603600</v>
       </c>
       <c r="G9" s="3">
-        <v>5830800</v>
+        <v>6744100</v>
       </c>
       <c r="H9" s="3">
-        <v>5588300</v>
+        <v>5650300</v>
       </c>
       <c r="I9" s="3">
-        <v>5032200</v>
+        <v>5415300</v>
       </c>
       <c r="J9" s="3">
+        <v>4876400</v>
+      </c>
+      <c r="K9" s="3">
         <v>68900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>72400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>65700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>60100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4529600</v>
+        <v>4963300</v>
       </c>
       <c r="E10" s="3">
-        <v>3883600</v>
+        <v>4389400</v>
       </c>
       <c r="F10" s="3">
-        <v>3722000</v>
+        <v>3763400</v>
       </c>
       <c r="G10" s="3">
-        <v>3280600</v>
+        <v>3606800</v>
       </c>
       <c r="H10" s="3">
-        <v>3259800</v>
+        <v>3179100</v>
       </c>
       <c r="I10" s="3">
-        <v>3035200</v>
+        <v>3158900</v>
       </c>
       <c r="J10" s="3">
+        <v>2941200</v>
+      </c>
+      <c r="K10" s="3">
         <v>43600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>41000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24500</v>
+        <v>21300</v>
       </c>
       <c r="E14" s="3">
-        <v>22200</v>
+        <v>23800</v>
       </c>
       <c r="F14" s="3">
-        <v>125200</v>
+        <v>21500</v>
       </c>
       <c r="G14" s="3">
-        <v>24400</v>
+        <v>121300</v>
       </c>
       <c r="H14" s="3">
-        <v>18100</v>
+        <v>23700</v>
       </c>
       <c r="I14" s="3">
-        <v>19300</v>
+        <v>17500</v>
       </c>
       <c r="J14" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9799800</v>
+        <v>11722000</v>
       </c>
       <c r="E17" s="3">
-        <v>9227100</v>
+        <v>9496400</v>
       </c>
       <c r="F17" s="3">
-        <v>8335500</v>
+        <v>8941400</v>
       </c>
       <c r="G17" s="3">
-        <v>6911200</v>
+        <v>8077400</v>
       </c>
       <c r="H17" s="3">
-        <v>6664500</v>
+        <v>6697200</v>
       </c>
       <c r="I17" s="3">
-        <v>6049300</v>
+        <v>6458200</v>
       </c>
       <c r="J17" s="3">
+        <v>5862000</v>
+      </c>
+      <c r="K17" s="3">
         <v>83400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>86300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>77100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>72000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3181200</v>
+        <v>3507500</v>
       </c>
       <c r="E18" s="3">
-        <v>2503100</v>
+        <v>3082700</v>
       </c>
       <c r="F18" s="3">
-        <v>2346100</v>
+        <v>2425600</v>
       </c>
       <c r="G18" s="3">
-        <v>2200300</v>
+        <v>2273500</v>
       </c>
       <c r="H18" s="3">
-        <v>2183600</v>
+        <v>2132200</v>
       </c>
       <c r="I18" s="3">
-        <v>2018100</v>
+        <v>2116000</v>
       </c>
       <c r="J18" s="3">
+        <v>1955600</v>
+      </c>
+      <c r="K18" s="3">
         <v>29200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>29100</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,91 +1115,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>281900</v>
+        <v>284200</v>
       </c>
       <c r="E20" s="3">
-        <v>362100</v>
+        <v>273200</v>
       </c>
       <c r="F20" s="3">
-        <v>372400</v>
+        <v>350900</v>
       </c>
       <c r="G20" s="3">
-        <v>418600</v>
+        <v>360800</v>
       </c>
       <c r="H20" s="3">
-        <v>394100</v>
+        <v>405600</v>
       </c>
       <c r="I20" s="3">
-        <v>403400</v>
+        <v>381900</v>
       </c>
       <c r="J20" s="3">
+        <v>390900</v>
+      </c>
+      <c r="K20" s="3">
         <v>7200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>6100</v>
       </c>
       <c r="L20" s="3">
         <v>6100</v>
       </c>
       <c r="M20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="N20" s="3">
         <v>5700</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3836900</v>
+        <v>4227200</v>
       </c>
       <c r="E21" s="3">
-        <v>3125100</v>
+        <v>3765200</v>
       </c>
       <c r="F21" s="3">
-        <v>2959200</v>
+        <v>3139100</v>
       </c>
       <c r="G21" s="3">
-        <v>2838900</v>
+        <v>2886300</v>
       </c>
       <c r="H21" s="3">
-        <v>2766200</v>
+        <v>2771200</v>
       </c>
       <c r="I21" s="3">
-        <v>2559600</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>2711300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2529300</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>222600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>35800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>37700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22700</v>
+        <v>21900</v>
       </c>
       <c r="E22" s="3">
         <v>22000</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>21300</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1184,87 +1223,96 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3440300</v>
+        <v>3769800</v>
       </c>
       <c r="E23" s="3">
-        <v>2843300</v>
+        <v>3333800</v>
       </c>
       <c r="F23" s="3">
-        <v>2718500</v>
+        <v>2755300</v>
       </c>
       <c r="G23" s="3">
-        <v>2618900</v>
+        <v>2634300</v>
       </c>
       <c r="H23" s="3">
-        <v>2577700</v>
+        <v>2537800</v>
       </c>
       <c r="I23" s="3">
-        <v>2421500</v>
+        <v>2497900</v>
       </c>
       <c r="J23" s="3">
+        <v>2346500</v>
+      </c>
+      <c r="K23" s="3">
         <v>36400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>33300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>930900</v>
+        <v>997100</v>
       </c>
       <c r="E24" s="3">
-        <v>693500</v>
+        <v>902100</v>
       </c>
       <c r="F24" s="3">
-        <v>727500</v>
+        <v>672100</v>
       </c>
       <c r="G24" s="3">
-        <v>547900</v>
+        <v>705000</v>
       </c>
       <c r="H24" s="3">
-        <v>723300</v>
+        <v>531000</v>
       </c>
       <c r="I24" s="3">
-        <v>678400</v>
+        <v>700900</v>
       </c>
       <c r="J24" s="3">
+        <v>657400</v>
+      </c>
+      <c r="K24" s="3">
         <v>10400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2509500</v>
+        <v>2772700</v>
       </c>
       <c r="E26" s="3">
-        <v>2149800</v>
+        <v>2431800</v>
       </c>
       <c r="F26" s="3">
-        <v>1991000</v>
+        <v>2083200</v>
       </c>
       <c r="G26" s="3">
-        <v>2070900</v>
+        <v>1929300</v>
       </c>
       <c r="H26" s="3">
-        <v>1854400</v>
+        <v>2006800</v>
       </c>
       <c r="I26" s="3">
-        <v>1743000</v>
+        <v>1797000</v>
       </c>
       <c r="J26" s="3">
+        <v>1689100</v>
+      </c>
+      <c r="K26" s="3">
         <v>26000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2500100</v>
+        <v>2768200</v>
       </c>
       <c r="E27" s="3">
-        <v>2143900</v>
+        <v>2422700</v>
       </c>
       <c r="F27" s="3">
-        <v>1990200</v>
+        <v>2077600</v>
       </c>
       <c r="G27" s="3">
-        <v>2070900</v>
+        <v>1928600</v>
       </c>
       <c r="H27" s="3">
-        <v>1854400</v>
+        <v>2006800</v>
       </c>
       <c r="I27" s="3">
-        <v>1743000</v>
+        <v>1797000</v>
       </c>
       <c r="J27" s="3">
+        <v>1689100</v>
+      </c>
+      <c r="K27" s="3">
         <v>26000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-281900</v>
+        <v>-284200</v>
       </c>
       <c r="E32" s="3">
-        <v>-362100</v>
+        <v>-273200</v>
       </c>
       <c r="F32" s="3">
-        <v>-372400</v>
+        <v>-350900</v>
       </c>
       <c r="G32" s="3">
-        <v>-418600</v>
+        <v>-360800</v>
       </c>
       <c r="H32" s="3">
-        <v>-394100</v>
+        <v>-405600</v>
       </c>
       <c r="I32" s="3">
-        <v>-403400</v>
+        <v>-381900</v>
       </c>
       <c r="J32" s="3">
+        <v>-390900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-6100</v>
       </c>
       <c r="L32" s="3">
         <v>-6100</v>
       </c>
       <c r="M32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-5700</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2500100</v>
+        <v>2768200</v>
       </c>
       <c r="E33" s="3">
-        <v>2143900</v>
+        <v>2422700</v>
       </c>
       <c r="F33" s="3">
-        <v>1990200</v>
+        <v>2077600</v>
       </c>
       <c r="G33" s="3">
-        <v>2070900</v>
+        <v>1928600</v>
       </c>
       <c r="H33" s="3">
-        <v>1854400</v>
+        <v>2006800</v>
       </c>
       <c r="I33" s="3">
-        <v>1743000</v>
+        <v>1797000</v>
       </c>
       <c r="J33" s="3">
+        <v>1689100</v>
+      </c>
+      <c r="K33" s="3">
         <v>26000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2500100</v>
+        <v>2768200</v>
       </c>
       <c r="E35" s="3">
-        <v>2143900</v>
+        <v>2422700</v>
       </c>
       <c r="F35" s="3">
-        <v>1990200</v>
+        <v>2077600</v>
       </c>
       <c r="G35" s="3">
-        <v>2070900</v>
+        <v>1928600</v>
       </c>
       <c r="H35" s="3">
-        <v>1854400</v>
+        <v>2006800</v>
       </c>
       <c r="I35" s="3">
-        <v>1743000</v>
+        <v>1797000</v>
       </c>
       <c r="J35" s="3">
+        <v>1689100</v>
+      </c>
+      <c r="K35" s="3">
         <v>26000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2527800</v>
+        <v>1686600</v>
       </c>
       <c r="E41" s="3">
-        <v>1536400</v>
+        <v>2449500</v>
       </c>
       <c r="F41" s="3">
-        <v>1788000</v>
+        <v>1488900</v>
       </c>
       <c r="G41" s="3">
-        <v>1632400</v>
+        <v>1732600</v>
       </c>
       <c r="H41" s="3">
-        <v>1849800</v>
+        <v>1581900</v>
       </c>
       <c r="I41" s="3">
-        <v>3479100</v>
+        <v>1792500</v>
       </c>
       <c r="J41" s="3">
+        <v>3371400</v>
+      </c>
+      <c r="K41" s="3">
         <v>53400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>47600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>53400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>902700</v>
+        <v>1311300</v>
       </c>
       <c r="E42" s="3">
-        <v>1423300</v>
+        <v>874800</v>
       </c>
       <c r="F42" s="3">
-        <v>1550100</v>
+        <v>1379200</v>
       </c>
       <c r="G42" s="3">
-        <v>1687000</v>
+        <v>1502100</v>
       </c>
       <c r="H42" s="3">
-        <v>2287600</v>
+        <v>1634700</v>
       </c>
       <c r="I42" s="3">
-        <v>691500</v>
+        <v>2216800</v>
       </c>
       <c r="J42" s="3">
+        <v>670100</v>
+      </c>
+      <c r="K42" s="3">
         <v>10400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3836900</v>
+        <v>4664100</v>
       </c>
       <c r="E43" s="3">
-        <v>3607100</v>
+        <v>3718100</v>
       </c>
       <c r="F43" s="3">
-        <v>3005500</v>
+        <v>3495500</v>
       </c>
       <c r="G43" s="3">
-        <v>2511600</v>
+        <v>2912400</v>
       </c>
       <c r="H43" s="3">
-        <v>2416600</v>
+        <v>2433900</v>
       </c>
       <c r="I43" s="3">
-        <v>2217700</v>
+        <v>2341700</v>
       </c>
       <c r="J43" s="3">
+        <v>2149100</v>
+      </c>
+      <c r="K43" s="3">
         <v>30000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>22600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18200</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>18700</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>14100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>15400</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>16900</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>14200</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>2300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2200</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>561100</v>
+        <v>749600</v>
       </c>
       <c r="E45" s="3">
-        <v>465600</v>
+        <v>561400</v>
       </c>
       <c r="F45" s="3">
-        <v>474200</v>
+        <v>469400</v>
       </c>
       <c r="G45" s="3">
-        <v>615800</v>
+        <v>473100</v>
       </c>
       <c r="H45" s="3">
-        <v>367800</v>
+        <v>611600</v>
       </c>
       <c r="I45" s="3">
-        <v>276500</v>
+        <v>372800</v>
       </c>
       <c r="J45" s="3">
+        <v>281700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4500</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7846700</v>
+        <v>8411600</v>
       </c>
       <c r="E46" s="3">
-        <v>7051200</v>
+        <v>7603800</v>
       </c>
       <c r="F46" s="3">
-        <v>6831800</v>
+        <v>6832900</v>
       </c>
       <c r="G46" s="3">
-        <v>6462200</v>
+        <v>6620300</v>
       </c>
       <c r="H46" s="3">
-        <v>6938700</v>
+        <v>6262100</v>
       </c>
       <c r="I46" s="3">
-        <v>6679000</v>
+        <v>6723900</v>
       </c>
       <c r="J46" s="3">
+        <v>6472200</v>
+      </c>
+      <c r="K46" s="3">
         <v>97600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>98800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>91300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>86000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2461800</v>
+        <v>2747400</v>
       </c>
       <c r="E47" s="3">
-        <v>1339700</v>
+        <v>2385600</v>
       </c>
       <c r="F47" s="3">
-        <v>1544500</v>
+        <v>1298200</v>
       </c>
       <c r="G47" s="3">
-        <v>1717100</v>
+        <v>1496600</v>
       </c>
       <c r="H47" s="3">
-        <v>1576000</v>
+        <v>1663900</v>
       </c>
       <c r="I47" s="3">
-        <v>926200</v>
+        <v>1527200</v>
       </c>
       <c r="J47" s="3">
+        <v>897600</v>
+      </c>
+      <c r="K47" s="3">
         <v>11500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2379500</v>
+        <v>2292900</v>
       </c>
       <c r="E48" s="3">
-        <v>2308400</v>
+        <v>2305800</v>
       </c>
       <c r="F48" s="3">
-        <v>1725600</v>
+        <v>2236900</v>
       </c>
       <c r="G48" s="3">
-        <v>1568900</v>
+        <v>1672200</v>
       </c>
       <c r="H48" s="3">
-        <v>1513700</v>
+        <v>1520300</v>
       </c>
       <c r="I48" s="3">
-        <v>1360500</v>
+        <v>1466800</v>
       </c>
       <c r="J48" s="3">
+        <v>1318400</v>
+      </c>
+      <c r="K48" s="3">
         <v>18900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1053100</v>
+        <v>989300</v>
       </c>
       <c r="E49" s="3">
-        <v>928400</v>
+        <v>1020500</v>
       </c>
       <c r="F49" s="3">
-        <v>546600</v>
+        <v>899700</v>
       </c>
       <c r="G49" s="3">
-        <v>317600</v>
+        <v>529700</v>
       </c>
       <c r="H49" s="3">
-        <v>572100</v>
+        <v>307700</v>
       </c>
       <c r="I49" s="3">
-        <v>613600</v>
+        <v>554400</v>
       </c>
       <c r="J49" s="3">
+        <v>594600</v>
+      </c>
+      <c r="K49" s="3">
         <v>7700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3300</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>262400</v>
+        <v>318000</v>
       </c>
       <c r="E52" s="3">
-        <v>357900</v>
+        <v>254300</v>
       </c>
       <c r="F52" s="3">
-        <v>299600</v>
+        <v>346800</v>
       </c>
       <c r="G52" s="3">
-        <v>256100</v>
+        <v>290300</v>
       </c>
       <c r="H52" s="3">
-        <v>169000</v>
+        <v>248100</v>
       </c>
       <c r="I52" s="3">
-        <v>161000</v>
+        <v>163800</v>
       </c>
       <c r="J52" s="3">
+        <v>156000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1900</v>
       </c>
       <c r="L52" s="3">
         <v>1900</v>
       </c>
       <c r="M52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14003500</v>
+        <v>14759200</v>
       </c>
       <c r="E54" s="3">
-        <v>11985600</v>
+        <v>13569900</v>
       </c>
       <c r="F54" s="3">
-        <v>10948100</v>
+        <v>11614600</v>
       </c>
       <c r="G54" s="3">
-        <v>10321800</v>
+        <v>10609200</v>
       </c>
       <c r="H54" s="3">
-        <v>10769500</v>
+        <v>10002200</v>
       </c>
       <c r="I54" s="3">
-        <v>9740300</v>
+        <v>10436000</v>
       </c>
       <c r="J54" s="3">
+        <v>9438700</v>
+      </c>
+      <c r="K54" s="3">
         <v>137100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>131000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>119900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>109000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,55 +2397,59 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>341700</v>
+        <v>517600</v>
       </c>
       <c r="E57" s="3">
-        <v>368500</v>
+        <v>331200</v>
       </c>
       <c r="F57" s="3">
-        <v>213800</v>
+        <v>357100</v>
       </c>
       <c r="G57" s="3">
-        <v>89700</v>
+        <v>207200</v>
       </c>
       <c r="H57" s="3">
-        <v>47400</v>
+        <v>86900</v>
       </c>
       <c r="I57" s="3">
-        <v>49900</v>
+        <v>45900</v>
       </c>
       <c r="J57" s="3">
+        <v>48300</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>95300</v>
+        <v>109200</v>
       </c>
       <c r="E58" s="3">
-        <v>80000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+        <v>92400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>77500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2333,98 +2466,107 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2646300</v>
+        <v>3580300</v>
       </c>
       <c r="E59" s="3">
-        <v>2246100</v>
+        <v>2564300</v>
       </c>
       <c r="F59" s="3">
-        <v>2194200</v>
+        <v>2176600</v>
       </c>
       <c r="G59" s="3">
-        <v>1732700</v>
+        <v>2126300</v>
       </c>
       <c r="H59" s="3">
-        <v>1763100</v>
+        <v>1679100</v>
       </c>
       <c r="I59" s="3">
-        <v>1660600</v>
+        <v>1708500</v>
       </c>
       <c r="J59" s="3">
+        <v>1609200</v>
+      </c>
+      <c r="K59" s="3">
         <v>23200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13500</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3083400</v>
+        <v>4207100</v>
       </c>
       <c r="E60" s="3">
-        <v>2694600</v>
+        <v>2987900</v>
       </c>
       <c r="F60" s="3">
-        <v>2408000</v>
+        <v>2611200</v>
       </c>
       <c r="G60" s="3">
-        <v>1822400</v>
+        <v>2333500</v>
       </c>
       <c r="H60" s="3">
-        <v>1810500</v>
+        <v>1765900</v>
       </c>
       <c r="I60" s="3">
-        <v>1710500</v>
+        <v>1754400</v>
       </c>
       <c r="J60" s="3">
+        <v>1657500</v>
+      </c>
+      <c r="K60" s="3">
         <v>23500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>592600</v>
+        <v>576200</v>
       </c>
       <c r="E61" s="3">
-        <v>518600</v>
+        <v>574300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>502600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2447,45 +2589,51 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>407200</v>
+        <v>493800</v>
       </c>
       <c r="E62" s="3">
-        <v>265400</v>
+        <v>394600</v>
       </c>
       <c r="F62" s="3">
-        <v>141300</v>
+        <v>257200</v>
       </c>
       <c r="G62" s="3">
-        <v>111200</v>
+        <v>137000</v>
       </c>
       <c r="H62" s="3">
-        <v>46500</v>
+        <v>107800</v>
       </c>
       <c r="I62" s="3">
-        <v>47900</v>
+        <v>45100</v>
       </c>
       <c r="J62" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4138900</v>
+        <v>5325400</v>
       </c>
       <c r="E66" s="3">
-        <v>3529500</v>
+        <v>4010800</v>
       </c>
       <c r="F66" s="3">
-        <v>2556900</v>
+        <v>3420200</v>
       </c>
       <c r="G66" s="3">
-        <v>1933700</v>
+        <v>2477700</v>
       </c>
       <c r="H66" s="3">
-        <v>1857000</v>
+        <v>1873900</v>
       </c>
       <c r="I66" s="3">
-        <v>1758400</v>
+        <v>1799500</v>
       </c>
       <c r="J66" s="3">
+        <v>1704000</v>
+      </c>
+      <c r="K66" s="3">
         <v>23900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9288600</v>
+        <v>8987100</v>
       </c>
       <c r="E72" s="3">
-        <v>7970000</v>
+        <v>9001000</v>
       </c>
       <c r="F72" s="3">
-        <v>7943100</v>
+        <v>7723200</v>
       </c>
       <c r="G72" s="3">
-        <v>8124100</v>
+        <v>7697200</v>
       </c>
       <c r="H72" s="3">
-        <v>8405200</v>
+        <v>7872600</v>
       </c>
       <c r="I72" s="3">
-        <v>7449000</v>
+        <v>8145000</v>
       </c>
       <c r="J72" s="3">
+        <v>7218400</v>
+      </c>
+      <c r="K72" s="3">
         <v>130400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>122400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>107600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>94100</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9864500</v>
+        <v>9433800</v>
       </c>
       <c r="E76" s="3">
-        <v>8456100</v>
+        <v>9559100</v>
       </c>
       <c r="F76" s="3">
-        <v>8391300</v>
+        <v>8194300</v>
       </c>
       <c r="G76" s="3">
-        <v>8388100</v>
+        <v>8131500</v>
       </c>
       <c r="H76" s="3">
-        <v>8912500</v>
+        <v>8128400</v>
       </c>
       <c r="I76" s="3">
-        <v>7981800</v>
+        <v>8636500</v>
       </c>
       <c r="J76" s="3">
+        <v>7734700</v>
+      </c>
+      <c r="K76" s="3">
         <v>113200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>109200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>102900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>95100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2500100</v>
+        <v>2768200</v>
       </c>
       <c r="E81" s="3">
-        <v>2143900</v>
+        <v>2422700</v>
       </c>
       <c r="F81" s="3">
-        <v>1990200</v>
+        <v>2077600</v>
       </c>
       <c r="G81" s="3">
-        <v>2070900</v>
+        <v>1928600</v>
       </c>
       <c r="H81" s="3">
-        <v>1854400</v>
+        <v>2006800</v>
       </c>
       <c r="I81" s="3">
-        <v>1743000</v>
+        <v>1797000</v>
       </c>
       <c r="J81" s="3">
+        <v>1689100</v>
+      </c>
+      <c r="K81" s="3">
         <v>26000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>373800</v>
+        <v>435200</v>
       </c>
       <c r="E83" s="3">
-        <v>259800</v>
+        <v>409000</v>
       </c>
       <c r="F83" s="3">
-        <v>240700</v>
+        <v>362200</v>
       </c>
       <c r="G83" s="3">
-        <v>220000</v>
+        <v>251800</v>
       </c>
       <c r="H83" s="3">
-        <v>188500</v>
+        <v>233200</v>
       </c>
       <c r="I83" s="3">
-        <v>138100</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>213200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>182700</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>189100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2397600</v>
+        <v>3125500</v>
       </c>
       <c r="E89" s="3">
-        <v>2047000</v>
+        <v>3020700</v>
       </c>
       <c r="F89" s="3">
-        <v>1881000</v>
+        <v>2323300</v>
       </c>
       <c r="G89" s="3">
-        <v>1816900</v>
+        <v>1983700</v>
       </c>
       <c r="H89" s="3">
-        <v>1581800</v>
+        <v>1822800</v>
       </c>
       <c r="I89" s="3">
-        <v>1389200</v>
+        <v>1760700</v>
       </c>
       <c r="J89" s="3">
+        <v>1532800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1574600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1676900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-427300</v>
+        <v>-270600</v>
       </c>
       <c r="E91" s="3">
-        <v>-315900</v>
+        <v>-263800</v>
       </c>
       <c r="F91" s="3">
-        <v>-258100</v>
+        <v>-414000</v>
       </c>
       <c r="G91" s="3">
-        <v>-356600</v>
+        <v>-306100</v>
       </c>
       <c r="H91" s="3">
-        <v>-351800</v>
+        <v>-250100</v>
       </c>
       <c r="I91" s="3">
-        <v>-290300</v>
+        <v>-345600</v>
       </c>
       <c r="J91" s="3">
+        <v>-340900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-354700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-377700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-231700</v>
+        <v>-938400</v>
       </c>
       <c r="E94" s="3">
-        <v>-203900</v>
+        <v>-1046500</v>
       </c>
       <c r="F94" s="3">
-        <v>401900</v>
+        <v>-224500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2206000</v>
+        <v>-197600</v>
       </c>
       <c r="H94" s="3">
-        <v>-402600</v>
+        <v>389500</v>
       </c>
       <c r="I94" s="3">
-        <v>-165200</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-2137700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-390100</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-688400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1229300</v>
+        <v>-1584000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1770700</v>
+        <v>-1141400</v>
       </c>
       <c r="F96" s="3">
-        <v>-964300</v>
+        <v>-1191300</v>
       </c>
       <c r="G96" s="3">
-        <v>-896500</v>
+        <v>-1715900</v>
       </c>
       <c r="H96" s="3">
-        <v>-880200</v>
+        <v>-934500</v>
       </c>
       <c r="I96" s="3">
-        <v>-637600</v>
+        <v>-868800</v>
       </c>
       <c r="J96" s="3">
+        <v>-853000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-347000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-369600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-7200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2272800</v>
+        <v>-3085200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1875000</v>
+        <v>-1225200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2649200</v>
+        <v>-2202400</v>
       </c>
       <c r="G100" s="3">
-        <v>-896500</v>
+        <v>-1816900</v>
       </c>
       <c r="H100" s="3">
-        <v>-880200</v>
+        <v>-2567200</v>
       </c>
       <c r="I100" s="3">
-        <v>-637600</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-868800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-853000</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-432500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11900</v>
+        <v>-8600</v>
       </c>
       <c r="E101" s="3">
-        <v>-7400</v>
+        <v>10400</v>
       </c>
       <c r="F101" s="3">
-        <v>10500</v>
+        <v>-11500</v>
       </c>
       <c r="G101" s="3">
-        <v>-15800</v>
+        <v>-7100</v>
       </c>
       <c r="H101" s="3">
-        <v>2100</v>
+        <v>10100</v>
       </c>
       <c r="I101" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-15300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6400</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-118700</v>
+        <v>-906700</v>
       </c>
       <c r="E102" s="3">
-        <v>-39100</v>
+        <v>759300</v>
       </c>
       <c r="F102" s="3">
-        <v>-355800</v>
+        <v>-115100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1301300</v>
+        <v>-37900</v>
       </c>
       <c r="H102" s="3">
-        <v>301000</v>
+        <v>-344800</v>
       </c>
       <c r="I102" s="3">
-        <v>570700</v>
+        <v>-1261000</v>
       </c>
       <c r="J102" s="3">
+        <v>291700</v>
+      </c>
+      <c r="K102" s="3">
         <v>532000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>566600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15229500</v>
+        <v>15083500</v>
       </c>
       <c r="E8" s="3">
-        <v>12579100</v>
+        <v>12458500</v>
       </c>
       <c r="F8" s="3">
-        <v>11367000</v>
+        <v>11258100</v>
       </c>
       <c r="G8" s="3">
-        <v>10350900</v>
+        <v>10251700</v>
       </c>
       <c r="H8" s="3">
-        <v>8829400</v>
+        <v>8744700</v>
       </c>
       <c r="I8" s="3">
-        <v>8574200</v>
+        <v>8492000</v>
       </c>
       <c r="J8" s="3">
-        <v>7817600</v>
+        <v>7742700</v>
       </c>
       <c r="K8" s="3">
         <v>112500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10266100</v>
+        <v>10167800</v>
       </c>
       <c r="E9" s="3">
-        <v>8189700</v>
+        <v>8111200</v>
       </c>
       <c r="F9" s="3">
-        <v>7603600</v>
+        <v>7530800</v>
       </c>
       <c r="G9" s="3">
-        <v>6744100</v>
+        <v>6679500</v>
       </c>
       <c r="H9" s="3">
-        <v>5650300</v>
+        <v>5596100</v>
       </c>
       <c r="I9" s="3">
-        <v>5415300</v>
+        <v>5363400</v>
       </c>
       <c r="J9" s="3">
-        <v>4876400</v>
+        <v>4829700</v>
       </c>
       <c r="K9" s="3">
         <v>68900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4963300</v>
+        <v>4915700</v>
       </c>
       <c r="E10" s="3">
-        <v>4389400</v>
+        <v>4347300</v>
       </c>
       <c r="F10" s="3">
-        <v>3763400</v>
+        <v>3727300</v>
       </c>
       <c r="G10" s="3">
-        <v>3606800</v>
+        <v>3572200</v>
       </c>
       <c r="H10" s="3">
-        <v>3179100</v>
+        <v>3148600</v>
       </c>
       <c r="I10" s="3">
-        <v>3158900</v>
+        <v>3128600</v>
       </c>
       <c r="J10" s="3">
-        <v>2941200</v>
+        <v>2913000</v>
       </c>
       <c r="K10" s="3">
         <v>43600</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F14" s="3">
         <v>21300</v>
       </c>
-      <c r="E14" s="3">
-        <v>23800</v>
-      </c>
-      <c r="F14" s="3">
-        <v>21500</v>
-      </c>
       <c r="G14" s="3">
-        <v>121300</v>
+        <v>120200</v>
       </c>
       <c r="H14" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="I14" s="3">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="J14" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="K14" s="3">
         <v>500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11722000</v>
+        <v>11609600</v>
       </c>
       <c r="E17" s="3">
-        <v>9496400</v>
+        <v>9405400</v>
       </c>
       <c r="F17" s="3">
-        <v>8941400</v>
+        <v>8855700</v>
       </c>
       <c r="G17" s="3">
-        <v>8077400</v>
+        <v>8000000</v>
       </c>
       <c r="H17" s="3">
-        <v>6697200</v>
+        <v>6633000</v>
       </c>
       <c r="I17" s="3">
-        <v>6458200</v>
+        <v>6396300</v>
       </c>
       <c r="J17" s="3">
-        <v>5862000</v>
+        <v>5805800</v>
       </c>
       <c r="K17" s="3">
         <v>83400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3507500</v>
+        <v>3473900</v>
       </c>
       <c r="E18" s="3">
-        <v>3082700</v>
+        <v>3053100</v>
       </c>
       <c r="F18" s="3">
-        <v>2425600</v>
+        <v>2402400</v>
       </c>
       <c r="G18" s="3">
-        <v>2273500</v>
+        <v>2251700</v>
       </c>
       <c r="H18" s="3">
-        <v>2132200</v>
+        <v>2111700</v>
       </c>
       <c r="I18" s="3">
-        <v>2116000</v>
+        <v>2095700</v>
       </c>
       <c r="J18" s="3">
-        <v>1955600</v>
+        <v>1936900</v>
       </c>
       <c r="K18" s="3">
         <v>29200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>284200</v>
+        <v>281500</v>
       </c>
       <c r="E20" s="3">
-        <v>273200</v>
+        <v>270600</v>
       </c>
       <c r="F20" s="3">
-        <v>350900</v>
+        <v>347600</v>
       </c>
       <c r="G20" s="3">
-        <v>360800</v>
+        <v>357400</v>
       </c>
       <c r="H20" s="3">
-        <v>405600</v>
+        <v>401800</v>
       </c>
       <c r="I20" s="3">
-        <v>381900</v>
+        <v>378200</v>
       </c>
       <c r="J20" s="3">
-        <v>390900</v>
+        <v>387100</v>
       </c>
       <c r="K20" s="3">
         <v>7200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4227200</v>
+        <v>4182500</v>
       </c>
       <c r="E21" s="3">
-        <v>3765200</v>
+        <v>3725200</v>
       </c>
       <c r="F21" s="3">
-        <v>3139100</v>
+        <v>3105500</v>
       </c>
       <c r="G21" s="3">
-        <v>2886300</v>
+        <v>2856200</v>
       </c>
       <c r="H21" s="3">
-        <v>2771200</v>
+        <v>2742400</v>
       </c>
       <c r="I21" s="3">
-        <v>2711300</v>
+        <v>2683200</v>
       </c>
       <c r="J21" s="3">
-        <v>2529300</v>
+        <v>2503300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,13 +1200,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="E22" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="F22" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3769800</v>
+        <v>3733600</v>
       </c>
       <c r="E23" s="3">
-        <v>3333800</v>
+        <v>3301900</v>
       </c>
       <c r="F23" s="3">
-        <v>2755300</v>
+        <v>2728900</v>
       </c>
       <c r="G23" s="3">
-        <v>2634300</v>
+        <v>2609100</v>
       </c>
       <c r="H23" s="3">
-        <v>2537800</v>
+        <v>2513500</v>
       </c>
       <c r="I23" s="3">
-        <v>2497900</v>
+        <v>2473900</v>
       </c>
       <c r="J23" s="3">
-        <v>2346500</v>
+        <v>2324000</v>
       </c>
       <c r="K23" s="3">
         <v>36400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>997100</v>
+        <v>987500</v>
       </c>
       <c r="E24" s="3">
-        <v>902100</v>
+        <v>893400</v>
       </c>
       <c r="F24" s="3">
-        <v>672100</v>
+        <v>665600</v>
       </c>
       <c r="G24" s="3">
-        <v>705000</v>
+        <v>698200</v>
       </c>
       <c r="H24" s="3">
-        <v>531000</v>
+        <v>525900</v>
       </c>
       <c r="I24" s="3">
-        <v>700900</v>
+        <v>694200</v>
       </c>
       <c r="J24" s="3">
-        <v>657400</v>
+        <v>651100</v>
       </c>
       <c r="K24" s="3">
         <v>10400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2772700</v>
+        <v>2746100</v>
       </c>
       <c r="E26" s="3">
-        <v>2431800</v>
+        <v>2408500</v>
       </c>
       <c r="F26" s="3">
-        <v>2083200</v>
+        <v>2063200</v>
       </c>
       <c r="G26" s="3">
-        <v>1929300</v>
+        <v>1910800</v>
       </c>
       <c r="H26" s="3">
-        <v>2006800</v>
+        <v>1987600</v>
       </c>
       <c r="I26" s="3">
-        <v>1797000</v>
+        <v>1779800</v>
       </c>
       <c r="J26" s="3">
-        <v>1689100</v>
+        <v>1672900</v>
       </c>
       <c r="K26" s="3">
         <v>26000</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2768200</v>
+        <v>2741600</v>
       </c>
       <c r="E27" s="3">
-        <v>2422700</v>
+        <v>2399500</v>
       </c>
       <c r="F27" s="3">
-        <v>2077600</v>
+        <v>2057700</v>
       </c>
       <c r="G27" s="3">
-        <v>1928600</v>
+        <v>1910100</v>
       </c>
       <c r="H27" s="3">
-        <v>2006800</v>
+        <v>1987600</v>
       </c>
       <c r="I27" s="3">
-        <v>1797000</v>
+        <v>1779800</v>
       </c>
       <c r="J27" s="3">
-        <v>1689100</v>
+        <v>1672900</v>
       </c>
       <c r="K27" s="3">
         <v>26000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-284200</v>
+        <v>-281500</v>
       </c>
       <c r="E32" s="3">
-        <v>-273200</v>
+        <v>-270600</v>
       </c>
       <c r="F32" s="3">
-        <v>-350900</v>
+        <v>-347600</v>
       </c>
       <c r="G32" s="3">
-        <v>-360800</v>
+        <v>-357400</v>
       </c>
       <c r="H32" s="3">
-        <v>-405600</v>
+        <v>-401800</v>
       </c>
       <c r="I32" s="3">
-        <v>-381900</v>
+        <v>-378200</v>
       </c>
       <c r="J32" s="3">
-        <v>-390900</v>
+        <v>-387100</v>
       </c>
       <c r="K32" s="3">
         <v>-7200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2768200</v>
+        <v>2741600</v>
       </c>
       <c r="E33" s="3">
-        <v>2422700</v>
+        <v>2399500</v>
       </c>
       <c r="F33" s="3">
-        <v>2077600</v>
+        <v>2057700</v>
       </c>
       <c r="G33" s="3">
-        <v>1928600</v>
+        <v>1910100</v>
       </c>
       <c r="H33" s="3">
-        <v>2006800</v>
+        <v>1987600</v>
       </c>
       <c r="I33" s="3">
-        <v>1797000</v>
+        <v>1779800</v>
       </c>
       <c r="J33" s="3">
-        <v>1689100</v>
+        <v>1672900</v>
       </c>
       <c r="K33" s="3">
         <v>26000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2768200</v>
+        <v>2741600</v>
       </c>
       <c r="E35" s="3">
-        <v>2422700</v>
+        <v>2399500</v>
       </c>
       <c r="F35" s="3">
-        <v>2077600</v>
+        <v>2057700</v>
       </c>
       <c r="G35" s="3">
-        <v>1928600</v>
+        <v>1910100</v>
       </c>
       <c r="H35" s="3">
-        <v>2006800</v>
+        <v>1987600</v>
       </c>
       <c r="I35" s="3">
-        <v>1797000</v>
+        <v>1779800</v>
       </c>
       <c r="J35" s="3">
-        <v>1689100</v>
+        <v>1672900</v>
       </c>
       <c r="K35" s="3">
         <v>26000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1686600</v>
+        <v>1670400</v>
       </c>
       <c r="E41" s="3">
-        <v>2449500</v>
+        <v>2426100</v>
       </c>
       <c r="F41" s="3">
-        <v>1488900</v>
+        <v>1474600</v>
       </c>
       <c r="G41" s="3">
-        <v>1732600</v>
+        <v>1716000</v>
       </c>
       <c r="H41" s="3">
-        <v>1581900</v>
+        <v>1566700</v>
       </c>
       <c r="I41" s="3">
-        <v>1792500</v>
+        <v>1775300</v>
       </c>
       <c r="J41" s="3">
-        <v>3371400</v>
+        <v>3339100</v>
       </c>
       <c r="K41" s="3">
         <v>53400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1311300</v>
+        <v>1298800</v>
       </c>
       <c r="E42" s="3">
-        <v>874800</v>
+        <v>866400</v>
       </c>
       <c r="F42" s="3">
-        <v>1379200</v>
+        <v>1366000</v>
       </c>
       <c r="G42" s="3">
-        <v>1502100</v>
+        <v>1487800</v>
       </c>
       <c r="H42" s="3">
-        <v>1634700</v>
+        <v>1619100</v>
       </c>
       <c r="I42" s="3">
-        <v>2216800</v>
+        <v>2195500</v>
       </c>
       <c r="J42" s="3">
-        <v>670100</v>
+        <v>663600</v>
       </c>
       <c r="K42" s="3">
         <v>10400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4664100</v>
+        <v>4619400</v>
       </c>
       <c r="E43" s="3">
-        <v>3718100</v>
+        <v>3682400</v>
       </c>
       <c r="F43" s="3">
-        <v>3495500</v>
+        <v>3462000</v>
       </c>
       <c r="G43" s="3">
-        <v>2912400</v>
+        <v>2884500</v>
       </c>
       <c r="H43" s="3">
-        <v>2433900</v>
+        <v>2410600</v>
       </c>
       <c r="I43" s="3">
-        <v>2341700</v>
+        <v>2319300</v>
       </c>
       <c r="J43" s="3">
-        <v>2149100</v>
+        <v>2128500</v>
       </c>
       <c r="K43" s="3">
         <v>30000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>749600</v>
+        <v>742400</v>
       </c>
       <c r="E45" s="3">
-        <v>561400</v>
+        <v>556000</v>
       </c>
       <c r="F45" s="3">
-        <v>469400</v>
+        <v>464900</v>
       </c>
       <c r="G45" s="3">
-        <v>473100</v>
+        <v>468600</v>
       </c>
       <c r="H45" s="3">
-        <v>611600</v>
+        <v>605700</v>
       </c>
       <c r="I45" s="3">
-        <v>372800</v>
+        <v>369300</v>
       </c>
       <c r="J45" s="3">
-        <v>281700</v>
+        <v>279000</v>
       </c>
       <c r="K45" s="3">
         <v>1400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8411600</v>
+        <v>8330900</v>
       </c>
       <c r="E46" s="3">
-        <v>7603800</v>
+        <v>7530900</v>
       </c>
       <c r="F46" s="3">
-        <v>6832900</v>
+        <v>6767400</v>
       </c>
       <c r="G46" s="3">
-        <v>6620300</v>
+        <v>6556900</v>
       </c>
       <c r="H46" s="3">
-        <v>6262100</v>
+        <v>6202100</v>
       </c>
       <c r="I46" s="3">
-        <v>6723900</v>
+        <v>6659400</v>
       </c>
       <c r="J46" s="3">
-        <v>6472200</v>
+        <v>6410200</v>
       </c>
       <c r="K46" s="3">
         <v>97600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2747400</v>
+        <v>2721100</v>
       </c>
       <c r="E47" s="3">
-        <v>2385600</v>
+        <v>2362700</v>
       </c>
       <c r="F47" s="3">
-        <v>1298200</v>
+        <v>1285800</v>
       </c>
       <c r="G47" s="3">
-        <v>1496600</v>
+        <v>1482300</v>
       </c>
       <c r="H47" s="3">
-        <v>1663900</v>
+        <v>1648000</v>
       </c>
       <c r="I47" s="3">
-        <v>1527200</v>
+        <v>1512600</v>
       </c>
       <c r="J47" s="3">
-        <v>897600</v>
+        <v>889000</v>
       </c>
       <c r="K47" s="3">
         <v>11500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2292900</v>
+        <v>2270900</v>
       </c>
       <c r="E48" s="3">
-        <v>2305800</v>
+        <v>2283700</v>
       </c>
       <c r="F48" s="3">
-        <v>2236900</v>
+        <v>2215500</v>
       </c>
       <c r="G48" s="3">
-        <v>1672200</v>
+        <v>1656100</v>
       </c>
       <c r="H48" s="3">
-        <v>1520300</v>
+        <v>1505700</v>
       </c>
       <c r="I48" s="3">
-        <v>1466800</v>
+        <v>1452800</v>
       </c>
       <c r="J48" s="3">
-        <v>1318400</v>
+        <v>1305700</v>
       </c>
       <c r="K48" s="3">
         <v>18900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>989300</v>
+        <v>979800</v>
       </c>
       <c r="E49" s="3">
-        <v>1020500</v>
+        <v>1010700</v>
       </c>
       <c r="F49" s="3">
-        <v>899700</v>
+        <v>891100</v>
       </c>
       <c r="G49" s="3">
-        <v>529700</v>
+        <v>524600</v>
       </c>
       <c r="H49" s="3">
-        <v>307700</v>
+        <v>304800</v>
       </c>
       <c r="I49" s="3">
-        <v>554400</v>
+        <v>549100</v>
       </c>
       <c r="J49" s="3">
-        <v>594600</v>
+        <v>588900</v>
       </c>
       <c r="K49" s="3">
         <v>7700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>318000</v>
+        <v>315000</v>
       </c>
       <c r="E52" s="3">
-        <v>254300</v>
+        <v>251800</v>
       </c>
       <c r="F52" s="3">
-        <v>346800</v>
+        <v>343500</v>
       </c>
       <c r="G52" s="3">
-        <v>290300</v>
+        <v>287600</v>
       </c>
       <c r="H52" s="3">
-        <v>248100</v>
+        <v>245800</v>
       </c>
       <c r="I52" s="3">
-        <v>163800</v>
+        <v>162200</v>
       </c>
       <c r="J52" s="3">
-        <v>156000</v>
+        <v>154500</v>
       </c>
       <c r="K52" s="3">
         <v>1500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14759200</v>
+        <v>14617700</v>
       </c>
       <c r="E54" s="3">
-        <v>13569900</v>
+        <v>13439900</v>
       </c>
       <c r="F54" s="3">
-        <v>11614600</v>
+        <v>11503200</v>
       </c>
       <c r="G54" s="3">
-        <v>10609200</v>
+        <v>10507500</v>
       </c>
       <c r="H54" s="3">
-        <v>10002200</v>
+        <v>9906400</v>
       </c>
       <c r="I54" s="3">
-        <v>10436000</v>
+        <v>10336000</v>
       </c>
       <c r="J54" s="3">
-        <v>9438700</v>
+        <v>9348200</v>
       </c>
       <c r="K54" s="3">
         <v>137100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>517600</v>
+        <v>512600</v>
       </c>
       <c r="E57" s="3">
-        <v>331200</v>
+        <v>328000</v>
       </c>
       <c r="F57" s="3">
-        <v>357100</v>
+        <v>353600</v>
       </c>
       <c r="G57" s="3">
-        <v>207200</v>
+        <v>205200</v>
       </c>
       <c r="H57" s="3">
-        <v>86900</v>
+        <v>86100</v>
       </c>
       <c r="I57" s="3">
-        <v>45900</v>
+        <v>45500</v>
       </c>
       <c r="J57" s="3">
-        <v>48300</v>
+        <v>47900</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2443,13 +2443,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>109200</v>
+        <v>108100</v>
       </c>
       <c r="E58" s="3">
-        <v>92400</v>
+        <v>91500</v>
       </c>
       <c r="F58" s="3">
-        <v>77500</v>
+        <v>76800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3580300</v>
+        <v>3546000</v>
       </c>
       <c r="E59" s="3">
-        <v>2564300</v>
+        <v>2539800</v>
       </c>
       <c r="F59" s="3">
-        <v>2176600</v>
+        <v>2155700</v>
       </c>
       <c r="G59" s="3">
-        <v>2126300</v>
+        <v>2105900</v>
       </c>
       <c r="H59" s="3">
-        <v>1679100</v>
+        <v>1663000</v>
       </c>
       <c r="I59" s="3">
-        <v>1708500</v>
+        <v>1692100</v>
       </c>
       <c r="J59" s="3">
-        <v>1609200</v>
+        <v>1593800</v>
       </c>
       <c r="K59" s="3">
         <v>23200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4207100</v>
+        <v>4166800</v>
       </c>
       <c r="E60" s="3">
-        <v>2987900</v>
+        <v>2959300</v>
       </c>
       <c r="F60" s="3">
-        <v>2611200</v>
+        <v>2586100</v>
       </c>
       <c r="G60" s="3">
-        <v>2333500</v>
+        <v>2311100</v>
       </c>
       <c r="H60" s="3">
-        <v>1765900</v>
+        <v>1749000</v>
       </c>
       <c r="I60" s="3">
-        <v>1754400</v>
+        <v>1737600</v>
       </c>
       <c r="J60" s="3">
-        <v>1657500</v>
+        <v>1641600</v>
       </c>
       <c r="K60" s="3">
         <v>23500</v>
@@ -2560,13 +2560,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>576200</v>
+        <v>570600</v>
       </c>
       <c r="E61" s="3">
-        <v>574300</v>
+        <v>568800</v>
       </c>
       <c r="F61" s="3">
-        <v>502600</v>
+        <v>497700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>493800</v>
+        <v>489100</v>
       </c>
       <c r="E62" s="3">
-        <v>394600</v>
+        <v>390800</v>
       </c>
       <c r="F62" s="3">
-        <v>257200</v>
+        <v>254700</v>
       </c>
       <c r="G62" s="3">
-        <v>137000</v>
+        <v>135700</v>
       </c>
       <c r="H62" s="3">
-        <v>107800</v>
+        <v>106800</v>
       </c>
       <c r="I62" s="3">
-        <v>45100</v>
+        <v>44600</v>
       </c>
       <c r="J62" s="3">
-        <v>46400</v>
+        <v>46000</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5325400</v>
+        <v>5274300</v>
       </c>
       <c r="E66" s="3">
-        <v>4010800</v>
+        <v>3972300</v>
       </c>
       <c r="F66" s="3">
-        <v>3420200</v>
+        <v>3387400</v>
       </c>
       <c r="G66" s="3">
-        <v>2477700</v>
+        <v>2454000</v>
       </c>
       <c r="H66" s="3">
-        <v>1873900</v>
+        <v>1855900</v>
       </c>
       <c r="I66" s="3">
-        <v>1799500</v>
+        <v>1782300</v>
       </c>
       <c r="J66" s="3">
-        <v>1704000</v>
+        <v>1687600</v>
       </c>
       <c r="K66" s="3">
         <v>23900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8987100</v>
+        <v>8901000</v>
       </c>
       <c r="E72" s="3">
-        <v>9001000</v>
+        <v>8914700</v>
       </c>
       <c r="F72" s="3">
-        <v>7723200</v>
+        <v>7649200</v>
       </c>
       <c r="G72" s="3">
-        <v>7697200</v>
+        <v>7623400</v>
       </c>
       <c r="H72" s="3">
-        <v>7872600</v>
+        <v>7797100</v>
       </c>
       <c r="I72" s="3">
-        <v>8145000</v>
+        <v>8066900</v>
       </c>
       <c r="J72" s="3">
-        <v>7218400</v>
+        <v>7149200</v>
       </c>
       <c r="K72" s="3">
         <v>130400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9433800</v>
+        <v>9343400</v>
       </c>
       <c r="E76" s="3">
-        <v>9559100</v>
+        <v>9467500</v>
       </c>
       <c r="F76" s="3">
-        <v>8194300</v>
+        <v>8115800</v>
       </c>
       <c r="G76" s="3">
-        <v>8131500</v>
+        <v>8053600</v>
       </c>
       <c r="H76" s="3">
-        <v>8128400</v>
+        <v>8050500</v>
       </c>
       <c r="I76" s="3">
-        <v>8636500</v>
+        <v>8553800</v>
       </c>
       <c r="J76" s="3">
-        <v>7734700</v>
+        <v>7660600</v>
       </c>
       <c r="K76" s="3">
         <v>113200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2768200</v>
+        <v>2741600</v>
       </c>
       <c r="E81" s="3">
-        <v>2422700</v>
+        <v>2399500</v>
       </c>
       <c r="F81" s="3">
-        <v>2077600</v>
+        <v>2057700</v>
       </c>
       <c r="G81" s="3">
-        <v>1928600</v>
+        <v>1910100</v>
       </c>
       <c r="H81" s="3">
-        <v>2006800</v>
+        <v>1987600</v>
       </c>
       <c r="I81" s="3">
-        <v>1797000</v>
+        <v>1779800</v>
       </c>
       <c r="J81" s="3">
-        <v>1689100</v>
+        <v>1672900</v>
       </c>
       <c r="K81" s="3">
         <v>26000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>435200</v>
+        <v>431000</v>
       </c>
       <c r="E83" s="3">
-        <v>409000</v>
+        <v>405100</v>
       </c>
       <c r="F83" s="3">
-        <v>362200</v>
+        <v>358700</v>
       </c>
       <c r="G83" s="3">
-        <v>251800</v>
+        <v>249400</v>
       </c>
       <c r="H83" s="3">
-        <v>233200</v>
+        <v>231000</v>
       </c>
       <c r="I83" s="3">
-        <v>213200</v>
+        <v>211200</v>
       </c>
       <c r="J83" s="3">
-        <v>182700</v>
+        <v>180900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3125500</v>
+        <v>2961700</v>
       </c>
       <c r="E89" s="3">
-        <v>3020700</v>
+        <v>2991700</v>
       </c>
       <c r="F89" s="3">
-        <v>2323300</v>
+        <v>2301100</v>
       </c>
       <c r="G89" s="3">
-        <v>1983700</v>
+        <v>1964700</v>
       </c>
       <c r="H89" s="3">
-        <v>1822800</v>
+        <v>1805300</v>
       </c>
       <c r="I89" s="3">
-        <v>1760700</v>
+        <v>1743800</v>
       </c>
       <c r="J89" s="3">
-        <v>1532800</v>
+        <v>1518100</v>
       </c>
       <c r="K89" s="3">
         <v>1574600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-270600</v>
+        <v>-268000</v>
       </c>
       <c r="E91" s="3">
-        <v>-263800</v>
+        <v>-261300</v>
       </c>
       <c r="F91" s="3">
-        <v>-414000</v>
+        <v>-410100</v>
       </c>
       <c r="G91" s="3">
-        <v>-306100</v>
+        <v>-303200</v>
       </c>
       <c r="H91" s="3">
-        <v>-250100</v>
+        <v>-247800</v>
       </c>
       <c r="I91" s="3">
-        <v>-345600</v>
+        <v>-342200</v>
       </c>
       <c r="J91" s="3">
-        <v>-340900</v>
+        <v>-337700</v>
       </c>
       <c r="K91" s="3">
         <v>-354700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-938400</v>
+        <v>-795600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1046500</v>
+        <v>-1036500</v>
       </c>
       <c r="F94" s="3">
-        <v>-224500</v>
+        <v>-222300</v>
       </c>
       <c r="G94" s="3">
-        <v>-197600</v>
+        <v>-195700</v>
       </c>
       <c r="H94" s="3">
-        <v>389500</v>
+        <v>385800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2137700</v>
+        <v>-2117200</v>
       </c>
       <c r="J94" s="3">
-        <v>-390100</v>
+        <v>-386400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1584000</v>
+        <v>-1568800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1141400</v>
+        <v>-1130500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1191300</v>
+        <v>-1179900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1715900</v>
+        <v>-1699400</v>
       </c>
       <c r="H96" s="3">
-        <v>-934500</v>
+        <v>-925500</v>
       </c>
       <c r="I96" s="3">
-        <v>-868800</v>
+        <v>-860400</v>
       </c>
       <c r="J96" s="3">
-        <v>-853000</v>
+        <v>-844800</v>
       </c>
       <c r="K96" s="3">
         <v>-347000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3085200</v>
+        <v>-3055600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1225200</v>
+        <v>-1213500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2202400</v>
+        <v>-2181300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1816900</v>
+        <v>-1799500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2567200</v>
+        <v>-2542600</v>
       </c>
       <c r="I100" s="3">
-        <v>-868800</v>
+        <v>-860400</v>
       </c>
       <c r="J100" s="3">
-        <v>-853000</v>
+        <v>-844800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3962,19 +3962,19 @@
         <v>-8600</v>
       </c>
       <c r="E101" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="F101" s="3">
-        <v>-11500</v>
+        <v>-11400</v>
       </c>
       <c r="G101" s="3">
         <v>-7100</v>
       </c>
       <c r="H101" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="I101" s="3">
-        <v>-15300</v>
+        <v>-15100</v>
       </c>
       <c r="J101" s="3">
         <v>2000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-906700</v>
+        <v>-898000</v>
       </c>
       <c r="E102" s="3">
-        <v>759300</v>
+        <v>752100</v>
       </c>
       <c r="F102" s="3">
-        <v>-115100</v>
+        <v>-114000</v>
       </c>
       <c r="G102" s="3">
-        <v>-37900</v>
+        <v>-37600</v>
       </c>
       <c r="H102" s="3">
-        <v>-344800</v>
+        <v>-341500</v>
       </c>
       <c r="I102" s="3">
-        <v>-1261000</v>
+        <v>-1248900</v>
       </c>
       <c r="J102" s="3">
-        <v>291700</v>
+        <v>288900</v>
       </c>
       <c r="K102" s="3">
         <v>532000</v>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15083500</v>
+        <v>14828000</v>
       </c>
       <c r="E8" s="3">
-        <v>12458500</v>
+        <v>12247500</v>
       </c>
       <c r="F8" s="3">
-        <v>11258100</v>
+        <v>11067400</v>
       </c>
       <c r="G8" s="3">
-        <v>10251700</v>
+        <v>10078100</v>
       </c>
       <c r="H8" s="3">
-        <v>8744700</v>
+        <v>8596600</v>
       </c>
       <c r="I8" s="3">
-        <v>8492000</v>
+        <v>8348200</v>
       </c>
       <c r="J8" s="3">
-        <v>7742700</v>
+        <v>7611600</v>
       </c>
       <c r="K8" s="3">
         <v>112500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10167800</v>
+        <v>9995600</v>
       </c>
       <c r="E9" s="3">
-        <v>8111200</v>
+        <v>7973800</v>
       </c>
       <c r="F9" s="3">
-        <v>7530800</v>
+        <v>7403200</v>
       </c>
       <c r="G9" s="3">
-        <v>6679500</v>
+        <v>6566400</v>
       </c>
       <c r="H9" s="3">
-        <v>5596100</v>
+        <v>5501300</v>
       </c>
       <c r="I9" s="3">
-        <v>5363400</v>
+        <v>5272500</v>
       </c>
       <c r="J9" s="3">
-        <v>4829700</v>
+        <v>4747900</v>
       </c>
       <c r="K9" s="3">
         <v>68900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4915700</v>
+        <v>4832500</v>
       </c>
       <c r="E10" s="3">
-        <v>4347300</v>
+        <v>4273700</v>
       </c>
       <c r="F10" s="3">
-        <v>3727300</v>
+        <v>3664200</v>
       </c>
       <c r="G10" s="3">
-        <v>3572200</v>
+        <v>3511700</v>
       </c>
       <c r="H10" s="3">
-        <v>3148600</v>
+        <v>3095300</v>
       </c>
       <c r="I10" s="3">
-        <v>3128600</v>
+        <v>3075700</v>
       </c>
       <c r="J10" s="3">
-        <v>2913000</v>
+        <v>2863700</v>
       </c>
       <c r="K10" s="3">
         <v>43600</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>21100</v>
+        <v>20700</v>
       </c>
       <c r="E14" s="3">
-        <v>23600</v>
+        <v>23200</v>
       </c>
       <c r="F14" s="3">
-        <v>21300</v>
+        <v>21000</v>
       </c>
       <c r="G14" s="3">
-        <v>120200</v>
+        <v>118100</v>
       </c>
       <c r="H14" s="3">
-        <v>23400</v>
+        <v>23000</v>
       </c>
       <c r="I14" s="3">
-        <v>17400</v>
+        <v>17100</v>
       </c>
       <c r="J14" s="3">
-        <v>18500</v>
+        <v>18200</v>
       </c>
       <c r="K14" s="3">
         <v>500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11609600</v>
+        <v>11413000</v>
       </c>
       <c r="E17" s="3">
-        <v>9405400</v>
+        <v>9246100</v>
       </c>
       <c r="F17" s="3">
-        <v>8855700</v>
+        <v>8705700</v>
       </c>
       <c r="G17" s="3">
-        <v>8000000</v>
+        <v>7864500</v>
       </c>
       <c r="H17" s="3">
-        <v>6633000</v>
+        <v>6520700</v>
       </c>
       <c r="I17" s="3">
-        <v>6396300</v>
+        <v>6288000</v>
       </c>
       <c r="J17" s="3">
-        <v>5805800</v>
+        <v>5707500</v>
       </c>
       <c r="K17" s="3">
         <v>83400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3473900</v>
+        <v>3415000</v>
       </c>
       <c r="E18" s="3">
-        <v>3053100</v>
+        <v>3001400</v>
       </c>
       <c r="F18" s="3">
-        <v>2402400</v>
+        <v>2361700</v>
       </c>
       <c r="G18" s="3">
-        <v>2251700</v>
+        <v>2213600</v>
       </c>
       <c r="H18" s="3">
-        <v>2111700</v>
+        <v>2076000</v>
       </c>
       <c r="I18" s="3">
-        <v>2095700</v>
+        <v>2060200</v>
       </c>
       <c r="J18" s="3">
-        <v>1936900</v>
+        <v>1904100</v>
       </c>
       <c r="K18" s="3">
         <v>29200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>281500</v>
+        <v>276700</v>
       </c>
       <c r="E20" s="3">
-        <v>270600</v>
+        <v>266000</v>
       </c>
       <c r="F20" s="3">
-        <v>347600</v>
+        <v>341700</v>
       </c>
       <c r="G20" s="3">
-        <v>357400</v>
+        <v>351300</v>
       </c>
       <c r="H20" s="3">
-        <v>401800</v>
+        <v>395000</v>
       </c>
       <c r="I20" s="3">
-        <v>378200</v>
+        <v>371800</v>
       </c>
       <c r="J20" s="3">
-        <v>387100</v>
+        <v>380600</v>
       </c>
       <c r="K20" s="3">
         <v>7200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4182500</v>
+        <v>4115800</v>
       </c>
       <c r="E21" s="3">
-        <v>3725200</v>
+        <v>3666000</v>
       </c>
       <c r="F21" s="3">
-        <v>3105500</v>
+        <v>3056300</v>
       </c>
       <c r="G21" s="3">
-        <v>2856200</v>
+        <v>2810200</v>
       </c>
       <c r="H21" s="3">
-        <v>2742400</v>
+        <v>2698200</v>
       </c>
       <c r="I21" s="3">
-        <v>2683200</v>
+        <v>2639800</v>
       </c>
       <c r="J21" s="3">
-        <v>2503300</v>
+        <v>2462600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,13 +1200,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21700</v>
+        <v>21300</v>
       </c>
       <c r="E22" s="3">
-        <v>21800</v>
+        <v>21500</v>
       </c>
       <c r="F22" s="3">
-        <v>21100</v>
+        <v>20700</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3733600</v>
+        <v>3670400</v>
       </c>
       <c r="E23" s="3">
-        <v>3301900</v>
+        <v>3246000</v>
       </c>
       <c r="F23" s="3">
-        <v>2728900</v>
+        <v>2682700</v>
       </c>
       <c r="G23" s="3">
-        <v>2609100</v>
+        <v>2564900</v>
       </c>
       <c r="H23" s="3">
-        <v>2513500</v>
+        <v>2470900</v>
       </c>
       <c r="I23" s="3">
-        <v>2473900</v>
+        <v>2432000</v>
       </c>
       <c r="J23" s="3">
-        <v>2324000</v>
+        <v>2284600</v>
       </c>
       <c r="K23" s="3">
         <v>36400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>987500</v>
+        <v>970800</v>
       </c>
       <c r="E24" s="3">
-        <v>893400</v>
+        <v>878300</v>
       </c>
       <c r="F24" s="3">
-        <v>665600</v>
+        <v>654400</v>
       </c>
       <c r="G24" s="3">
-        <v>698200</v>
+        <v>686400</v>
       </c>
       <c r="H24" s="3">
-        <v>525900</v>
+        <v>517000</v>
       </c>
       <c r="I24" s="3">
-        <v>694200</v>
+        <v>682400</v>
       </c>
       <c r="J24" s="3">
-        <v>651100</v>
+        <v>640100</v>
       </c>
       <c r="K24" s="3">
         <v>10400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2746100</v>
+        <v>2699600</v>
       </c>
       <c r="E26" s="3">
-        <v>2408500</v>
+        <v>2367700</v>
       </c>
       <c r="F26" s="3">
-        <v>2063200</v>
+        <v>2028300</v>
       </c>
       <c r="G26" s="3">
-        <v>1910800</v>
+        <v>1878500</v>
       </c>
       <c r="H26" s="3">
-        <v>1987600</v>
+        <v>1953900</v>
       </c>
       <c r="I26" s="3">
-        <v>1779800</v>
+        <v>1749600</v>
       </c>
       <c r="J26" s="3">
-        <v>1672900</v>
+        <v>1644600</v>
       </c>
       <c r="K26" s="3">
         <v>26000</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2741600</v>
+        <v>2695200</v>
       </c>
       <c r="E27" s="3">
-        <v>2399500</v>
+        <v>2358900</v>
       </c>
       <c r="F27" s="3">
-        <v>2057700</v>
+        <v>2022800</v>
       </c>
       <c r="G27" s="3">
-        <v>1910100</v>
+        <v>1877700</v>
       </c>
       <c r="H27" s="3">
-        <v>1987600</v>
+        <v>1953900</v>
       </c>
       <c r="I27" s="3">
-        <v>1779800</v>
+        <v>1749600</v>
       </c>
       <c r="J27" s="3">
-        <v>1672900</v>
+        <v>1644600</v>
       </c>
       <c r="K27" s="3">
         <v>26000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-281500</v>
+        <v>-276700</v>
       </c>
       <c r="E32" s="3">
-        <v>-270600</v>
+        <v>-266000</v>
       </c>
       <c r="F32" s="3">
-        <v>-347600</v>
+        <v>-341700</v>
       </c>
       <c r="G32" s="3">
-        <v>-357400</v>
+        <v>-351300</v>
       </c>
       <c r="H32" s="3">
-        <v>-401800</v>
+        <v>-395000</v>
       </c>
       <c r="I32" s="3">
-        <v>-378200</v>
+        <v>-371800</v>
       </c>
       <c r="J32" s="3">
-        <v>-387100</v>
+        <v>-380600</v>
       </c>
       <c r="K32" s="3">
         <v>-7200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2741600</v>
+        <v>2695200</v>
       </c>
       <c r="E33" s="3">
-        <v>2399500</v>
+        <v>2358900</v>
       </c>
       <c r="F33" s="3">
-        <v>2057700</v>
+        <v>2022800</v>
       </c>
       <c r="G33" s="3">
-        <v>1910100</v>
+        <v>1877700</v>
       </c>
       <c r="H33" s="3">
-        <v>1987600</v>
+        <v>1953900</v>
       </c>
       <c r="I33" s="3">
-        <v>1779800</v>
+        <v>1749600</v>
       </c>
       <c r="J33" s="3">
-        <v>1672900</v>
+        <v>1644600</v>
       </c>
       <c r="K33" s="3">
         <v>26000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2741600</v>
+        <v>2695200</v>
       </c>
       <c r="E35" s="3">
-        <v>2399500</v>
+        <v>2358900</v>
       </c>
       <c r="F35" s="3">
-        <v>2057700</v>
+        <v>2022800</v>
       </c>
       <c r="G35" s="3">
-        <v>1910100</v>
+        <v>1877700</v>
       </c>
       <c r="H35" s="3">
-        <v>1987600</v>
+        <v>1953900</v>
       </c>
       <c r="I35" s="3">
-        <v>1779800</v>
+        <v>1749600</v>
       </c>
       <c r="J35" s="3">
-        <v>1672900</v>
+        <v>1644600</v>
       </c>
       <c r="K35" s="3">
         <v>26000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1670400</v>
+        <v>1642100</v>
       </c>
       <c r="E41" s="3">
-        <v>2426100</v>
+        <v>2385000</v>
       </c>
       <c r="F41" s="3">
-        <v>1474600</v>
+        <v>1449600</v>
       </c>
       <c r="G41" s="3">
-        <v>1716000</v>
+        <v>1687000</v>
       </c>
       <c r="H41" s="3">
-        <v>1566700</v>
+        <v>1540200</v>
       </c>
       <c r="I41" s="3">
-        <v>1775300</v>
+        <v>1745200</v>
       </c>
       <c r="J41" s="3">
-        <v>3339100</v>
+        <v>3282500</v>
       </c>
       <c r="K41" s="3">
         <v>53400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1298800</v>
+        <v>1276800</v>
       </c>
       <c r="E42" s="3">
-        <v>866400</v>
+        <v>851700</v>
       </c>
       <c r="F42" s="3">
-        <v>1366000</v>
+        <v>1342900</v>
       </c>
       <c r="G42" s="3">
-        <v>1487800</v>
+        <v>1462600</v>
       </c>
       <c r="H42" s="3">
-        <v>1619100</v>
+        <v>1591600</v>
       </c>
       <c r="I42" s="3">
-        <v>2195500</v>
+        <v>2158400</v>
       </c>
       <c r="J42" s="3">
-        <v>663600</v>
+        <v>652400</v>
       </c>
       <c r="K42" s="3">
         <v>10400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4619400</v>
+        <v>4501500</v>
       </c>
       <c r="E43" s="3">
-        <v>3682400</v>
+        <v>3620100</v>
       </c>
       <c r="F43" s="3">
-        <v>3462000</v>
+        <v>3403300</v>
       </c>
       <c r="G43" s="3">
-        <v>2884500</v>
+        <v>2835600</v>
       </c>
       <c r="H43" s="3">
-        <v>2410600</v>
+        <v>2369700</v>
       </c>
       <c r="I43" s="3">
-        <v>2319300</v>
+        <v>2280000</v>
       </c>
       <c r="J43" s="3">
-        <v>2128500</v>
+        <v>2092400</v>
       </c>
       <c r="K43" s="3">
         <v>30000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>742400</v>
+        <v>769400</v>
       </c>
       <c r="E45" s="3">
-        <v>556000</v>
+        <v>546600</v>
       </c>
       <c r="F45" s="3">
-        <v>464900</v>
+        <v>457000</v>
       </c>
       <c r="G45" s="3">
-        <v>468600</v>
+        <v>460700</v>
       </c>
       <c r="H45" s="3">
-        <v>605700</v>
+        <v>595500</v>
       </c>
       <c r="I45" s="3">
-        <v>369300</v>
+        <v>363000</v>
       </c>
       <c r="J45" s="3">
-        <v>279000</v>
+        <v>274300</v>
       </c>
       <c r="K45" s="3">
         <v>1400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8330900</v>
+        <v>8189900</v>
       </c>
       <c r="E46" s="3">
-        <v>7530900</v>
+        <v>7403400</v>
       </c>
       <c r="F46" s="3">
-        <v>6767400</v>
+        <v>6652800</v>
       </c>
       <c r="G46" s="3">
-        <v>6556900</v>
+        <v>6445800</v>
       </c>
       <c r="H46" s="3">
-        <v>6202100</v>
+        <v>6097100</v>
       </c>
       <c r="I46" s="3">
-        <v>6659400</v>
+        <v>6546600</v>
       </c>
       <c r="J46" s="3">
-        <v>6410200</v>
+        <v>6301600</v>
       </c>
       <c r="K46" s="3">
         <v>97600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2721100</v>
+        <v>2675000</v>
       </c>
       <c r="E47" s="3">
-        <v>2362700</v>
+        <v>2322700</v>
       </c>
       <c r="F47" s="3">
-        <v>1285800</v>
+        <v>1264000</v>
       </c>
       <c r="G47" s="3">
-        <v>1482300</v>
+        <v>1457200</v>
       </c>
       <c r="H47" s="3">
-        <v>1648000</v>
+        <v>1620100</v>
       </c>
       <c r="I47" s="3">
-        <v>1512600</v>
+        <v>1486900</v>
       </c>
       <c r="J47" s="3">
-        <v>889000</v>
+        <v>873900</v>
       </c>
       <c r="K47" s="3">
         <v>11500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2270900</v>
+        <v>2232500</v>
       </c>
       <c r="E48" s="3">
-        <v>2283700</v>
+        <v>2245000</v>
       </c>
       <c r="F48" s="3">
-        <v>2215500</v>
+        <v>2178000</v>
       </c>
       <c r="G48" s="3">
-        <v>1656100</v>
+        <v>1628100</v>
       </c>
       <c r="H48" s="3">
-        <v>1505700</v>
+        <v>1480200</v>
       </c>
       <c r="I48" s="3">
-        <v>1452800</v>
+        <v>1428200</v>
       </c>
       <c r="J48" s="3">
-        <v>1305700</v>
+        <v>1283600</v>
       </c>
       <c r="K48" s="3">
         <v>18900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>979800</v>
+        <v>963300</v>
       </c>
       <c r="E49" s="3">
-        <v>1010700</v>
+        <v>993600</v>
       </c>
       <c r="F49" s="3">
-        <v>891100</v>
+        <v>876000</v>
       </c>
       <c r="G49" s="3">
-        <v>524600</v>
+        <v>515800</v>
       </c>
       <c r="H49" s="3">
-        <v>304800</v>
+        <v>299600</v>
       </c>
       <c r="I49" s="3">
-        <v>549100</v>
+        <v>539800</v>
       </c>
       <c r="J49" s="3">
-        <v>588900</v>
+        <v>578900</v>
       </c>
       <c r="K49" s="3">
         <v>7700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>315000</v>
+        <v>309600</v>
       </c>
       <c r="E52" s="3">
-        <v>251800</v>
+        <v>247600</v>
       </c>
       <c r="F52" s="3">
-        <v>343500</v>
+        <v>337700</v>
       </c>
       <c r="G52" s="3">
-        <v>287600</v>
+        <v>282700</v>
       </c>
       <c r="H52" s="3">
-        <v>245800</v>
+        <v>241600</v>
       </c>
       <c r="I52" s="3">
-        <v>162200</v>
+        <v>159400</v>
       </c>
       <c r="J52" s="3">
-        <v>154500</v>
+        <v>151900</v>
       </c>
       <c r="K52" s="3">
         <v>1500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14617700</v>
+        <v>14370200</v>
       </c>
       <c r="E54" s="3">
-        <v>13439900</v>
+        <v>13212300</v>
       </c>
       <c r="F54" s="3">
-        <v>11503200</v>
+        <v>11308400</v>
       </c>
       <c r="G54" s="3">
-        <v>10507500</v>
+        <v>10329600</v>
       </c>
       <c r="H54" s="3">
-        <v>9906400</v>
+        <v>9738600</v>
       </c>
       <c r="I54" s="3">
-        <v>10336000</v>
+        <v>10161000</v>
       </c>
       <c r="J54" s="3">
-        <v>9348200</v>
+        <v>9189900</v>
       </c>
       <c r="K54" s="3">
         <v>137100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>512600</v>
+        <v>503900</v>
       </c>
       <c r="E57" s="3">
-        <v>328000</v>
+        <v>322400</v>
       </c>
       <c r="F57" s="3">
-        <v>353600</v>
+        <v>347700</v>
       </c>
       <c r="G57" s="3">
-        <v>205200</v>
+        <v>201700</v>
       </c>
       <c r="H57" s="3">
-        <v>86100</v>
+        <v>84600</v>
       </c>
       <c r="I57" s="3">
-        <v>45500</v>
+        <v>44700</v>
       </c>
       <c r="J57" s="3">
-        <v>47900</v>
+        <v>47100</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2443,13 +2443,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>108100</v>
+        <v>106300</v>
       </c>
       <c r="E58" s="3">
-        <v>91500</v>
+        <v>90000</v>
       </c>
       <c r="F58" s="3">
-        <v>76800</v>
+        <v>75500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3546000</v>
+        <v>3486000</v>
       </c>
       <c r="E59" s="3">
-        <v>2539800</v>
+        <v>2496800</v>
       </c>
       <c r="F59" s="3">
-        <v>2155700</v>
+        <v>2119200</v>
       </c>
       <c r="G59" s="3">
-        <v>2105900</v>
+        <v>2070200</v>
       </c>
       <c r="H59" s="3">
-        <v>1663000</v>
+        <v>1634800</v>
       </c>
       <c r="I59" s="3">
-        <v>1692100</v>
+        <v>1663400</v>
       </c>
       <c r="J59" s="3">
-        <v>1593800</v>
+        <v>1566800</v>
       </c>
       <c r="K59" s="3">
         <v>23200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4166800</v>
+        <v>4096200</v>
       </c>
       <c r="E60" s="3">
-        <v>2959300</v>
+        <v>2909100</v>
       </c>
       <c r="F60" s="3">
-        <v>2586100</v>
+        <v>2542300</v>
       </c>
       <c r="G60" s="3">
-        <v>2311100</v>
+        <v>2272000</v>
       </c>
       <c r="H60" s="3">
-        <v>1749000</v>
+        <v>1719400</v>
       </c>
       <c r="I60" s="3">
-        <v>1737600</v>
+        <v>1708200</v>
       </c>
       <c r="J60" s="3">
-        <v>1641600</v>
+        <v>1613800</v>
       </c>
       <c r="K60" s="3">
         <v>23500</v>
@@ -2560,13 +2560,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>570600</v>
+        <v>561000</v>
       </c>
       <c r="E61" s="3">
-        <v>568800</v>
+        <v>559200</v>
       </c>
       <c r="F61" s="3">
-        <v>497700</v>
+        <v>489300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>489100</v>
+        <v>480800</v>
       </c>
       <c r="E62" s="3">
-        <v>390800</v>
+        <v>384200</v>
       </c>
       <c r="F62" s="3">
-        <v>254700</v>
+        <v>250400</v>
       </c>
       <c r="G62" s="3">
-        <v>135700</v>
+        <v>133400</v>
       </c>
       <c r="H62" s="3">
-        <v>106800</v>
+        <v>105000</v>
       </c>
       <c r="I62" s="3">
-        <v>44600</v>
+        <v>43900</v>
       </c>
       <c r="J62" s="3">
-        <v>46000</v>
+        <v>45200</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5274300</v>
+        <v>5185000</v>
       </c>
       <c r="E66" s="3">
-        <v>3972300</v>
+        <v>3905100</v>
       </c>
       <c r="F66" s="3">
-        <v>3387400</v>
+        <v>3330100</v>
       </c>
       <c r="G66" s="3">
-        <v>2454000</v>
+        <v>2412400</v>
       </c>
       <c r="H66" s="3">
-        <v>1855900</v>
+        <v>1824500</v>
       </c>
       <c r="I66" s="3">
-        <v>1782300</v>
+        <v>1752100</v>
       </c>
       <c r="J66" s="3">
-        <v>1687600</v>
+        <v>1659100</v>
       </c>
       <c r="K66" s="3">
         <v>23900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8901000</v>
+        <v>8750200</v>
       </c>
       <c r="E72" s="3">
-        <v>8914700</v>
+        <v>8763800</v>
       </c>
       <c r="F72" s="3">
-        <v>7649200</v>
+        <v>7519600</v>
       </c>
       <c r="G72" s="3">
-        <v>7623400</v>
+        <v>7494300</v>
       </c>
       <c r="H72" s="3">
-        <v>7797100</v>
+        <v>7665100</v>
       </c>
       <c r="I72" s="3">
-        <v>8066900</v>
+        <v>7930300</v>
       </c>
       <c r="J72" s="3">
-        <v>7149200</v>
+        <v>7028100</v>
       </c>
       <c r="K72" s="3">
         <v>130400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9343400</v>
+        <v>9185200</v>
       </c>
       <c r="E76" s="3">
-        <v>9467500</v>
+        <v>9307200</v>
       </c>
       <c r="F76" s="3">
-        <v>8115800</v>
+        <v>7978400</v>
       </c>
       <c r="G76" s="3">
-        <v>8053600</v>
+        <v>7917200</v>
       </c>
       <c r="H76" s="3">
-        <v>8050500</v>
+        <v>7914100</v>
       </c>
       <c r="I76" s="3">
-        <v>8553800</v>
+        <v>8408900</v>
       </c>
       <c r="J76" s="3">
-        <v>7660600</v>
+        <v>7530900</v>
       </c>
       <c r="K76" s="3">
         <v>113200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2741600</v>
+        <v>2695200</v>
       </c>
       <c r="E81" s="3">
-        <v>2399500</v>
+        <v>2358900</v>
       </c>
       <c r="F81" s="3">
-        <v>2057700</v>
+        <v>2022800</v>
       </c>
       <c r="G81" s="3">
-        <v>1910100</v>
+        <v>1877700</v>
       </c>
       <c r="H81" s="3">
-        <v>1987600</v>
+        <v>1953900</v>
       </c>
       <c r="I81" s="3">
-        <v>1779800</v>
+        <v>1749600</v>
       </c>
       <c r="J81" s="3">
-        <v>1672900</v>
+        <v>1644600</v>
       </c>
       <c r="K81" s="3">
         <v>26000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>431000</v>
+        <v>423700</v>
       </c>
       <c r="E83" s="3">
-        <v>405100</v>
+        <v>398200</v>
       </c>
       <c r="F83" s="3">
-        <v>358700</v>
+        <v>352700</v>
       </c>
       <c r="G83" s="3">
-        <v>249400</v>
+        <v>245100</v>
       </c>
       <c r="H83" s="3">
-        <v>231000</v>
+        <v>227100</v>
       </c>
       <c r="I83" s="3">
-        <v>211200</v>
+        <v>207600</v>
       </c>
       <c r="J83" s="3">
-        <v>180900</v>
+        <v>177900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2961700</v>
+        <v>2911600</v>
       </c>
       <c r="E89" s="3">
-        <v>2991700</v>
+        <v>2941100</v>
       </c>
       <c r="F89" s="3">
-        <v>2301100</v>
+        <v>2262100</v>
       </c>
       <c r="G89" s="3">
-        <v>1964700</v>
+        <v>1931400</v>
       </c>
       <c r="H89" s="3">
-        <v>1805300</v>
+        <v>1774700</v>
       </c>
       <c r="I89" s="3">
-        <v>1743800</v>
+        <v>1714300</v>
       </c>
       <c r="J89" s="3">
-        <v>1518100</v>
+        <v>1492400</v>
       </c>
       <c r="K89" s="3">
         <v>1574600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-268000</v>
+        <v>-263400</v>
       </c>
       <c r="E91" s="3">
-        <v>-261300</v>
+        <v>-256800</v>
       </c>
       <c r="F91" s="3">
-        <v>-410100</v>
+        <v>-403100</v>
       </c>
       <c r="G91" s="3">
-        <v>-303200</v>
+        <v>-298000</v>
       </c>
       <c r="H91" s="3">
-        <v>-247800</v>
+        <v>-243600</v>
       </c>
       <c r="I91" s="3">
-        <v>-342200</v>
+        <v>-336400</v>
       </c>
       <c r="J91" s="3">
-        <v>-337700</v>
+        <v>-331900</v>
       </c>
       <c r="K91" s="3">
         <v>-354700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-795600</v>
+        <v>-782100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1036500</v>
+        <v>-1019000</v>
       </c>
       <c r="F94" s="3">
-        <v>-222300</v>
+        <v>-218600</v>
       </c>
       <c r="G94" s="3">
-        <v>-195700</v>
+        <v>-192400</v>
       </c>
       <c r="H94" s="3">
-        <v>385800</v>
+        <v>379200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2117200</v>
+        <v>-2081300</v>
       </c>
       <c r="J94" s="3">
-        <v>-386400</v>
+        <v>-379800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1568800</v>
+        <v>-1542300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1130500</v>
+        <v>-1111400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1179900</v>
+        <v>-1159900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1699400</v>
+        <v>-1670600</v>
       </c>
       <c r="H96" s="3">
-        <v>-925500</v>
+        <v>-909900</v>
       </c>
       <c r="I96" s="3">
-        <v>-860400</v>
+        <v>-845900</v>
       </c>
       <c r="J96" s="3">
-        <v>-844800</v>
+        <v>-830500</v>
       </c>
       <c r="K96" s="3">
         <v>-347000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3055600</v>
+        <v>-3003900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1213500</v>
+        <v>-1192900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2181300</v>
+        <v>-2144300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1799500</v>
+        <v>-1769000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2542600</v>
+        <v>-2499600</v>
       </c>
       <c r="I100" s="3">
-        <v>-860400</v>
+        <v>-845900</v>
       </c>
       <c r="J100" s="3">
-        <v>-844800</v>
+        <v>-830500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,22 +3959,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8600</v>
+        <v>-8400</v>
       </c>
       <c r="E101" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="F101" s="3">
-        <v>-11400</v>
+        <v>-11200</v>
       </c>
       <c r="G101" s="3">
-        <v>-7100</v>
+        <v>-6900</v>
       </c>
       <c r="H101" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="I101" s="3">
-        <v>-15100</v>
+        <v>-14900</v>
       </c>
       <c r="J101" s="3">
         <v>2000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-898000</v>
+        <v>-882800</v>
       </c>
       <c r="E102" s="3">
-        <v>752100</v>
+        <v>739300</v>
       </c>
       <c r="F102" s="3">
-        <v>-114000</v>
+        <v>-112000</v>
       </c>
       <c r="G102" s="3">
-        <v>-37600</v>
+        <v>-36900</v>
       </c>
       <c r="H102" s="3">
-        <v>-341500</v>
+        <v>-335700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1248900</v>
+        <v>-1227800</v>
       </c>
       <c r="J102" s="3">
-        <v>288900</v>
+        <v>284000</v>
       </c>
       <c r="K102" s="3">
         <v>532000</v>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>INFY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14828000</v>
+        <v>14706400</v>
       </c>
       <c r="E8" s="3">
-        <v>12247500</v>
+        <v>12147100</v>
       </c>
       <c r="F8" s="3">
-        <v>11067400</v>
+        <v>10976600</v>
       </c>
       <c r="G8" s="3">
-        <v>10078100</v>
+        <v>9995400</v>
       </c>
       <c r="H8" s="3">
-        <v>8596600</v>
+        <v>8526100</v>
       </c>
       <c r="I8" s="3">
-        <v>8348200</v>
+        <v>8279700</v>
       </c>
       <c r="J8" s="3">
-        <v>7611600</v>
+        <v>7549100</v>
       </c>
       <c r="K8" s="3">
         <v>112500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9995600</v>
+        <v>9913600</v>
       </c>
       <c r="E9" s="3">
-        <v>7973800</v>
+        <v>7908400</v>
       </c>
       <c r="F9" s="3">
-        <v>7403200</v>
+        <v>7342500</v>
       </c>
       <c r="G9" s="3">
-        <v>6566400</v>
+        <v>6512500</v>
       </c>
       <c r="H9" s="3">
-        <v>5501300</v>
+        <v>5456200</v>
       </c>
       <c r="I9" s="3">
-        <v>5272500</v>
+        <v>5229300</v>
       </c>
       <c r="J9" s="3">
-        <v>4747900</v>
+        <v>4708900</v>
       </c>
       <c r="K9" s="3">
         <v>68900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4832500</v>
+        <v>4792800</v>
       </c>
       <c r="E10" s="3">
-        <v>4273700</v>
+        <v>4238600</v>
       </c>
       <c r="F10" s="3">
-        <v>3664200</v>
+        <v>3634100</v>
       </c>
       <c r="G10" s="3">
-        <v>3511700</v>
+        <v>3482900</v>
       </c>
       <c r="H10" s="3">
-        <v>3095300</v>
+        <v>3069900</v>
       </c>
       <c r="I10" s="3">
-        <v>3075700</v>
+        <v>3050400</v>
       </c>
       <c r="J10" s="3">
-        <v>2863700</v>
+        <v>2840200</v>
       </c>
       <c r="K10" s="3">
         <v>43600</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="E14" s="3">
-        <v>23200</v>
+        <v>23000</v>
       </c>
       <c r="F14" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="G14" s="3">
-        <v>118100</v>
+        <v>117200</v>
       </c>
       <c r="H14" s="3">
-        <v>23000</v>
+        <v>22900</v>
       </c>
       <c r="I14" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="J14" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="K14" s="3">
         <v>500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11413000</v>
+        <v>11319400</v>
       </c>
       <c r="E17" s="3">
-        <v>9246100</v>
+        <v>9170300</v>
       </c>
       <c r="F17" s="3">
-        <v>8705700</v>
+        <v>8634300</v>
       </c>
       <c r="G17" s="3">
-        <v>7864500</v>
+        <v>7800000</v>
       </c>
       <c r="H17" s="3">
-        <v>6520700</v>
+        <v>6467200</v>
       </c>
       <c r="I17" s="3">
-        <v>6288000</v>
+        <v>6236400</v>
       </c>
       <c r="J17" s="3">
-        <v>5707500</v>
+        <v>5660700</v>
       </c>
       <c r="K17" s="3">
         <v>83400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3415000</v>
+        <v>3387000</v>
       </c>
       <c r="E18" s="3">
-        <v>3001400</v>
+        <v>2976800</v>
       </c>
       <c r="F18" s="3">
-        <v>2361700</v>
+        <v>2342300</v>
       </c>
       <c r="G18" s="3">
-        <v>2213600</v>
+        <v>2195400</v>
       </c>
       <c r="H18" s="3">
-        <v>2076000</v>
+        <v>2058900</v>
       </c>
       <c r="I18" s="3">
-        <v>2060200</v>
+        <v>2043300</v>
       </c>
       <c r="J18" s="3">
-        <v>1904100</v>
+        <v>1888500</v>
       </c>
       <c r="K18" s="3">
         <v>29200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>276700</v>
+        <v>274400</v>
       </c>
       <c r="E20" s="3">
-        <v>266000</v>
+        <v>263800</v>
       </c>
       <c r="F20" s="3">
-        <v>341700</v>
+        <v>338900</v>
       </c>
       <c r="G20" s="3">
-        <v>351300</v>
+        <v>348400</v>
       </c>
       <c r="H20" s="3">
-        <v>395000</v>
+        <v>391700</v>
       </c>
       <c r="I20" s="3">
-        <v>371800</v>
+        <v>368700</v>
       </c>
       <c r="J20" s="3">
-        <v>380600</v>
+        <v>377400</v>
       </c>
       <c r="K20" s="3">
         <v>7200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4115800</v>
+        <v>4058100</v>
       </c>
       <c r="E21" s="3">
-        <v>3666000</v>
+        <v>3591800</v>
       </c>
       <c r="F21" s="3">
-        <v>3056300</v>
+        <v>2925300</v>
       </c>
       <c r="G21" s="3">
-        <v>2810200</v>
+        <v>2770000</v>
       </c>
       <c r="H21" s="3">
-        <v>2698200</v>
+        <v>2657400</v>
       </c>
       <c r="I21" s="3">
-        <v>2639800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2462600</v>
+        <v>2589200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,13 +1200,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E22" s="3">
         <v>21300</v>
       </c>
-      <c r="E22" s="3">
-        <v>21500</v>
-      </c>
       <c r="F22" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3670400</v>
+        <v>3640300</v>
       </c>
       <c r="E23" s="3">
-        <v>3246000</v>
+        <v>3219300</v>
       </c>
       <c r="F23" s="3">
-        <v>2682700</v>
+        <v>2660600</v>
       </c>
       <c r="G23" s="3">
-        <v>2564900</v>
+        <v>2543900</v>
       </c>
       <c r="H23" s="3">
-        <v>2470900</v>
+        <v>2450600</v>
       </c>
       <c r="I23" s="3">
-        <v>2432000</v>
+        <v>2412100</v>
       </c>
       <c r="J23" s="3">
-        <v>2284600</v>
+        <v>2265900</v>
       </c>
       <c r="K23" s="3">
         <v>36400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>970800</v>
+        <v>962800</v>
       </c>
       <c r="E24" s="3">
-        <v>878300</v>
+        <v>871100</v>
       </c>
       <c r="F24" s="3">
-        <v>654400</v>
+        <v>649000</v>
       </c>
       <c r="G24" s="3">
-        <v>686400</v>
+        <v>680800</v>
       </c>
       <c r="H24" s="3">
-        <v>517000</v>
+        <v>512700</v>
       </c>
       <c r="I24" s="3">
-        <v>682400</v>
+        <v>676800</v>
       </c>
       <c r="J24" s="3">
-        <v>640100</v>
+        <v>634800</v>
       </c>
       <c r="K24" s="3">
         <v>10400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2699600</v>
+        <v>2677500</v>
       </c>
       <c r="E26" s="3">
-        <v>2367700</v>
+        <v>2348200</v>
       </c>
       <c r="F26" s="3">
-        <v>2028300</v>
+        <v>2011700</v>
       </c>
       <c r="G26" s="3">
-        <v>1878500</v>
+        <v>1863100</v>
       </c>
       <c r="H26" s="3">
-        <v>1953900</v>
+        <v>1937900</v>
       </c>
       <c r="I26" s="3">
-        <v>1749600</v>
+        <v>1735300</v>
       </c>
       <c r="J26" s="3">
-        <v>1644600</v>
+        <v>1631100</v>
       </c>
       <c r="K26" s="3">
         <v>26000</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2695200</v>
+        <v>2673100</v>
       </c>
       <c r="E27" s="3">
-        <v>2358900</v>
+        <v>2339500</v>
       </c>
       <c r="F27" s="3">
-        <v>2022800</v>
+        <v>2006200</v>
       </c>
       <c r="G27" s="3">
-        <v>1877700</v>
+        <v>1862300</v>
       </c>
       <c r="H27" s="3">
-        <v>1953900</v>
+        <v>1937900</v>
       </c>
       <c r="I27" s="3">
-        <v>1749600</v>
+        <v>1735300</v>
       </c>
       <c r="J27" s="3">
-        <v>1644600</v>
+        <v>1631100</v>
       </c>
       <c r="K27" s="3">
         <v>26000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-276700</v>
+        <v>-274400</v>
       </c>
       <c r="E32" s="3">
-        <v>-266000</v>
+        <v>-263800</v>
       </c>
       <c r="F32" s="3">
-        <v>-341700</v>
+        <v>-338900</v>
       </c>
       <c r="G32" s="3">
-        <v>-351300</v>
+        <v>-348400</v>
       </c>
       <c r="H32" s="3">
-        <v>-395000</v>
+        <v>-391700</v>
       </c>
       <c r="I32" s="3">
-        <v>-371800</v>
+        <v>-368700</v>
       </c>
       <c r="J32" s="3">
-        <v>-380600</v>
+        <v>-377400</v>
       </c>
       <c r="K32" s="3">
         <v>-7200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2695200</v>
+        <v>2673100</v>
       </c>
       <c r="E33" s="3">
-        <v>2358900</v>
+        <v>2339500</v>
       </c>
       <c r="F33" s="3">
-        <v>2022800</v>
+        <v>2006200</v>
       </c>
       <c r="G33" s="3">
-        <v>1877700</v>
+        <v>1862300</v>
       </c>
       <c r="H33" s="3">
-        <v>1953900</v>
+        <v>1937900</v>
       </c>
       <c r="I33" s="3">
-        <v>1749600</v>
+        <v>1735300</v>
       </c>
       <c r="J33" s="3">
-        <v>1644600</v>
+        <v>1631100</v>
       </c>
       <c r="K33" s="3">
         <v>26000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2695200</v>
+        <v>2673100</v>
       </c>
       <c r="E35" s="3">
-        <v>2358900</v>
+        <v>2339500</v>
       </c>
       <c r="F35" s="3">
-        <v>2022800</v>
+        <v>2006200</v>
       </c>
       <c r="G35" s="3">
-        <v>1877700</v>
+        <v>1862300</v>
       </c>
       <c r="H35" s="3">
-        <v>1953900</v>
+        <v>1937900</v>
       </c>
       <c r="I35" s="3">
-        <v>1749600</v>
+        <v>1735300</v>
       </c>
       <c r="J35" s="3">
-        <v>1644600</v>
+        <v>1631100</v>
       </c>
       <c r="K35" s="3">
         <v>26000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1642100</v>
+        <v>1628600</v>
       </c>
       <c r="E41" s="3">
-        <v>2385000</v>
+        <v>2365400</v>
       </c>
       <c r="F41" s="3">
-        <v>1449600</v>
+        <v>1437700</v>
       </c>
       <c r="G41" s="3">
-        <v>1687000</v>
+        <v>1673100</v>
       </c>
       <c r="H41" s="3">
-        <v>1540200</v>
+        <v>1527600</v>
       </c>
       <c r="I41" s="3">
-        <v>1745200</v>
+        <v>1730900</v>
       </c>
       <c r="J41" s="3">
-        <v>3282500</v>
+        <v>3255600</v>
       </c>
       <c r="K41" s="3">
         <v>53400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1276800</v>
+        <v>1266300</v>
       </c>
       <c r="E42" s="3">
-        <v>851700</v>
+        <v>844700</v>
       </c>
       <c r="F42" s="3">
-        <v>1342900</v>
+        <v>1331800</v>
       </c>
       <c r="G42" s="3">
-        <v>1462600</v>
+        <v>1450600</v>
       </c>
       <c r="H42" s="3">
-        <v>1591600</v>
+        <v>1578600</v>
       </c>
       <c r="I42" s="3">
-        <v>2158400</v>
+        <v>2140700</v>
       </c>
       <c r="J42" s="3">
-        <v>652400</v>
+        <v>647100</v>
       </c>
       <c r="K42" s="3">
         <v>10400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4501500</v>
+        <v>4464600</v>
       </c>
       <c r="E43" s="3">
-        <v>3620100</v>
+        <v>3590400</v>
       </c>
       <c r="F43" s="3">
-        <v>3403300</v>
+        <v>3375400</v>
       </c>
       <c r="G43" s="3">
-        <v>2835600</v>
+        <v>2812400</v>
       </c>
       <c r="H43" s="3">
-        <v>2369700</v>
+        <v>2350300</v>
       </c>
       <c r="I43" s="3">
-        <v>2280000</v>
+        <v>2261300</v>
       </c>
       <c r="J43" s="3">
-        <v>2092400</v>
+        <v>2075200</v>
       </c>
       <c r="K43" s="3">
         <v>30000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>769400</v>
+        <v>763100</v>
       </c>
       <c r="E45" s="3">
-        <v>546600</v>
+        <v>542100</v>
       </c>
       <c r="F45" s="3">
-        <v>457000</v>
+        <v>453300</v>
       </c>
       <c r="G45" s="3">
-        <v>460700</v>
+        <v>456900</v>
       </c>
       <c r="H45" s="3">
-        <v>595500</v>
+        <v>590600</v>
       </c>
       <c r="I45" s="3">
-        <v>363000</v>
+        <v>360000</v>
       </c>
       <c r="J45" s="3">
-        <v>274300</v>
+        <v>272000</v>
       </c>
       <c r="K45" s="3">
         <v>1400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8189900</v>
+        <v>8122700</v>
       </c>
       <c r="E46" s="3">
-        <v>7403400</v>
+        <v>7342600</v>
       </c>
       <c r="F46" s="3">
-        <v>6652800</v>
+        <v>6598200</v>
       </c>
       <c r="G46" s="3">
-        <v>6445800</v>
+        <v>6393000</v>
       </c>
       <c r="H46" s="3">
-        <v>6097100</v>
+        <v>6047100</v>
       </c>
       <c r="I46" s="3">
-        <v>6546600</v>
+        <v>6492900</v>
       </c>
       <c r="J46" s="3">
-        <v>6301600</v>
+        <v>6249900</v>
       </c>
       <c r="K46" s="3">
         <v>97600</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2675000</v>
+        <v>2653000</v>
       </c>
       <c r="E47" s="3">
-        <v>2322700</v>
+        <v>2303600</v>
       </c>
       <c r="F47" s="3">
-        <v>1264000</v>
+        <v>1253600</v>
       </c>
       <c r="G47" s="3">
-        <v>1457200</v>
+        <v>1445200</v>
       </c>
       <c r="H47" s="3">
-        <v>1620100</v>
+        <v>1606800</v>
       </c>
       <c r="I47" s="3">
-        <v>1486900</v>
+        <v>1474700</v>
       </c>
       <c r="J47" s="3">
-        <v>873900</v>
+        <v>866700</v>
       </c>
       <c r="K47" s="3">
         <v>11500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2232500</v>
+        <v>2214200</v>
       </c>
       <c r="E48" s="3">
-        <v>2245000</v>
+        <v>2226600</v>
       </c>
       <c r="F48" s="3">
-        <v>2178000</v>
+        <v>2160100</v>
       </c>
       <c r="G48" s="3">
-        <v>1628100</v>
+        <v>1614700</v>
       </c>
       <c r="H48" s="3">
-        <v>1480200</v>
+        <v>1468100</v>
       </c>
       <c r="I48" s="3">
-        <v>1428200</v>
+        <v>1416500</v>
       </c>
       <c r="J48" s="3">
-        <v>1283600</v>
+        <v>1273100</v>
       </c>
       <c r="K48" s="3">
         <v>18900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>963300</v>
+        <v>955400</v>
       </c>
       <c r="E49" s="3">
-        <v>993600</v>
+        <v>985500</v>
       </c>
       <c r="F49" s="3">
-        <v>876000</v>
+        <v>868800</v>
       </c>
       <c r="G49" s="3">
-        <v>515800</v>
+        <v>511500</v>
       </c>
       <c r="H49" s="3">
-        <v>299600</v>
+        <v>297200</v>
       </c>
       <c r="I49" s="3">
-        <v>539800</v>
+        <v>535300</v>
       </c>
       <c r="J49" s="3">
-        <v>578900</v>
+        <v>574200</v>
       </c>
       <c r="K49" s="3">
         <v>7700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>309600</v>
+        <v>307100</v>
       </c>
       <c r="E52" s="3">
-        <v>247600</v>
+        <v>245500</v>
       </c>
       <c r="F52" s="3">
-        <v>337700</v>
+        <v>334900</v>
       </c>
       <c r="G52" s="3">
-        <v>282700</v>
+        <v>280400</v>
       </c>
       <c r="H52" s="3">
-        <v>241600</v>
+        <v>239600</v>
       </c>
       <c r="I52" s="3">
-        <v>159400</v>
+        <v>158100</v>
       </c>
       <c r="J52" s="3">
-        <v>151900</v>
+        <v>150600</v>
       </c>
       <c r="K52" s="3">
         <v>1500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14370200</v>
+        <v>14252300</v>
       </c>
       <c r="E54" s="3">
-        <v>13212300</v>
+        <v>13103900</v>
       </c>
       <c r="F54" s="3">
-        <v>11308400</v>
+        <v>11215700</v>
       </c>
       <c r="G54" s="3">
-        <v>10329600</v>
+        <v>10244800</v>
       </c>
       <c r="H54" s="3">
-        <v>9738600</v>
+        <v>9658700</v>
       </c>
       <c r="I54" s="3">
-        <v>10161000</v>
+        <v>10077600</v>
       </c>
       <c r="J54" s="3">
-        <v>9189900</v>
+        <v>9114500</v>
       </c>
       <c r="K54" s="3">
         <v>137100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>503900</v>
+        <v>499800</v>
       </c>
       <c r="E57" s="3">
-        <v>322400</v>
+        <v>319800</v>
       </c>
       <c r="F57" s="3">
-        <v>347700</v>
+        <v>344800</v>
       </c>
       <c r="G57" s="3">
-        <v>201700</v>
+        <v>200100</v>
       </c>
       <c r="H57" s="3">
-        <v>84600</v>
+        <v>83900</v>
       </c>
       <c r="I57" s="3">
-        <v>44700</v>
+        <v>44400</v>
       </c>
       <c r="J57" s="3">
-        <v>47100</v>
+        <v>46700</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2443,13 +2443,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>106300</v>
+        <v>105400</v>
       </c>
       <c r="E58" s="3">
-        <v>90000</v>
+        <v>89200</v>
       </c>
       <c r="F58" s="3">
-        <v>75500</v>
+        <v>74800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3486000</v>
+        <v>3457400</v>
       </c>
       <c r="E59" s="3">
-        <v>2496800</v>
+        <v>2476300</v>
       </c>
       <c r="F59" s="3">
-        <v>2119200</v>
+        <v>2101800</v>
       </c>
       <c r="G59" s="3">
-        <v>2070200</v>
+        <v>2053200</v>
       </c>
       <c r="H59" s="3">
-        <v>1634800</v>
+        <v>1621400</v>
       </c>
       <c r="I59" s="3">
-        <v>1663400</v>
+        <v>1649800</v>
       </c>
       <c r="J59" s="3">
-        <v>1566800</v>
+        <v>1553900</v>
       </c>
       <c r="K59" s="3">
         <v>23200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4096200</v>
+        <v>4062600</v>
       </c>
       <c r="E60" s="3">
-        <v>2909100</v>
+        <v>2885300</v>
       </c>
       <c r="F60" s="3">
-        <v>2542300</v>
+        <v>2521500</v>
       </c>
       <c r="G60" s="3">
-        <v>2272000</v>
+        <v>2253300</v>
       </c>
       <c r="H60" s="3">
-        <v>1719400</v>
+        <v>1705300</v>
       </c>
       <c r="I60" s="3">
-        <v>1708200</v>
+        <v>1694200</v>
       </c>
       <c r="J60" s="3">
-        <v>1613800</v>
+        <v>1600600</v>
       </c>
       <c r="K60" s="3">
         <v>23500</v>
@@ -2560,13 +2560,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>561000</v>
+        <v>556400</v>
       </c>
       <c r="E61" s="3">
-        <v>559200</v>
+        <v>554600</v>
       </c>
       <c r="F61" s="3">
-        <v>489300</v>
+        <v>485300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>480800</v>
+        <v>476800</v>
       </c>
       <c r="E62" s="3">
-        <v>384200</v>
+        <v>381100</v>
       </c>
       <c r="F62" s="3">
-        <v>250400</v>
+        <v>248300</v>
       </c>
       <c r="G62" s="3">
-        <v>133400</v>
+        <v>132300</v>
       </c>
       <c r="H62" s="3">
-        <v>105000</v>
+        <v>104100</v>
       </c>
       <c r="I62" s="3">
-        <v>43900</v>
+        <v>43500</v>
       </c>
       <c r="J62" s="3">
-        <v>45200</v>
+        <v>44900</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5185000</v>
+        <v>5142500</v>
       </c>
       <c r="E66" s="3">
-        <v>3905100</v>
+        <v>3873000</v>
       </c>
       <c r="F66" s="3">
-        <v>3330100</v>
+        <v>3302700</v>
       </c>
       <c r="G66" s="3">
-        <v>2412400</v>
+        <v>2392600</v>
       </c>
       <c r="H66" s="3">
-        <v>1824500</v>
+        <v>1809500</v>
       </c>
       <c r="I66" s="3">
-        <v>1752100</v>
+        <v>1737700</v>
       </c>
       <c r="J66" s="3">
-        <v>1659100</v>
+        <v>1645400</v>
       </c>
       <c r="K66" s="3">
         <v>23900</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8750200</v>
+        <v>8678400</v>
       </c>
       <c r="E72" s="3">
-        <v>8763800</v>
+        <v>8691900</v>
       </c>
       <c r="F72" s="3">
-        <v>7519600</v>
+        <v>7458000</v>
       </c>
       <c r="G72" s="3">
-        <v>7494300</v>
+        <v>7432800</v>
       </c>
       <c r="H72" s="3">
-        <v>7665100</v>
+        <v>7602200</v>
       </c>
       <c r="I72" s="3">
-        <v>7930300</v>
+        <v>7865300</v>
       </c>
       <c r="J72" s="3">
-        <v>7028100</v>
+        <v>6970500</v>
       </c>
       <c r="K72" s="3">
         <v>130400</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9185200</v>
+        <v>9109800</v>
       </c>
       <c r="E76" s="3">
-        <v>9307200</v>
+        <v>9230800</v>
       </c>
       <c r="F76" s="3">
-        <v>7978400</v>
+        <v>7912900</v>
       </c>
       <c r="G76" s="3">
-        <v>7917200</v>
+        <v>7852200</v>
       </c>
       <c r="H76" s="3">
-        <v>7914100</v>
+        <v>7849200</v>
       </c>
       <c r="I76" s="3">
-        <v>8408900</v>
+        <v>8339900</v>
       </c>
       <c r="J76" s="3">
-        <v>7530900</v>
+        <v>7469100</v>
       </c>
       <c r="K76" s="3">
         <v>113200</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2695200</v>
+        <v>2673100</v>
       </c>
       <c r="E81" s="3">
-        <v>2358900</v>
+        <v>2339500</v>
       </c>
       <c r="F81" s="3">
-        <v>2022800</v>
+        <v>2006200</v>
       </c>
       <c r="G81" s="3">
-        <v>1877700</v>
+        <v>1862300</v>
       </c>
       <c r="H81" s="3">
-        <v>1953900</v>
+        <v>1937900</v>
       </c>
       <c r="I81" s="3">
-        <v>1749600</v>
+        <v>1735300</v>
       </c>
       <c r="J81" s="3">
-        <v>1644600</v>
+        <v>1631100</v>
       </c>
       <c r="K81" s="3">
         <v>26000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>423700</v>
+        <v>395000</v>
       </c>
       <c r="E83" s="3">
-        <v>398200</v>
+        <v>349800</v>
       </c>
       <c r="F83" s="3">
-        <v>352700</v>
+        <v>243100</v>
       </c>
       <c r="G83" s="3">
-        <v>245100</v>
+        <v>225200</v>
       </c>
       <c r="H83" s="3">
-        <v>227100</v>
+        <v>205900</v>
       </c>
       <c r="I83" s="3">
-        <v>207600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>177900</v>
+        <v>176400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2911600</v>
+        <v>2917000</v>
       </c>
       <c r="E89" s="3">
-        <v>2941100</v>
+        <v>2243500</v>
       </c>
       <c r="F89" s="3">
-        <v>2262100</v>
+        <v>1915500</v>
       </c>
       <c r="G89" s="3">
-        <v>1931400</v>
+        <v>1760200</v>
       </c>
       <c r="H89" s="3">
-        <v>1774700</v>
+        <v>1700200</v>
       </c>
       <c r="I89" s="3">
-        <v>1714300</v>
+        <v>1480200</v>
       </c>
       <c r="J89" s="3">
-        <v>1492400</v>
+        <v>1299900</v>
       </c>
       <c r="K89" s="3">
         <v>1574600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-263400</v>
+        <v>-254700</v>
       </c>
       <c r="E91" s="3">
-        <v>-256800</v>
+        <v>-399800</v>
       </c>
       <c r="F91" s="3">
-        <v>-403100</v>
+        <v>-295600</v>
       </c>
       <c r="G91" s="3">
-        <v>-298000</v>
+        <v>-241600</v>
       </c>
       <c r="H91" s="3">
-        <v>-243600</v>
+        <v>-333700</v>
       </c>
       <c r="I91" s="3">
-        <v>-336400</v>
+        <v>-329200</v>
       </c>
       <c r="J91" s="3">
-        <v>-331900</v>
+        <v>-271700</v>
       </c>
       <c r="K91" s="3">
         <v>-354700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-782100</v>
+        <v>-1010600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1019000</v>
+        <v>-216800</v>
       </c>
       <c r="F94" s="3">
-        <v>-218600</v>
+        <v>-190800</v>
       </c>
       <c r="G94" s="3">
-        <v>-192400</v>
+        <v>376100</v>
       </c>
       <c r="H94" s="3">
-        <v>379200</v>
+        <v>-2064200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2081300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-379800</v>
+        <v>-376700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1542300</v>
+        <v>-1102200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1111400</v>
+        <v>-1150400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1159900</v>
+        <v>-1656900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1670600</v>
+        <v>-902400</v>
       </c>
       <c r="H96" s="3">
-        <v>-909900</v>
+        <v>-838900</v>
       </c>
       <c r="I96" s="3">
-        <v>-845900</v>
+        <v>-823700</v>
       </c>
       <c r="J96" s="3">
-        <v>-830500</v>
+        <v>-596600</v>
       </c>
       <c r="K96" s="3">
         <v>-347000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3003900</v>
+        <v>-1183100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1192900</v>
+        <v>-2126800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2144300</v>
+        <v>-1754500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1769000</v>
+        <v>-2479100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2499600</v>
+        <v>-838900</v>
       </c>
       <c r="I100" s="3">
-        <v>-845900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-830500</v>
+        <v>-823700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8400</v>
+        <v>10000</v>
       </c>
       <c r="E101" s="3">
-        <v>10100</v>
+        <v>-11100</v>
       </c>
       <c r="F101" s="3">
-        <v>-11200</v>
+        <v>-6900</v>
       </c>
       <c r="G101" s="3">
-        <v>-6900</v>
+        <v>9800</v>
       </c>
       <c r="H101" s="3">
-        <v>9900</v>
+        <v>-14700</v>
       </c>
       <c r="I101" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2000</v>
+        <v>1900</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-882800</v>
+        <v>733300</v>
       </c>
       <c r="E102" s="3">
-        <v>739300</v>
+        <v>-111100</v>
       </c>
       <c r="F102" s="3">
-        <v>-112000</v>
+        <v>-36600</v>
       </c>
       <c r="G102" s="3">
-        <v>-36900</v>
+        <v>-333000</v>
       </c>
       <c r="H102" s="3">
-        <v>-335700</v>
+        <v>-1217700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1227800</v>
+        <v>281700</v>
       </c>
       <c r="J102" s="3">
-        <v>284000</v>
+        <v>534000</v>
       </c>
       <c r="K102" s="3">
         <v>532000</v>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>INFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17744100</v>
+      </c>
+      <c r="E8" s="3">
         <v>14706400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12147100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10976600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9995400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8526100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8279700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7549100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>112500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>113500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>103900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>101100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12374500</v>
+      </c>
+      <c r="E9" s="3">
         <v>9913600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7908400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7342500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6512500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5456200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5229300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4708900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>68900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>72400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>65700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>60100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5369700</v>
+      </c>
+      <c r="E10" s="3">
         <v>4792800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4238600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3634100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3482900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3069900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3050400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2840200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>41100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>41000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E14" s="3">
         <v>20600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>23000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>117200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>16900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14007700</v>
+      </c>
+      <c r="E17" s="3">
         <v>11319400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9170300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8634300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7800000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6467200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6236400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5660700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>83400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>86300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>77100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>72000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3736400</v>
+      </c>
+      <c r="E18" s="3">
         <v>3387000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2976800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2342300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2195400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2058900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2043300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1888500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>27200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>29100</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,100 +1148,107 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>321800</v>
+      </c>
+      <c r="E20" s="3">
         <v>274400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>263800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>338900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>348400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>391700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>368700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>377400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>6100</v>
       </c>
       <c r="M20" s="3">
         <v>6100</v>
       </c>
       <c r="N20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="O20" s="3">
         <v>5700</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4058100</v>
+        <v>4569100</v>
       </c>
       <c r="E21" s="3">
-        <v>3591800</v>
+        <v>4081700</v>
       </c>
       <c r="F21" s="3">
-        <v>2925300</v>
+        <v>3635600</v>
       </c>
       <c r="G21" s="3">
-        <v>2770000</v>
+        <v>3031000</v>
       </c>
       <c r="H21" s="3">
-        <v>2657400</v>
+        <v>2787000</v>
       </c>
       <c r="I21" s="3">
-        <v>2589200</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>2675900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2618000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>222600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>35800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>37700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E22" s="3">
         <v>21200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>20600</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1226,93 +1265,102 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4028600</v>
+      </c>
+      <c r="E23" s="3">
         <v>3640300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3219300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2660600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2543900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2450600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2412100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2265900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>33300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1114000</v>
+      </c>
+      <c r="E24" s="3">
         <v>962800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>871100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>649000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>680800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>512700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>676800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>634800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2914700</v>
+      </c>
+      <c r="E26" s="3">
         <v>2677500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2348200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2011700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1863100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1937900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1735300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1631100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2913100</v>
+      </c>
+      <c r="E27" s="3">
         <v>2673100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2339500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2006200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1862300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1937900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1735300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1631100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-321800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-274400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-263800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-338900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-348400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-391700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-368700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-377400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-6100</v>
       </c>
       <c r="M32" s="3">
         <v>-6100</v>
       </c>
       <c r="N32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-5700</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2913100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2673100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2339500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2006200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1862300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1937900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1735300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1631100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2913100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2673100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2339500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2006200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1862300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1937900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1735300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1631100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,125 +1903,135 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1168400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1628600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2365400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1437700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1673100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1527600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1730900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3255600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>53400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>47600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>53400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1266300</v>
+        <v>1126900</v>
       </c>
       <c r="E42" s="3">
-        <v>844700</v>
+        <v>1267200</v>
       </c>
       <c r="F42" s="3">
-        <v>1331800</v>
+        <v>845500</v>
       </c>
       <c r="G42" s="3">
-        <v>1450600</v>
+        <v>1332800</v>
       </c>
       <c r="H42" s="3">
+        <v>1451000</v>
+      </c>
+      <c r="I42" s="3">
         <v>1578600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2140700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>647100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5400</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4464600</v>
+        <v>5449900</v>
       </c>
       <c r="E43" s="3">
-        <v>3590400</v>
+        <v>4503000</v>
       </c>
       <c r="F43" s="3">
-        <v>3375400</v>
+        <v>3589600</v>
       </c>
       <c r="G43" s="3">
-        <v>2812400</v>
+        <v>3374400</v>
       </c>
       <c r="H43" s="3">
+        <v>2811900</v>
+      </c>
+      <c r="I43" s="3">
         <v>2350300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2261300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2075200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22600</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1962,215 +2057,233 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>2300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2200</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>763100</v>
+        <v>824300</v>
       </c>
       <c r="E45" s="3">
+        <v>723800</v>
+      </c>
+      <c r="F45" s="3">
         <v>542100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>453300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>456900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>590600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>360000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>272000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4500</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8569500</v>
+      </c>
+      <c r="E46" s="3">
         <v>8122700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7342600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6598200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6393000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6047100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6492900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6249900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>97600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>98800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>91300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>86000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2716700</v>
+      </c>
+      <c r="E47" s="3">
         <v>2653000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2303600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1253600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1445200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1606800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1474700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>866700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2480400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2214200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2226600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2160100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1614700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1468100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1416500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1273100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1087700</v>
+      </c>
+      <c r="E49" s="3">
         <v>955400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>985500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>868800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>511500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>297200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>535300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>574200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3300</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>356800</v>
+      </c>
+      <c r="E52" s="3">
         <v>307100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>245500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>334900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>280400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>239600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>158100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>150600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1900</v>
       </c>
       <c r="M52" s="3">
         <v>1900</v>
       </c>
       <c r="N52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O52" s="3">
         <v>1400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15211200</v>
+      </c>
+      <c r="E54" s="3">
         <v>14252300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13103900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11215700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10244800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9658700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10077600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9114500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>137100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>131000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>119900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>109000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,61 +2527,65 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>467300</v>
+      </c>
+      <c r="E57" s="3">
         <v>499800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>319800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>344800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>83900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>46700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>150200</v>
+      </c>
+      <c r="E58" s="3">
         <v>105400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>89200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>74800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2469,108 +2602,117 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4120200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3457400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2476300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2101800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2053200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1621400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1649800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1553900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13500</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4737600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4062600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2885300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2521500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2253300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1705300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1694200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>853200</v>
+      </c>
+      <c r="E61" s="3">
         <v>556400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>554600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>485300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2592,48 +2734,54 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>456800</v>
+      </c>
+      <c r="E62" s="3">
         <v>476800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>381100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>248300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>132300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>104100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>43500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>44900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6094400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5142500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3873000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3302700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2392600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1809500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1737700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1645400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8631300</v>
+      </c>
+      <c r="E72" s="3">
         <v>8678400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8691900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7458000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7432800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7602200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7865300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6970500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>130400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>122400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>107600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>94100</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9116700</v>
+      </c>
+      <c r="E76" s="3">
         <v>9109800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9230800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7912900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7852200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7849200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8339900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7469100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>113200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>109200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>102900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>95100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2913100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2673100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2339500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2006200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1862300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1937900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1735300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1631100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>510800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>420200</v>
+      </c>
+      <c r="F83" s="3">
         <v>395000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>349800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>243100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>225200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>205900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>176400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>189100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2800</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2716300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2887700</v>
+      </c>
+      <c r="F89" s="3">
         <v>2917000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2243500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1915500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1760200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1700200</v>
       </c>
-      <c r="I89" s="3">
-        <v>1480200</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1299900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1574600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1676900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-311800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-261300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-254700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-399800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-295600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-241600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-333700</v>
       </c>
-      <c r="I91" s="3">
-        <v>-329200</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-271700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-354700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-377700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-146200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-775700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1010600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-216800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-190800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>376100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2064200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-376700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-688400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1648000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1529600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1102200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-1150400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1656900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-902400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-838900</v>
       </c>
-      <c r="I96" s="3">
-        <v>-823700</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-596600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-347000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-369600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-7200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3227400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2979200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1183100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-2126800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1754500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-2479100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-838900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-823700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-432500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F101" s="3">
         <v>10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-11100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-6900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>9800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-14700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>10600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6400</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-640600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-875600</v>
+      </c>
+      <c r="F102" s="3">
         <v>733300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-111100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-36600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-333000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1217700</v>
       </c>
-      <c r="I102" s="3">
-        <v>281700</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>534000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>532000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>566600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INFY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17744100</v>
+        <v>17656100</v>
       </c>
       <c r="E8" s="3">
-        <v>14706400</v>
+        <v>14633400</v>
       </c>
       <c r="F8" s="3">
-        <v>12147100</v>
+        <v>12086800</v>
       </c>
       <c r="G8" s="3">
-        <v>10976600</v>
+        <v>10922200</v>
       </c>
       <c r="H8" s="3">
-        <v>9995400</v>
+        <v>9945800</v>
       </c>
       <c r="I8" s="3">
-        <v>8526100</v>
+        <v>8483800</v>
       </c>
       <c r="J8" s="3">
-        <v>8279700</v>
+        <v>8238600</v>
       </c>
       <c r="K8" s="3">
         <v>7549100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12374500</v>
+        <v>12313100</v>
       </c>
       <c r="E9" s="3">
-        <v>9913600</v>
+        <v>9864400</v>
       </c>
       <c r="F9" s="3">
-        <v>7908400</v>
+        <v>7869200</v>
       </c>
       <c r="G9" s="3">
-        <v>7342500</v>
+        <v>7306100</v>
       </c>
       <c r="H9" s="3">
-        <v>6512500</v>
+        <v>6480200</v>
       </c>
       <c r="I9" s="3">
-        <v>5456200</v>
+        <v>5429100</v>
       </c>
       <c r="J9" s="3">
-        <v>5229300</v>
+        <v>5203300</v>
       </c>
       <c r="K9" s="3">
         <v>4708900</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5369700</v>
+        <v>5343000</v>
       </c>
       <c r="E10" s="3">
-        <v>4792800</v>
+        <v>4769100</v>
       </c>
       <c r="F10" s="3">
-        <v>4238600</v>
+        <v>4217600</v>
       </c>
       <c r="G10" s="3">
-        <v>3634100</v>
+        <v>3616100</v>
       </c>
       <c r="H10" s="3">
-        <v>3482900</v>
+        <v>3465600</v>
       </c>
       <c r="I10" s="3">
-        <v>3069900</v>
+        <v>3054700</v>
       </c>
       <c r="J10" s="3">
-        <v>3050400</v>
+        <v>3035300</v>
       </c>
       <c r="K10" s="3">
         <v>2840200</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>34200</v>
+        <v>34000</v>
       </c>
       <c r="E14" s="3">
-        <v>20600</v>
+        <v>20500</v>
       </c>
       <c r="F14" s="3">
-        <v>23000</v>
+        <v>22900</v>
       </c>
       <c r="G14" s="3">
-        <v>20800</v>
+        <v>20700</v>
       </c>
       <c r="H14" s="3">
-        <v>117200</v>
+        <v>116600</v>
       </c>
       <c r="I14" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="J14" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="K14" s="3">
         <v>18000</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14007700</v>
+        <v>13938200</v>
       </c>
       <c r="E17" s="3">
-        <v>11319400</v>
+        <v>11263200</v>
       </c>
       <c r="F17" s="3">
-        <v>9170300</v>
+        <v>9124800</v>
       </c>
       <c r="G17" s="3">
-        <v>8634300</v>
+        <v>8591500</v>
       </c>
       <c r="H17" s="3">
-        <v>7800000</v>
+        <v>7761300</v>
       </c>
       <c r="I17" s="3">
-        <v>6467200</v>
+        <v>6435100</v>
       </c>
       <c r="J17" s="3">
-        <v>6236400</v>
+        <v>6205400</v>
       </c>
       <c r="K17" s="3">
         <v>5660700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3736400</v>
+        <v>3717900</v>
       </c>
       <c r="E18" s="3">
-        <v>3387000</v>
+        <v>3370200</v>
       </c>
       <c r="F18" s="3">
-        <v>2976800</v>
+        <v>2962000</v>
       </c>
       <c r="G18" s="3">
-        <v>2342300</v>
+        <v>2330700</v>
       </c>
       <c r="H18" s="3">
-        <v>2195400</v>
+        <v>2184500</v>
       </c>
       <c r="I18" s="3">
-        <v>2058900</v>
+        <v>2048700</v>
       </c>
       <c r="J18" s="3">
-        <v>2043300</v>
+        <v>2033200</v>
       </c>
       <c r="K18" s="3">
         <v>1888500</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>321800</v>
+        <v>320200</v>
       </c>
       <c r="E20" s="3">
-        <v>274400</v>
+        <v>273100</v>
       </c>
       <c r="F20" s="3">
-        <v>263800</v>
+        <v>262500</v>
       </c>
       <c r="G20" s="3">
-        <v>338900</v>
+        <v>337200</v>
       </c>
       <c r="H20" s="3">
-        <v>348400</v>
+        <v>346700</v>
       </c>
       <c r="I20" s="3">
-        <v>391700</v>
+        <v>389800</v>
       </c>
       <c r="J20" s="3">
-        <v>368700</v>
+        <v>366900</v>
       </c>
       <c r="K20" s="3">
         <v>377400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4569100</v>
+        <v>4546000</v>
       </c>
       <c r="E21" s="3">
-        <v>4081700</v>
+        <v>4061100</v>
       </c>
       <c r="F21" s="3">
-        <v>3635600</v>
+        <v>3617200</v>
       </c>
       <c r="G21" s="3">
-        <v>3031000</v>
+        <v>3015600</v>
       </c>
       <c r="H21" s="3">
-        <v>2787000</v>
+        <v>2773000</v>
       </c>
       <c r="I21" s="3">
-        <v>2675900</v>
+        <v>2662400</v>
       </c>
       <c r="J21" s="3">
-        <v>2618000</v>
+        <v>2604800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,16 +1239,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29600</v>
+        <v>29500</v>
       </c>
       <c r="E22" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F22" s="3">
         <v>21200</v>
       </c>
-      <c r="F22" s="3">
-        <v>21300</v>
-      </c>
       <c r="G22" s="3">
-        <v>20600</v>
+        <v>20500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4028600</v>
+        <v>4008600</v>
       </c>
       <c r="E23" s="3">
-        <v>3640300</v>
+        <v>3622200</v>
       </c>
       <c r="F23" s="3">
-        <v>3219300</v>
+        <v>3203300</v>
       </c>
       <c r="G23" s="3">
-        <v>2660600</v>
+        <v>2647400</v>
       </c>
       <c r="H23" s="3">
-        <v>2543900</v>
+        <v>2531200</v>
       </c>
       <c r="I23" s="3">
-        <v>2450600</v>
+        <v>2438500</v>
       </c>
       <c r="J23" s="3">
-        <v>2412100</v>
+        <v>2400100</v>
       </c>
       <c r="K23" s="3">
         <v>2265900</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1114000</v>
+        <v>1108400</v>
       </c>
       <c r="E24" s="3">
-        <v>962800</v>
+        <v>958100</v>
       </c>
       <c r="F24" s="3">
-        <v>871100</v>
+        <v>866800</v>
       </c>
       <c r="G24" s="3">
-        <v>649000</v>
+        <v>645800</v>
       </c>
       <c r="H24" s="3">
-        <v>680800</v>
+        <v>677400</v>
       </c>
       <c r="I24" s="3">
-        <v>512700</v>
+        <v>510200</v>
       </c>
       <c r="J24" s="3">
-        <v>676800</v>
+        <v>673400</v>
       </c>
       <c r="K24" s="3">
         <v>634800</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2914700</v>
+        <v>2900200</v>
       </c>
       <c r="E26" s="3">
-        <v>2677500</v>
+        <v>2664200</v>
       </c>
       <c r="F26" s="3">
-        <v>2348200</v>
+        <v>2336600</v>
       </c>
       <c r="G26" s="3">
-        <v>2011700</v>
+        <v>2001700</v>
       </c>
       <c r="H26" s="3">
-        <v>1863100</v>
+        <v>1853800</v>
       </c>
       <c r="I26" s="3">
-        <v>1937900</v>
+        <v>1928300</v>
       </c>
       <c r="J26" s="3">
-        <v>1735300</v>
+        <v>1726700</v>
       </c>
       <c r="K26" s="3">
         <v>1631100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2913100</v>
+        <v>2898600</v>
       </c>
       <c r="E27" s="3">
-        <v>2673100</v>
+        <v>2659800</v>
       </c>
       <c r="F27" s="3">
-        <v>2339500</v>
+        <v>2327900</v>
       </c>
       <c r="G27" s="3">
-        <v>2006200</v>
+        <v>1996300</v>
       </c>
       <c r="H27" s="3">
-        <v>1862300</v>
+        <v>1853100</v>
       </c>
       <c r="I27" s="3">
-        <v>1937900</v>
+        <v>1928300</v>
       </c>
       <c r="J27" s="3">
-        <v>1735300</v>
+        <v>1726700</v>
       </c>
       <c r="K27" s="3">
         <v>1631100</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-321800</v>
+        <v>-320200</v>
       </c>
       <c r="E32" s="3">
-        <v>-274400</v>
+        <v>-273100</v>
       </c>
       <c r="F32" s="3">
-        <v>-263800</v>
+        <v>-262500</v>
       </c>
       <c r="G32" s="3">
-        <v>-338900</v>
+        <v>-337200</v>
       </c>
       <c r="H32" s="3">
-        <v>-348400</v>
+        <v>-346700</v>
       </c>
       <c r="I32" s="3">
-        <v>-391700</v>
+        <v>-389800</v>
       </c>
       <c r="J32" s="3">
-        <v>-368700</v>
+        <v>-366900</v>
       </c>
       <c r="K32" s="3">
         <v>-377400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2913100</v>
+        <v>2898600</v>
       </c>
       <c r="E33" s="3">
-        <v>2673100</v>
+        <v>2659800</v>
       </c>
       <c r="F33" s="3">
-        <v>2339500</v>
+        <v>2327900</v>
       </c>
       <c r="G33" s="3">
-        <v>2006200</v>
+        <v>1996300</v>
       </c>
       <c r="H33" s="3">
-        <v>1862300</v>
+        <v>1853100</v>
       </c>
       <c r="I33" s="3">
-        <v>1937900</v>
+        <v>1928300</v>
       </c>
       <c r="J33" s="3">
-        <v>1735300</v>
+        <v>1726700</v>
       </c>
       <c r="K33" s="3">
         <v>1631100</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2913100</v>
+        <v>2898600</v>
       </c>
       <c r="E35" s="3">
-        <v>2673100</v>
+        <v>2659800</v>
       </c>
       <c r="F35" s="3">
-        <v>2339500</v>
+        <v>2327900</v>
       </c>
       <c r="G35" s="3">
-        <v>2006200</v>
+        <v>1996300</v>
       </c>
       <c r="H35" s="3">
-        <v>1862300</v>
+        <v>1853100</v>
       </c>
       <c r="I35" s="3">
-        <v>1937900</v>
+        <v>1928300</v>
       </c>
       <c r="J35" s="3">
-        <v>1735300</v>
+        <v>1726700</v>
       </c>
       <c r="K35" s="3">
         <v>1631100</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1168400</v>
+        <v>1162600</v>
       </c>
       <c r="E41" s="3">
-        <v>1628600</v>
+        <v>1620600</v>
       </c>
       <c r="F41" s="3">
-        <v>2365400</v>
+        <v>2353700</v>
       </c>
       <c r="G41" s="3">
-        <v>1437700</v>
+        <v>1430600</v>
       </c>
       <c r="H41" s="3">
-        <v>1673100</v>
+        <v>1664800</v>
       </c>
       <c r="I41" s="3">
-        <v>1527600</v>
+        <v>1520000</v>
       </c>
       <c r="J41" s="3">
-        <v>1730900</v>
+        <v>1722300</v>
       </c>
       <c r="K41" s="3">
         <v>3255600</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1126900</v>
+        <v>1120100</v>
       </c>
       <c r="E42" s="3">
-        <v>1267200</v>
+        <v>1260000</v>
       </c>
       <c r="F42" s="3">
-        <v>845500</v>
+        <v>840500</v>
       </c>
       <c r="G42" s="3">
-        <v>1332800</v>
+        <v>1325200</v>
       </c>
       <c r="H42" s="3">
-        <v>1451000</v>
+        <v>1443400</v>
       </c>
       <c r="I42" s="3">
-        <v>1578600</v>
+        <v>1570800</v>
       </c>
       <c r="J42" s="3">
-        <v>2140700</v>
+        <v>2130000</v>
       </c>
       <c r="K42" s="3">
         <v>647100</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5449900</v>
+        <v>5422900</v>
       </c>
       <c r="E43" s="3">
-        <v>4503000</v>
+        <v>4480700</v>
       </c>
       <c r="F43" s="3">
-        <v>3589600</v>
+        <v>3571800</v>
       </c>
       <c r="G43" s="3">
-        <v>3374400</v>
+        <v>3357700</v>
       </c>
       <c r="H43" s="3">
-        <v>2811900</v>
+        <v>2797900</v>
       </c>
       <c r="I43" s="3">
-        <v>2350300</v>
+        <v>2338600</v>
       </c>
       <c r="J43" s="3">
-        <v>2261300</v>
+        <v>2250100</v>
       </c>
       <c r="K43" s="3">
         <v>2075200</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>824300</v>
+        <v>821400</v>
       </c>
       <c r="E45" s="3">
-        <v>723800</v>
+        <v>721100</v>
       </c>
       <c r="F45" s="3">
-        <v>542100</v>
+        <v>540100</v>
       </c>
       <c r="G45" s="3">
-        <v>453300</v>
+        <v>452000</v>
       </c>
       <c r="H45" s="3">
-        <v>456900</v>
+        <v>455100</v>
       </c>
       <c r="I45" s="3">
-        <v>590600</v>
+        <v>587700</v>
       </c>
       <c r="J45" s="3">
-        <v>360000</v>
+        <v>358300</v>
       </c>
       <c r="K45" s="3">
         <v>272000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8569500</v>
+        <v>8527000</v>
       </c>
       <c r="E46" s="3">
-        <v>8122700</v>
+        <v>8082400</v>
       </c>
       <c r="F46" s="3">
-        <v>7342600</v>
+        <v>7306200</v>
       </c>
       <c r="G46" s="3">
-        <v>6598200</v>
+        <v>6565500</v>
       </c>
       <c r="H46" s="3">
-        <v>6393000</v>
+        <v>6361200</v>
       </c>
       <c r="I46" s="3">
-        <v>6047100</v>
+        <v>6017000</v>
       </c>
       <c r="J46" s="3">
-        <v>6492900</v>
+        <v>6460700</v>
       </c>
       <c r="K46" s="3">
         <v>6249900</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2716700</v>
+        <v>2697600</v>
       </c>
       <c r="E47" s="3">
-        <v>2653000</v>
+        <v>2634200</v>
       </c>
       <c r="F47" s="3">
-        <v>2303600</v>
+        <v>2286300</v>
       </c>
       <c r="G47" s="3">
-        <v>1253600</v>
+        <v>1241400</v>
       </c>
       <c r="H47" s="3">
-        <v>1445200</v>
+        <v>1431800</v>
       </c>
       <c r="I47" s="3">
-        <v>1606800</v>
+        <v>1598800</v>
       </c>
       <c r="J47" s="3">
-        <v>1474700</v>
+        <v>1467400</v>
       </c>
       <c r="K47" s="3">
         <v>866700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2480400</v>
+        <v>2468100</v>
       </c>
       <c r="E48" s="3">
-        <v>2214200</v>
+        <v>2203200</v>
       </c>
       <c r="F48" s="3">
-        <v>2226600</v>
+        <v>2215600</v>
       </c>
       <c r="G48" s="3">
-        <v>2160100</v>
+        <v>2149400</v>
       </c>
       <c r="H48" s="3">
-        <v>1614700</v>
+        <v>1606700</v>
       </c>
       <c r="I48" s="3">
-        <v>1468100</v>
+        <v>1460800</v>
       </c>
       <c r="J48" s="3">
-        <v>1416500</v>
+        <v>1409400</v>
       </c>
       <c r="K48" s="3">
         <v>1273100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1087700</v>
+        <v>1082300</v>
       </c>
       <c r="E49" s="3">
-        <v>955400</v>
+        <v>950600</v>
       </c>
       <c r="F49" s="3">
-        <v>985500</v>
+        <v>980600</v>
       </c>
       <c r="G49" s="3">
-        <v>868800</v>
+        <v>864500</v>
       </c>
       <c r="H49" s="3">
-        <v>511500</v>
+        <v>509000</v>
       </c>
       <c r="I49" s="3">
-        <v>297200</v>
+        <v>295700</v>
       </c>
       <c r="J49" s="3">
-        <v>535300</v>
+        <v>532700</v>
       </c>
       <c r="K49" s="3">
         <v>574200</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>356800</v>
+        <v>360700</v>
       </c>
       <c r="E52" s="3">
-        <v>307100</v>
+        <v>311200</v>
       </c>
       <c r="F52" s="3">
-        <v>245500</v>
+        <v>250200</v>
       </c>
       <c r="G52" s="3">
-        <v>334900</v>
+        <v>339200</v>
       </c>
       <c r="H52" s="3">
-        <v>280400</v>
+        <v>285200</v>
       </c>
       <c r="I52" s="3">
-        <v>239600</v>
+        <v>238400</v>
       </c>
       <c r="J52" s="3">
-        <v>158100</v>
+        <v>157400</v>
       </c>
       <c r="K52" s="3">
         <v>150600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15211200</v>
+        <v>15135700</v>
       </c>
       <c r="E54" s="3">
-        <v>14252300</v>
+        <v>14181600</v>
       </c>
       <c r="F54" s="3">
-        <v>13103900</v>
+        <v>13038800</v>
       </c>
       <c r="G54" s="3">
-        <v>11215700</v>
+        <v>11160000</v>
       </c>
       <c r="H54" s="3">
-        <v>10244800</v>
+        <v>10194000</v>
       </c>
       <c r="I54" s="3">
-        <v>9658700</v>
+        <v>9610800</v>
       </c>
       <c r="J54" s="3">
-        <v>10077600</v>
+        <v>10027600</v>
       </c>
       <c r="K54" s="3">
         <v>9114500</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>467300</v>
+        <v>465000</v>
       </c>
       <c r="E57" s="3">
-        <v>499800</v>
+        <v>497300</v>
       </c>
       <c r="F57" s="3">
-        <v>319800</v>
+        <v>318200</v>
       </c>
       <c r="G57" s="3">
-        <v>344800</v>
+        <v>343100</v>
       </c>
       <c r="H57" s="3">
-        <v>200100</v>
+        <v>199100</v>
       </c>
       <c r="I57" s="3">
-        <v>83900</v>
+        <v>83500</v>
       </c>
       <c r="J57" s="3">
-        <v>44400</v>
+        <v>44200</v>
       </c>
       <c r="K57" s="3">
         <v>46700</v>
@@ -2576,16 +2576,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>150200</v>
+        <v>149400</v>
       </c>
       <c r="E58" s="3">
-        <v>105400</v>
+        <v>104900</v>
       </c>
       <c r="F58" s="3">
-        <v>89200</v>
+        <v>88800</v>
       </c>
       <c r="G58" s="3">
-        <v>74800</v>
+        <v>74500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4120200</v>
+        <v>4099700</v>
       </c>
       <c r="E59" s="3">
-        <v>3457400</v>
+        <v>3440200</v>
       </c>
       <c r="F59" s="3">
-        <v>2476300</v>
+        <v>2464000</v>
       </c>
       <c r="G59" s="3">
-        <v>2101800</v>
+        <v>2091400</v>
       </c>
       <c r="H59" s="3">
-        <v>2053200</v>
+        <v>2043100</v>
       </c>
       <c r="I59" s="3">
-        <v>1621400</v>
+        <v>1613300</v>
       </c>
       <c r="J59" s="3">
-        <v>1649800</v>
+        <v>1641600</v>
       </c>
       <c r="K59" s="3">
         <v>1553900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4737600</v>
+        <v>4714100</v>
       </c>
       <c r="E60" s="3">
-        <v>4062600</v>
+        <v>4042400</v>
       </c>
       <c r="F60" s="3">
-        <v>2885300</v>
+        <v>2871000</v>
       </c>
       <c r="G60" s="3">
-        <v>2521500</v>
+        <v>2509000</v>
       </c>
       <c r="H60" s="3">
-        <v>2253300</v>
+        <v>2242200</v>
       </c>
       <c r="I60" s="3">
-        <v>1705300</v>
+        <v>1696800</v>
       </c>
       <c r="J60" s="3">
-        <v>1694200</v>
+        <v>1685800</v>
       </c>
       <c r="K60" s="3">
         <v>1600600</v>
@@ -2702,16 +2702,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>853200</v>
+        <v>849000</v>
       </c>
       <c r="E61" s="3">
-        <v>556400</v>
+        <v>553600</v>
       </c>
       <c r="F61" s="3">
-        <v>554600</v>
+        <v>551800</v>
       </c>
       <c r="G61" s="3">
-        <v>485300</v>
+        <v>482900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>456800</v>
+        <v>454500</v>
       </c>
       <c r="E62" s="3">
-        <v>476800</v>
+        <v>474500</v>
       </c>
       <c r="F62" s="3">
-        <v>381100</v>
+        <v>379200</v>
       </c>
       <c r="G62" s="3">
-        <v>248300</v>
+        <v>247100</v>
       </c>
       <c r="H62" s="3">
-        <v>132300</v>
+        <v>131600</v>
       </c>
       <c r="I62" s="3">
-        <v>104100</v>
+        <v>103600</v>
       </c>
       <c r="J62" s="3">
-        <v>43500</v>
+        <v>43300</v>
       </c>
       <c r="K62" s="3">
         <v>44900</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6094400</v>
+        <v>6064200</v>
       </c>
       <c r="E66" s="3">
-        <v>5142500</v>
+        <v>5117000</v>
       </c>
       <c r="F66" s="3">
-        <v>3873000</v>
+        <v>3853800</v>
       </c>
       <c r="G66" s="3">
-        <v>3302700</v>
+        <v>3286400</v>
       </c>
       <c r="H66" s="3">
-        <v>2392600</v>
+        <v>2380700</v>
       </c>
       <c r="I66" s="3">
-        <v>1809500</v>
+        <v>1800500</v>
       </c>
       <c r="J66" s="3">
-        <v>1737700</v>
+        <v>1729100</v>
       </c>
       <c r="K66" s="3">
         <v>1645400</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8631300</v>
+        <v>8588500</v>
       </c>
       <c r="E72" s="3">
-        <v>8678400</v>
+        <v>8635400</v>
       </c>
       <c r="F72" s="3">
-        <v>8691900</v>
+        <v>8648700</v>
       </c>
       <c r="G72" s="3">
-        <v>7458000</v>
+        <v>7420900</v>
       </c>
       <c r="H72" s="3">
-        <v>7432800</v>
+        <v>7395900</v>
       </c>
       <c r="I72" s="3">
-        <v>7602200</v>
+        <v>7564500</v>
       </c>
       <c r="J72" s="3">
-        <v>7865300</v>
+        <v>7826200</v>
       </c>
       <c r="K72" s="3">
         <v>6970500</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9116700</v>
+        <v>9071500</v>
       </c>
       <c r="E76" s="3">
-        <v>9109800</v>
+        <v>9064600</v>
       </c>
       <c r="F76" s="3">
-        <v>9230800</v>
+        <v>9185000</v>
       </c>
       <c r="G76" s="3">
-        <v>7912900</v>
+        <v>7873600</v>
       </c>
       <c r="H76" s="3">
-        <v>7852200</v>
+        <v>7813200</v>
       </c>
       <c r="I76" s="3">
-        <v>7849200</v>
+        <v>7810200</v>
       </c>
       <c r="J76" s="3">
-        <v>8339900</v>
+        <v>8298500</v>
       </c>
       <c r="K76" s="3">
         <v>7469100</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2913100</v>
+        <v>2898600</v>
       </c>
       <c r="E81" s="3">
-        <v>2673100</v>
+        <v>2659800</v>
       </c>
       <c r="F81" s="3">
-        <v>2339500</v>
+        <v>2327900</v>
       </c>
       <c r="G81" s="3">
-        <v>2006200</v>
+        <v>1996300</v>
       </c>
       <c r="H81" s="3">
-        <v>1862300</v>
+        <v>1853100</v>
       </c>
       <c r="I81" s="3">
-        <v>1937900</v>
+        <v>1928300</v>
       </c>
       <c r="J81" s="3">
-        <v>1735300</v>
+        <v>1726700</v>
       </c>
       <c r="K81" s="3">
         <v>1631100</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>510800</v>
+        <v>508300</v>
       </c>
       <c r="E83" s="3">
-        <v>420200</v>
+        <v>418200</v>
       </c>
       <c r="F83" s="3">
-        <v>395000</v>
+        <v>393000</v>
       </c>
       <c r="G83" s="3">
-        <v>349800</v>
+        <v>348000</v>
       </c>
       <c r="H83" s="3">
-        <v>243100</v>
+        <v>241900</v>
       </c>
       <c r="I83" s="3">
-        <v>225200</v>
+        <v>224100</v>
       </c>
       <c r="J83" s="3">
-        <v>205900</v>
+        <v>204900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2716300</v>
+        <v>2702800</v>
       </c>
       <c r="E89" s="3">
-        <v>2887700</v>
+        <v>2873400</v>
       </c>
       <c r="F89" s="3">
-        <v>2917000</v>
+        <v>2902500</v>
       </c>
       <c r="G89" s="3">
-        <v>2243500</v>
+        <v>2232400</v>
       </c>
       <c r="H89" s="3">
-        <v>1915500</v>
+        <v>1906000</v>
       </c>
       <c r="I89" s="3">
-        <v>1760200</v>
+        <v>1751400</v>
       </c>
       <c r="J89" s="3">
-        <v>1700200</v>
+        <v>1691800</v>
       </c>
       <c r="K89" s="3">
         <v>1299900</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-311800</v>
+        <v>-310300</v>
       </c>
       <c r="E91" s="3">
-        <v>-261300</v>
+        <v>-260000</v>
       </c>
       <c r="F91" s="3">
-        <v>-254700</v>
+        <v>-253500</v>
       </c>
       <c r="G91" s="3">
-        <v>-399800</v>
+        <v>-397800</v>
       </c>
       <c r="H91" s="3">
-        <v>-295600</v>
+        <v>-294100</v>
       </c>
       <c r="I91" s="3">
-        <v>-241600</v>
+        <v>-240400</v>
       </c>
       <c r="J91" s="3">
-        <v>-333700</v>
+        <v>-332000</v>
       </c>
       <c r="K91" s="3">
         <v>-271700</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-146200</v>
+        <v>-145400</v>
       </c>
       <c r="E94" s="3">
-        <v>-775700</v>
+        <v>-771800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1010600</v>
+        <v>-1005600</v>
       </c>
       <c r="G94" s="3">
-        <v>-216800</v>
+        <v>-215700</v>
       </c>
       <c r="H94" s="3">
-        <v>-190800</v>
+        <v>-189800</v>
       </c>
       <c r="I94" s="3">
-        <v>376100</v>
+        <v>374300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2064200</v>
+        <v>-2054000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1648000</v>
+        <v>-1639800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1529600</v>
+        <v>-1522000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1102200</v>
+        <v>-1096800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1150400</v>
+        <v>-1144700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1656900</v>
+        <v>-1648700</v>
       </c>
       <c r="I96" s="3">
-        <v>-902400</v>
+        <v>-897900</v>
       </c>
       <c r="J96" s="3">
-        <v>-838900</v>
+        <v>-834800</v>
       </c>
       <c r="K96" s="3">
         <v>-596600</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3227400</v>
+        <v>-3211400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2979200</v>
+        <v>-2964400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1183100</v>
+        <v>-1177300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2126800</v>
+        <v>-2116200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1754500</v>
+        <v>-1745800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2479100</v>
+        <v>-2466800</v>
       </c>
       <c r="J100" s="3">
-        <v>-838900</v>
+        <v>-834800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,7 +4207,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="E101" s="3">
         <v>-8300</v>
@@ -4222,7 +4222,7 @@
         <v>-6900</v>
       </c>
       <c r="I101" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="J101" s="3">
         <v>-14700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-640600</v>
+        <v>-637500</v>
       </c>
       <c r="E102" s="3">
-        <v>-875600</v>
+        <v>-871200</v>
       </c>
       <c r="F102" s="3">
-        <v>733300</v>
+        <v>729600</v>
       </c>
       <c r="G102" s="3">
-        <v>-111100</v>
+        <v>-110600</v>
       </c>
       <c r="H102" s="3">
-        <v>-36600</v>
+        <v>-36500</v>
       </c>
       <c r="I102" s="3">
-        <v>-333000</v>
+        <v>-331300</v>
       </c>
       <c r="J102" s="3">
-        <v>-1217700</v>
+        <v>-1211700</v>
       </c>
       <c r="K102" s="3">
         <v>534000</v>
